--- a/Power tree.xlsx
+++ b/Power tree.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fred\Downloads\SBC5-Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heinecke\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F76A849-9B51-4B2D-AA14-2D44C4905682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CCA29E-2409-405A-A194-00131A3DC3C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E72A3546-5772-4171-86E1-18A31D0176B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Buck converters" sheetId="4" r:id="rId1"/>
     <sheet name="PMIC" sheetId="2" r:id="rId2"/>
-    <sheet name="CPU" sheetId="1" r:id="rId3"/>
-    <sheet name="DDR3L" sheetId="3" r:id="rId4"/>
+    <sheet name="Ethernet PHY" sheetId="5" r:id="rId3"/>
+    <sheet name="CPU" sheetId="1" r:id="rId4"/>
+    <sheet name="DDR3L" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
   <si>
     <t>Source</t>
   </si>
@@ -372,9 +373,6 @@
     <t>VREFDDR</t>
   </si>
   <si>
-    <t>Input voltage</t>
-  </si>
-  <si>
     <t>NVCC_DRAM, VINREFDDR</t>
   </si>
   <si>
@@ -396,19 +394,55 @@
     <t>Primary power in</t>
   </si>
   <si>
-    <t>Input voltage (V)</t>
-  </si>
-  <si>
-    <t>Output voltage (V)</t>
-  </si>
-  <si>
     <t>PMIC</t>
   </si>
   <si>
     <t>USB</t>
   </si>
   <si>
-    <t>Note: Estimations, not finished.</t>
+    <t>VDDIO, VDDCR, VDD1A, VDD2A</t>
+  </si>
+  <si>
+    <t>Peripherals, Ethernet PHY</t>
+  </si>
+  <si>
+    <t>System input power</t>
+  </si>
+  <si>
+    <t>Input voltage
+(V)</t>
+  </si>
+  <si>
+    <t>Current in
+(mA)</t>
+  </si>
+  <si>
+    <t>Power in
+(mW)</t>
+  </si>
+  <si>
+    <t>Power in
+(W)</t>
+  </si>
+  <si>
+    <t>Output voltage
+(V)</t>
+  </si>
+  <si>
+    <t>Current out
+(mA)</t>
+  </si>
+  <si>
+    <t>Power out
+(mW)</t>
+  </si>
+  <si>
+    <t>Power out
+(W)</t>
+  </si>
+  <si>
+    <t>Heat loss
+(W)</t>
   </si>
 </sst>
 </file>
@@ -416,9 +450,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -444,7 +478,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -564,16 +598,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -582,11 +713,39 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -597,234 +756,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+  <dxfs count="62">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -845,13 +825,345 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -867,6 +1179,181 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{92E29884-83E4-4CB9-941E-86581A7C7D24}" name="Table9" displayName="Table9" ref="B1:L3" totalsRowShown="0" headerRowDxfId="22">
+  <autoFilter ref="B1:L3" xr:uid="{8837DF0B-F947-47F6-BAB2-639251F47D32}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{64AF6BF8-06D8-456B-B292-58F47ECF9BF9}" name="Input voltage_x000a_(V)"/>
+    <tableColumn id="2" xr3:uid="{875EC177-152A-4041-9ECC-8D9CABF22856}" name="Current in_x000a_(mA)" dataDxfId="21">
+      <calculatedColumnFormula>I2/B2/L2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{C290F034-A301-4C58-9CBE-BBFFA79FEBF9}" name="Power in_x000a_(mW)" dataDxfId="20">
+      <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{215BC251-9678-4D00-A85C-B906B9DF625D}" name="Power in_x000a_(W)" dataDxfId="19">
+      <calculatedColumnFormula>D2/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{1C531A31-A671-4CEA-98D0-048400BE54C9}" name="Sink"/>
+    <tableColumn id="6" xr3:uid="{A7C731B7-F2F9-4285-B64D-072DE649CF9E}" name="Output voltage_x000a_(V)"/>
+    <tableColumn id="7" xr3:uid="{FB4AAEE5-7DF8-4806-866E-FF20D7AFDFBC}" name="Current out_x000a_(mA)"/>
+    <tableColumn id="8" xr3:uid="{648F6602-28B0-4537-AE22-5CC1B9E6F90C}" name="Power out_x000a_(mW)" dataDxfId="18">
+      <calculatedColumnFormula>G2*H2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{460B383B-76D0-4DB4-9FCE-9AF75B108791}" name="Power out_x000a_(W)" dataDxfId="17">
+      <calculatedColumnFormula>I2/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{1B8CC755-9B2B-49E4-8D96-E8F4ED827615}" name="Heat loss_x000a_(W)" dataDxfId="16">
+      <calculatedColumnFormula>E2-J2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{8DA88ED1-BA42-4B1B-9AC4-C6709E7CC53A}" name="Efficiency" dataDxfId="15" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C976DDEC-149E-4D75-B6F3-FE2F1B8B4B49}" name="Table7" displayName="Table7" ref="B1:G3" totalsRowShown="0">
+  <autoFilter ref="B1:G3" xr:uid="{D1F2DD2C-0A32-4997-ABAE-405C749C2180}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{CCD5072F-1168-45F7-AA2F-4BC064CBDE28}" name="Sink"/>
+    <tableColumn id="2" xr3:uid="{47075CC8-388E-49B2-9580-771FF11982F5}" name="Voltage (V)">
+      <calculatedColumnFormula>C1/2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{8A564D3B-7B57-4AC3-88E0-F4283426C95F}" name="Current (mA)"/>
+    <tableColumn id="4" xr3:uid="{0271ACA7-FDC7-4BD6-B2DC-FE9153093DF3}" name="Power (mW)">
+      <calculatedColumnFormula>D2*C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{840AFCD8-3A08-4AE3-ACED-C3EE1359E98C}" name="Power (W)">
+      <calculatedColumnFormula>E2/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{70431354-B7C7-4258-A492-637CA4559D18}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A52996C-EFBB-441D-8341-084F34FF4BF3}" name="Table8" displayName="Table8" ref="B7:F9" totalsRowShown="0">
+  <autoFilter ref="B7:F9" xr:uid="{B590B994-F24D-43D5-AAE1-AB5C0F39A5D2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3D41CA9D-FB20-4377-96AD-31856310779A}" name="Sink"/>
+    <tableColumn id="2" xr3:uid="{ECD64578-F73E-4642-8F0B-D740A4556471}" name="Voltage (V)" dataDxfId="26">
+      <calculatedColumnFormula>C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E99D08CC-593B-447B-BB41-7CEC089F938A}" name="Current (mA)">
+      <calculatedColumnFormula>2*SUMIF($C$2:$C$3, $C8, $D$2:$D$3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{4E90C8AD-2135-4B45-ADAA-697F9B6DF302}" name="Power (mW)">
+      <calculatedColumnFormula>D8*C8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{5FA36D9F-1D37-4745-AF66-DB20EE7D2464}" name="Power (W)">
+      <calculatedColumnFormula>E8/1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{728C2D89-6433-4009-ABEA-301F2EE0BDA6}" name="Table10" displayName="Table10" ref="B1:T14" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="B1:T14" xr:uid="{660142C1-230E-4338-B7F9-2B1ABCB59A99}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{C32C9119-92FB-4C2B-B78D-96AA99DBA12F}" name="Source"/>
+    <tableColumn id="2" xr3:uid="{1AB1B7EE-AC5E-4407-BCEB-5825830C3B86}" name="Min voltage in (V)"/>
+    <tableColumn id="3" xr3:uid="{7E8842C1-993F-40B3-B9B3-93430011103F}" name="Max voltage in (V)"/>
+    <tableColumn id="4" xr3:uid="{FF16302E-4F34-4DE9-A9FF-B2948BBC328C}" name="Voltage in (V)"/>
+    <tableColumn id="5" xr3:uid="{317C6DA6-006D-4E68-87A7-44DCA77A817B}" name="Current in (mA)">
+      <calculatedColumnFormula>O2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{FE486BB4-7D80-47E4-B777-07DDD266AECC}" name="Power in (mW)" dataDxfId="11">
+      <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{0133FC51-05E5-4966-8DCD-0A90CF67BB88}" name="Power in (W)" dataDxfId="10">
+      <calculatedColumnFormula>G2/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{1C09D616-C725-4140-B7DE-6B6580E5CD8C}" name="Max current out (mA)" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{9D26CC57-EE4B-4296-B55A-0316411A369B}" name="Output" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{B957A170-8C95-4B29-B00B-C973C936787E}" name="Sink"/>
+    <tableColumn id="11" xr3:uid="{EE32E27A-BD83-4BCA-8589-554F25AC8715}" name="Min voltage out (V)"/>
+    <tableColumn id="12" xr3:uid="{3AF01889-8D2D-4EAC-97B9-547901DCCAFE}" name="Max voltage out (V)"/>
+    <tableColumn id="13" xr3:uid="{173A4E0F-633C-4FF3-B73F-718616C6BC8F}" name="Voltage out (V)"/>
+    <tableColumn id="14" xr3:uid="{5E1BB9C2-59E5-4565-AEF8-6C592777FF6B}" name="Current out (mA)" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{DC560683-4A87-4E70-8DC8-8096A3C362C3}" name="Power out (mW)" dataDxfId="6">
+      <calculatedColumnFormula>N2*O2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{855B29C6-554F-46B9-94DB-149D10271BD4}" name="Power out (W)" dataDxfId="5">
+      <calculatedColumnFormula>P2/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{6FBB9F3C-240D-4933-9B15-D15CD70B30DB}" name="Voltage drop (V)">
+      <calculatedColumnFormula>E2-N2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{D283933F-6F5F-4BA8-9367-4D75B51F4D5D}" name="Heat loss (W)" dataDxfId="4">
+      <calculatedColumnFormula>H2-Q2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{02EC7941-E4D9-4CDB-97EC-81FDC39262D7}" name="Efficiency" dataDxfId="3" dataCellStyle="Percent">
+      <calculatedColumnFormula>IF(H2=0,1,Q2/H2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7F86B533-7364-4BB7-AAAA-D8DEE6FBB573}" name="Table11" displayName="Table11" ref="B18:H23" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="B18:H23" xr:uid="{DB6740D6-ABDF-4DE8-998E-29F3E18761F9}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{2D34AD4E-9D3F-49AA-ABF6-FEFD15E0CF5F}" name="Source"/>
+    <tableColumn id="2" xr3:uid="{1FB90865-2342-4119-9A11-14F8CB4DAE88}" name="Min voltage in (V)"/>
+    <tableColumn id="3" xr3:uid="{7AB22D95-8FD0-4E90-A14A-CC6508DC5FDD}" name="Max voltage in (V)"/>
+    <tableColumn id="4" xr3:uid="{1169AF06-C16B-4030-942F-D01A16E4157B}" name="Voltage in (V)"/>
+    <tableColumn id="5" xr3:uid="{F5AB428D-CAB8-494D-9165-72BB2FBF89CB}" name="Current in (mA)"/>
+    <tableColumn id="6" xr3:uid="{E63A8BCE-0EE7-4654-B919-65E9385046AB}" name="Power in (mW)" dataDxfId="2">
+      <calculatedColumnFormula>E19*F19</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{DE9D0662-A10B-4C04-A663-1C90DCA5B981}" name="Power in (W)" dataDxfId="1">
+      <calculatedColumnFormula>G19/1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{559CCFC3-5F07-45CA-9386-336DA9DCEC0D}" name="Table12" displayName="Table12" ref="K18:O21" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="K18:O21" xr:uid="{C020B84F-A046-4B5B-B5F1-18402570AC4C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9DC3A4C0-E85B-48A0-AEE7-6AAA4C8B63C0}" name="Sinks"/>
+    <tableColumn id="2" xr3:uid="{D654CBB0-7086-443F-98C4-D828B6CD3DEF}" name="Voltage in (V)"/>
+    <tableColumn id="3" xr3:uid="{0788F4AD-6965-48FC-BC76-842338E2F353}" name="Current in (mA)"/>
+    <tableColumn id="4" xr3:uid="{31999E69-D6D9-46B0-BFFB-EFB189C1EAB6}" name="Power in (mW)">
+      <calculatedColumnFormula>L19*M19</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{9C3C5FE4-08C2-4E0C-8305-98BC461454F5}" name="Power in (W)" dataDxfId="0">
+      <calculatedColumnFormula>N19/1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1114EC46-03A0-4ED4-9517-32D73F2DBAFD}" name="Table5" displayName="Table5" ref="B1:F2" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+  <autoFilter ref="B1:F2" xr:uid="{3A6101FE-8D0D-4071-A18D-7C3560B79C30}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{72E3BD3C-CA2B-4657-A05C-D072C6C7961C}" name="Sink" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{570C98D0-73CD-4B61-B4B6-B3C077CEA15C}" name="Voltage (V)"/>
+    <tableColumn id="3" xr3:uid="{B4FD65A7-DDF3-44D8-81EC-C1A94FEA0D8E}" name="Current (mA)"/>
+    <tableColumn id="4" xr3:uid="{F8A0947B-24CF-4BB9-AA30-CC6EDBB5E178}" name="Power (mW)" dataDxfId="24">
+      <calculatedColumnFormula>D2*C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{BD83BC3A-DAAD-4274-832F-3FD01B430CA6}" name="Power (W)" dataDxfId="23">
+      <calculatedColumnFormula>E2/1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C6E51B9-7944-4543-AA05-9D0495620B89}" name="Table1" displayName="Table1" ref="B1:F16" totalsRowShown="0">
   <autoFilter ref="B1:F16" xr:uid="{15FF9113-A392-4DB2-A6AD-A3E47A98D3A0}"/>
   <tableColumns count="5">
@@ -874,7 +1361,7 @@
     <tableColumn id="2" xr3:uid="{F50F894B-AB63-4B3A-A49A-F65D5ABB32D9}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{73310900-DEBA-4348-8E3A-39A10BBA45AA}" name="Current (mA)"/>
     <tableColumn id="4" xr3:uid="{008C10E9-8D15-4037-8C66-5232AD8F1671}" name="Power (mW)"/>
-    <tableColumn id="5" xr3:uid="{DD05115D-C945-4C00-AABD-0E5D5C38B729}" name="Power (W)" dataDxfId="31">
+    <tableColumn id="5" xr3:uid="{DD05115D-C945-4C00-AABD-0E5D5C38B729}" name="Power (W)" dataDxfId="35">
       <calculatedColumnFormula>E2/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -882,17 +1369,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82535CE0-6075-4A73-8824-9897DC91F38A}" name="Table2" displayName="Table2" ref="B20:F30" totalsRowShown="0">
   <autoFilter ref="B20:F30" xr:uid="{1FAAC9C6-6796-4431-BF53-09FEB50EE390}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C2B77D68-610C-45C2-A1E7-DADE40229038}" name="Sink"/>
     <tableColumn id="2" xr3:uid="{B2A67EEF-BED3-40E4-A057-6360AC85B1D4}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{E54580B1-0317-42DA-AAAC-8A874DFF8997}" name="Current (mA)"/>
-    <tableColumn id="4" xr3:uid="{51960A38-2E5D-4C0C-815F-860C62579BFD}" name="Power (mW)" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{51960A38-2E5D-4C0C-815F-860C62579BFD}" name="Power (mW)" dataDxfId="34">
       <calculatedColumnFormula>C21*D21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{26AC31C2-EB8A-40E3-9D81-D5CCCFB3A51E}" name="Power (W)" dataDxfId="29">
+    <tableColumn id="5" xr3:uid="{26AC31C2-EB8A-40E3-9D81-D5CCCFB3A51E}" name="Power (W)" dataDxfId="33">
       <calculatedColumnFormula>E21/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -900,7 +1387,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{92AA20D8-44CF-40F8-89DD-5971C90E1E2E}" name="Table3" displayName="Table3" ref="I1:P10" totalsRowShown="0">
   <autoFilter ref="I1:P10" xr:uid="{3AFCE96B-4FE0-46FD-9046-EA9DF9CA50CB}"/>
   <tableColumns count="8">
@@ -917,7 +1404,7 @@
     <tableColumn id="7" xr3:uid="{6CBD30A4-777A-4B77-BCC3-AA2D89C0E42C}" name="LDO power lost (W)">
       <calculatedColumnFormula>(K2-J2)*L2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{623667BF-2457-4802-B8CD-2579388158E0}" name="Efficiency" dataDxfId="28" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{623667BF-2457-4802-B8CD-2579388158E0}" name="Efficiency" dataDxfId="32" dataCellStyle="Percent">
       <calculatedColumnFormula>(N2-O2)/N2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -925,16 +1412,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{44C175ED-7E81-4F71-88EC-6B87251AE443}" name="Table4" displayName="Table4" ref="I16:P30" totalsRowShown="0">
   <autoFilter ref="I16:P30" xr:uid="{A57BA318-A482-4EFA-89DC-841AFFF6B725}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0655E15C-2445-44F5-8DFB-8932359691AD}" name="Sink"/>
     <tableColumn id="2" xr3:uid="{75AC5B89-4231-41FE-873D-325BA0B5DB7F}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{C32987F5-324A-4AAB-BC93-AC8BE297E733}" name="Number of pins"/>
-    <tableColumn id="4" xr3:uid="{34192BDA-FC9C-44A3-9D3B-16ABFD0528C4}" name="Capacitance (F)" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{34192BDA-FC9C-44A3-9D3B-16ABFD0528C4}" name="Capacitance (F)" dataDxfId="31"/>
     <tableColumn id="5" xr3:uid="{3A4A1471-8852-4C33-AB93-9F503D480C58}" name="Frequency (Hz)"/>
-    <tableColumn id="6" xr3:uid="{1E36DBC9-59AA-45A2-9136-FE0DB7C1010C}" name="Current (mA)" dataDxfId="26">
+    <tableColumn id="6" xr3:uid="{1E36DBC9-59AA-45A2-9136-FE0DB7C1010C}" name="Current (mA)" dataDxfId="30">
       <calculatedColumnFormula>1000*K17*L17*J17*0.5*M17</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{B52E8B41-12A9-4440-A949-A9CDEC8E10B8}" name="Power (mW)">
@@ -1245,183 +1732,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2968E912-AAF4-43C0-A76F-CA791995FA7C}">
-  <dimension ref="B1:L11"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="8">
+        <v>12</v>
+      </c>
+      <c r="C2" s="20">
+        <f>I2/B2/L2</f>
+        <v>527.26917161988297</v>
+      </c>
+      <c r="D2" s="20">
+        <f>B2*C2</f>
+        <v>6327.2300594385961</v>
+      </c>
+      <c r="E2" s="18">
+        <f>D2/1000</f>
+        <v>6.3272300594385964</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="8">
+        <f>PMIC!L19</f>
+        <v>3.7</v>
+      </c>
+      <c r="H2" s="20">
+        <f>PMIC!M19</f>
+        <v>1299.6472554522522</v>
+      </c>
+      <c r="I2" s="20">
+        <f>G2*H2</f>
+        <v>4808.6948451733333</v>
+      </c>
+      <c r="J2" s="18">
+        <f>I2/1000</f>
+        <v>4.8086948451733331</v>
+      </c>
+      <c r="K2" s="18">
+        <f>E2-J2</f>
+        <v>1.5185352142652633</v>
+      </c>
+      <c r="L2" s="21">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3" s="20">
+        <f>I3/B3/L3</f>
+        <v>508.13008130081306</v>
+      </c>
+      <c r="D3" s="20">
+        <f>B3*C3</f>
+        <v>6097.5609756097565</v>
+      </c>
+      <c r="E3" s="18">
+        <f>D3/1000</f>
+        <v>6.0975609756097562</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2" s="8">
-        <f>I2/B2/L2</f>
-        <v>378.44396714567898</v>
-      </c>
-      <c r="D2" s="8">
-        <f>B2*C2</f>
-        <v>4541.327605748148</v>
-      </c>
-      <c r="E2" s="6">
-        <f>D2/1000</f>
-        <v>4.5413276057481484</v>
-      </c>
-      <c r="F2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2">
-        <v>3.7</v>
-      </c>
-      <c r="H2" s="8">
-        <f>PMIC!M19</f>
-        <v>1104.6472554522522</v>
-      </c>
-      <c r="I2" s="8">
-        <f>G2*H2</f>
-        <v>4087.1948451733333</v>
-      </c>
-      <c r="J2" s="6">
-        <f>I2/1000</f>
-        <v>4.0871948451733333</v>
-      </c>
-      <c r="K2" s="5">
-        <f>E2-J2</f>
-        <v>0.45413276057481511</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8">
-        <f>I3/B3/L3</f>
-        <v>462.96296296296299</v>
-      </c>
-      <c r="D3" s="8">
-        <f>B3*C3</f>
-        <v>5555.5555555555557</v>
-      </c>
-      <c r="E3" s="6">
-        <f>D3/1000</f>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="F3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="8">
         <v>1000</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="20">
         <f>G3*H3</f>
         <v>5000</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="18">
         <f>I3/1000</f>
         <v>5</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="18">
         <f>E3-J3</f>
-        <v>0.55555555555555536</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+        <v>1.0975609756097562</v>
+      </c>
+      <c r="L3" s="21">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="46">
         <f>SUM(C2:C3)</f>
-        <v>841.40693010864197</v>
-      </c>
-      <c r="D5" s="8">
+        <v>1035.399252920696</v>
+      </c>
+      <c r="D5" s="46">
         <f>SUM(D2:D3)</f>
-        <v>10096.883161303704</v>
-      </c>
-      <c r="E5" s="6">
+        <v>12424.791035048353</v>
+      </c>
+      <c r="E5" s="53">
         <f>SUM(E2:E3)</f>
-        <v>10.096883161303705</v>
-      </c>
-      <c r="I5" s="8">
+        <v>12.424791035048353</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46">
         <f>SUM(I2:I3)</f>
-        <v>9087.1948451733333</v>
-      </c>
-      <c r="J5" s="6">
+        <v>9808.6948451733333</v>
+      </c>
+      <c r="J5" s="53">
         <f>SUM(J2:J3)</f>
-        <v>9.0871948451733324</v>
-      </c>
-      <c r="K5" s="5">
+        <v>9.8086948451733331</v>
+      </c>
+      <c r="K5" s="54">
         <f>SUM(K2:K3)</f>
-        <v>1.0096883161303705</v>
-      </c>
-      <c r="L5" s="4">
+        <v>2.6160961898750195</v>
+      </c>
+      <c r="L5" s="55">
         <f>J5/E5</f>
-        <v>0.8999999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>116</v>
+        <v>0.78944545767446472</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1430,1506 +1943,1656 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="51" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>2.8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <v>4.5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="8">
         <f>L19</f>
         <v>3.7</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="17">
         <f>P2/E2/T2</f>
         <v>206.92567567567565</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="19">
         <f t="shared" ref="G2:G14" si="0">E2*F2</f>
         <v>765.62499999999989</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="19">
         <f t="shared" ref="H2:H14" si="1">G2/1000</f>
         <v>0.76562499999999989</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="20">
         <v>1000</v>
       </c>
-      <c r="J2" s="8" t="str">
+      <c r="J2" s="20" t="str">
         <f>B2</f>
         <v>SW1A</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="8">
         <v>0.7</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="8">
         <v>1.425</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="8">
         <f>CPU!C21</f>
         <v>1.2250000000000001</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="8">
         <v>500</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="8">
         <f>N2*O2</f>
         <v>612.5</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="18">
         <f>P2/1000</f>
         <v>0.61250000000000004</v>
       </c>
-      <c r="R2">
-        <f>E2-N2</f>
+      <c r="R2" s="8">
+        <f t="shared" ref="R2:R14" si="2">E2-N2</f>
         <v>2.4750000000000001</v>
       </c>
-      <c r="S2" s="6">
-        <f>H2-Q2</f>
+      <c r="S2" s="18">
+        <f t="shared" ref="S2:S14" si="3">H2-Q2</f>
         <v>0.15312499999999984</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="21">
         <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>2.8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <v>4.5</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="8">
         <f>L19</f>
         <v>3.7</v>
       </c>
-      <c r="F3" s="7">
-        <f t="shared" ref="F3:F5" si="2">P3/E3/T3</f>
+      <c r="F3" s="17">
+        <f t="shared" ref="F3:F5" si="4">P3/E3/T3</f>
         <v>360.36036036036035</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="19">
         <f t="shared" si="0"/>
         <v>1333.3333333333333</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="19">
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="20">
         <v>1750</v>
       </c>
-      <c r="J3" s="8" t="str">
+      <c r="J3" s="20" t="str">
         <f>B3</f>
         <v>SW1B</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="8">
         <v>1.4750000000000001</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="8">
         <f>CPU!C22</f>
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="8">
         <f>CPU!D22</f>
         <v>1000</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P14" si="3">N3*O3</f>
+      <c r="P3" s="8">
+        <f t="shared" ref="P3:P14" si="5">N3*O3</f>
         <v>1000</v>
       </c>
-      <c r="Q3" s="6">
-        <f t="shared" ref="Q3:Q14" si="4">P3/1000</f>
+      <c r="Q3" s="18">
+        <f t="shared" ref="Q3:Q14" si="6">P3/1000</f>
         <v>1</v>
       </c>
-      <c r="R3">
-        <f>E3-N3</f>
+      <c r="R3" s="8">
+        <f t="shared" si="2"/>
         <v>2.7</v>
       </c>
-      <c r="S3" s="6">
-        <f>H3-Q3</f>
+      <c r="S3" s="18">
+        <f t="shared" si="3"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="21">
         <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>2.8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
         <v>4.5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <f>L19</f>
         <v>3.7</v>
       </c>
-      <c r="F4" s="7">
-        <f t="shared" si="2"/>
+      <c r="F4" s="17">
+        <f t="shared" si="4"/>
         <v>374.59459459459458</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="19">
         <f t="shared" si="0"/>
         <v>1386</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="19">
         <f t="shared" si="1"/>
         <v>1.3859999999999999</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="20">
         <v>1250</v>
       </c>
-      <c r="J4" s="8" t="str">
+      <c r="J4" s="20" t="str">
         <f>B4</f>
         <v>SW2</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="8">
         <v>1.5</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="8">
         <v>1.85</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="8">
         <f>CPU!C23</f>
         <v>1.8</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="8">
         <f>CPU!D23</f>
         <v>616</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="20">
+        <f t="shared" si="5"/>
+        <v>1108.8</v>
+      </c>
+      <c r="Q4" s="18">
+        <f t="shared" si="6"/>
+        <v>1.1088</v>
+      </c>
+      <c r="R4" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="S4" s="18">
         <f t="shared" si="3"/>
-        <v>1108.8</v>
-      </c>
-      <c r="Q4" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1088</v>
-      </c>
-      <c r="R4">
-        <f>E4-N4</f>
-        <v>1.9000000000000001</v>
-      </c>
-      <c r="S4" s="6">
-        <f>H4-Q4</f>
         <v>0.27719999999999989</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="21">
         <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>2.8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <v>4.5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="8">
         <f>L19</f>
         <v>3.7</v>
       </c>
-      <c r="F5" s="5">
-        <f t="shared" si="2"/>
+      <c r="F5" s="19">
+        <f t="shared" si="4"/>
         <v>59.746621621621621</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="19">
         <f t="shared" si="0"/>
         <v>221.0625</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="19">
         <f t="shared" si="1"/>
         <v>0.2210625</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="20">
         <v>1500</v>
       </c>
-      <c r="J5" s="8" t="str">
+      <c r="J5" s="20" t="str">
         <f>B5</f>
         <v>SW3</v>
       </c>
-      <c r="K5" t="s">
-        <v>105</v>
-      </c>
-      <c r="L5">
+      <c r="K5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="8">
         <v>0.9</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="8">
         <v>1.65</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="8">
         <f>CPU!C24</f>
         <v>1.35</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="17">
         <f>CPU!D24+SUMIF(E2:E14, N5, F2:F14)</f>
         <v>131</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="18">
+        <f t="shared" si="5"/>
+        <v>176.85000000000002</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="6"/>
+        <v>0.17685000000000003</v>
+      </c>
+      <c r="R5" s="8">
+        <f t="shared" si="2"/>
+        <v>2.35</v>
+      </c>
+      <c r="S5" s="18">
         <f t="shared" si="3"/>
-        <v>176.85000000000002</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="4"/>
-        <v>0.17685000000000003</v>
-      </c>
-      <c r="R5">
-        <f>E5-N5</f>
-        <v>2.35</v>
-      </c>
-      <c r="S5" s="6">
-        <f>H5-Q5</f>
         <v>4.421249999999996E-2</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="21">
         <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>2.8</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>4.5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G6" s="5">
-        <f t="shared" ref="G6" si="5">E6*F6</f>
+      <c r="G6" s="19">
+        <f t="shared" ref="G6" si="7">E6*F6</f>
         <v>0</v>
       </c>
-      <c r="H6" s="5">
-        <f>G6/1000</f>
+      <c r="H6" s="19">
+        <f t="shared" ref="H6:H13" si="8">G6/1000</f>
         <v>0</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="20">
         <v>600</v>
       </c>
-      <c r="J6" s="8" t="str">
+      <c r="J6" s="20" t="str">
         <f>B6</f>
         <v>SWBST</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="8">
         <v>5</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="8">
         <v>5.15</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="8">
         <v>5</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="8">
         <v>0</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="8">
         <f>N6*O6</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="6">
-        <f>P6/1000</f>
+      <c r="Q6" s="18">
+        <f t="shared" ref="Q6:Q13" si="9">P6/1000</f>
         <v>0</v>
       </c>
-      <c r="R6">
-        <f>E6-N6</f>
+      <c r="R6" s="8">
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="S6" s="6">
-        <f>H6-Q6</f>
+      <c r="S6" s="18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="21">
         <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>2.25</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>4.5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="8">
         <f>L19</f>
         <v>3.7</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="8">
         <f>O7</f>
         <v>1</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="19">
         <f>E7*F7</f>
         <v>3.7</v>
       </c>
-      <c r="H7" s="5">
-        <f>G7/1000</f>
+      <c r="H7" s="19">
+        <f t="shared" si="8"/>
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="20">
         <v>1</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="8">
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="8">
         <v>3</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="8">
         <f>CPU!C29</f>
         <v>3</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="8">
         <f>CPU!D29</f>
         <v>1</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="20">
         <f>N7*O7</f>
         <v>3</v>
       </c>
-      <c r="Q7" s="6">
-        <f>P7/1000</f>
+      <c r="Q7" s="18">
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="R7">
-        <f>E7-N7</f>
+      <c r="R7" s="8">
+        <f t="shared" si="2"/>
         <v>0.70000000000000018</v>
       </c>
-      <c r="S7" s="6">
-        <f>H7-Q7</f>
+      <c r="S7" s="18">
+        <f t="shared" si="3"/>
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="T7" s="4">
-        <f t="shared" ref="T3:T14" si="6">IF(H7=0,1,Q7/H7)</f>
+      <c r="T7" s="21">
+        <f t="shared" ref="T7:T14" si="10">IF(H7=0,1,Q7/H7)</f>
         <v>0.81081081081081074</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <f>N8+0.25</f>
         <v>2.0499999999999998</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>4.5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
         <f>L19</f>
         <v>3.7</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="8">
         <f>O8</f>
         <v>5</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="19">
         <f>E8*F8</f>
         <v>18.5</v>
       </c>
-      <c r="H8" s="5">
-        <f>G8/1000</f>
+      <c r="H8" s="19">
+        <f t="shared" si="8"/>
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="20">
         <v>100</v>
       </c>
-      <c r="J8" s="8" t="str">
+      <c r="J8" s="20" t="str">
         <f>B8</f>
         <v>VLDO1</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="8">
         <v>1.8</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="8">
         <v>3.3</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="8">
         <f>CPU!C26</f>
         <v>1.8</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="8">
         <f>CPU!D26</f>
         <v>5</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="8">
         <f>N8*O8</f>
         <v>9</v>
       </c>
-      <c r="Q8" s="6">
-        <f>P8/1000</f>
+      <c r="Q8" s="18">
+        <f t="shared" si="9"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="R8">
-        <f>E8-N8</f>
+      <c r="R8" s="8">
+        <f t="shared" si="2"/>
         <v>1.9000000000000001</v>
       </c>
-      <c r="S8" s="6">
-        <f>H8-Q8</f>
+      <c r="S8" s="18">
+        <f t="shared" si="3"/>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="T8" s="4">
-        <f t="shared" si="6"/>
+      <c r="T8" s="21">
+        <f t="shared" si="10"/>
         <v>0.48648648648648646</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>1.75</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>3.4</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="8">
         <f>O9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="5">
-        <f t="shared" ref="G9:G13" si="7">E9*F9</f>
+      <c r="G9" s="19">
+        <f t="shared" ref="G9:G13" si="11">E9*F9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="5">
-        <f>G9/1000</f>
+      <c r="H9" s="19">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="20">
         <v>250</v>
       </c>
-      <c r="J9" s="8" t="str">
+      <c r="J9" s="20" t="str">
         <f>B9</f>
         <v>VLDO2</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="8">
         <v>0.8</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="8">
         <v>1.55</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="8">
         <v>1.5</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="8">
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="8">
         <f>N9*O9</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="6">
-        <f>P9/1000</f>
+      <c r="Q9" s="18">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R9">
-        <f>E9-N9</f>
+      <c r="R9" s="8">
+        <f t="shared" si="2"/>
         <v>-1.5</v>
       </c>
-      <c r="S9" s="6">
-        <f>H9-Q9</f>
+      <c r="S9" s="18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T9" s="4">
-        <f t="shared" si="6"/>
+      <c r="T9" s="21">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>2.8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>4.5</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="8">
         <f>L19</f>
         <v>3.7</v>
       </c>
-      <c r="F10">
-        <f t="shared" ref="F10" si="8">O10</f>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10" si="12">O10</f>
         <v>5.9399999999999995</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="19">
         <f>E10*F10</f>
         <v>21.977999999999998</v>
       </c>
-      <c r="H10" s="5">
-        <f>G10/1000</f>
+      <c r="H10" s="19">
+        <f t="shared" si="8"/>
         <v>2.1977999999999998E-2</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="20">
         <v>100</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="8">
         <v>1.8</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="8">
         <v>3.3</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="8">
         <f>CPU!C28</f>
         <v>3.3</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="8">
         <f>CPU!D28</f>
         <v>5.9399999999999995</v>
       </c>
-      <c r="P10" s="8">
-        <f t="shared" ref="P10" si="9">N10*O10</f>
+      <c r="P10" s="20">
+        <f t="shared" ref="P10" si="13">N10*O10</f>
         <v>19.601999999999997</v>
       </c>
-      <c r="Q10" s="6">
-        <f>P10/1000</f>
+      <c r="Q10" s="18">
+        <f t="shared" si="9"/>
         <v>1.9601999999999998E-2</v>
       </c>
-      <c r="R10">
-        <f>E10-N10</f>
+      <c r="R10" s="8">
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
-      <c r="S10" s="6">
-        <f>H10-Q10</f>
+      <c r="S10" s="18">
+        <f t="shared" si="3"/>
         <v>2.3759999999999996E-3</v>
       </c>
-      <c r="T10" s="4">
-        <f t="shared" si="6"/>
+      <c r="T10" s="21">
+        <f t="shared" si="10"/>
         <v>0.89189189189189189</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>2.8</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <v>4.5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="8">
         <f>L19</f>
         <v>3.7</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="19">
         <f>O11</f>
-        <v>82.732003200000008</v>
-      </c>
-      <c r="G11" s="5">
+        <v>277.73200320000001</v>
+      </c>
+      <c r="G11" s="19">
         <f>E11*F11</f>
-        <v>306.10841184000003</v>
-      </c>
-      <c r="H11" s="5">
-        <f>G11/1000</f>
-        <v>0.30610841184000004</v>
-      </c>
-      <c r="I11" s="8">
+        <v>1027.6084118400001</v>
+      </c>
+      <c r="H11" s="19">
+        <f t="shared" si="8"/>
+        <v>1.0276084118400002</v>
+      </c>
+      <c r="I11" s="20">
         <v>350</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="K11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11">
+      <c r="K11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" s="8">
         <v>2.85</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="8">
         <v>3.3</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="8">
         <f>CPU!C30</f>
         <v>3.3</v>
       </c>
-      <c r="O11" s="5">
-        <f>CPU!D30</f>
-        <v>82.732003200000008</v>
-      </c>
-      <c r="P11" s="8">
+      <c r="O11" s="19">
+        <f>CPU!D30+'Ethernet PHY'!D4</f>
+        <v>277.73200320000001</v>
+      </c>
+      <c r="P11" s="20">
         <f>N11*O11</f>
-        <v>273.01561056000003</v>
-      </c>
-      <c r="Q11" s="6">
-        <f>P11/1000</f>
-        <v>0.27301561056000001</v>
-      </c>
-      <c r="R11">
-        <f>E11-N11</f>
+        <v>916.51561056000003</v>
+      </c>
+      <c r="Q11" s="18">
+        <f t="shared" si="9"/>
+        <v>0.91651561056000008</v>
+      </c>
+      <c r="R11" s="8">
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
-      <c r="S11" s="6">
-        <f>H11-Q11</f>
-        <v>3.3092801280000028E-2</v>
-      </c>
-      <c r="T11" s="4">
-        <f t="shared" si="6"/>
+      <c r="S11" s="18">
+        <f t="shared" si="3"/>
+        <v>0.1110928012800001</v>
+      </c>
+      <c r="T11" s="21">
+        <f t="shared" si="10"/>
         <v>0.89189189189189177</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <f>MAX($N$12, $N$13) +0.25</f>
         <v>3.55</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>3.6</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="8">
         <f>L19</f>
         <v>3.7</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="8">
         <f>O12</f>
         <v>6.1479999999999997</v>
       </c>
-      <c r="G12" s="5">
-        <f t="shared" si="7"/>
+      <c r="G12" s="19">
+        <f t="shared" si="11"/>
         <v>22.747599999999998</v>
       </c>
-      <c r="H12" s="5">
-        <f>G12/1000</f>
+      <c r="H12" s="19">
+        <f t="shared" si="8"/>
         <v>2.27476E-2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="20">
         <v>100</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="K12" t="s">
-        <v>106</v>
-      </c>
-      <c r="L12">
+      <c r="K12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="8">
         <v>1.8</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="8">
         <v>3.3</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="8">
         <f>CPU!C27</f>
         <v>3.3</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="17">
         <f>CPU!D27+F22</f>
         <v>6.1479999999999997</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="20">
         <f>N12*O12</f>
         <v>20.288399999999999</v>
       </c>
-      <c r="Q12" s="6">
-        <f>P12/1000</f>
+      <c r="Q12" s="18">
+        <f t="shared" si="9"/>
         <v>2.0288399999999998E-2</v>
       </c>
-      <c r="R12">
-        <f>E12-N12</f>
+      <c r="R12" s="8">
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
-      <c r="S12" s="6">
-        <f>H12-Q12</f>
+      <c r="S12" s="18">
+        <f t="shared" si="3"/>
         <v>2.4592000000000017E-3</v>
       </c>
-      <c r="T12" s="4">
-        <f t="shared" si="6"/>
+      <c r="T12" s="21">
+        <f t="shared" si="10"/>
         <v>0.89189189189189177</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <f>MAX($N$12, $N$13) +0.25</f>
         <v>3.55</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <v>3.6</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="8">
         <f>L19</f>
         <v>3.7</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="20">
         <f>O13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="5">
-        <f t="shared" si="7"/>
+      <c r="G13" s="19">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H13" s="5">
-        <f>G13/1000</f>
+      <c r="H13" s="19">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="20">
         <v>350</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="8">
         <v>1.8</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="8">
         <v>3.3</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="8">
         <v>3.3</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="17">
         <v>0</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="20">
         <f>N13*O13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="6">
-        <f>P13/1000</f>
+      <c r="Q13" s="18">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R13">
-        <f>E13-N13</f>
+      <c r="R13" s="8">
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
-      <c r="S13" s="6">
-        <f>H13-Q13</f>
+      <c r="S13" s="18">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T13" s="4">
-        <f t="shared" si="6"/>
+      <c r="T13" s="21">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <v>1.2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <v>1.65</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="8">
         <f>N5</f>
         <v>1.35</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="8">
         <f>O14</f>
         <v>1</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="19">
         <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="19">
         <f t="shared" si="1"/>
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="20">
         <v>10</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="8">
         <f>0.5*N5</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="8">
         <f>0.5*N5</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="8">
         <f>CPU!C25</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="17">
         <f>CPU!D25</f>
         <v>1</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="20">
+        <f t="shared" si="5"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="Q14" s="18">
+        <f t="shared" si="6"/>
+        <v>6.7500000000000004E-4</v>
+      </c>
+      <c r="R14" s="8">
+        <f t="shared" si="2"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="S14" s="18">
         <f t="shared" si="3"/>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="Q14" s="6">
-        <f t="shared" si="4"/>
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="R14">
-        <f>E14-N14</f>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="S14" s="6">
-        <f>H14-Q14</f>
-        <v>6.7500000000000004E-4</v>
-      </c>
-      <c r="T14" s="4">
-        <f t="shared" si="6"/>
+      <c r="T14" s="21">
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="8">
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46">
         <f>SUM(G2:G14)</f>
-        <v>4080.4048451733329</v>
-      </c>
-      <c r="H16" s="6">
+        <v>4801.9048451733333</v>
+      </c>
+      <c r="H16" s="53">
         <f>SUM(H2:H14)</f>
-        <v>4.0804048451733328</v>
-      </c>
-      <c r="P16" s="8">
+        <v>4.8019048451733335</v>
+      </c>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="46">
         <f>SUM(P2:P14)</f>
-        <v>3223.73101056</v>
-      </c>
-      <c r="Q16" s="6">
+        <v>3867.23101056</v>
+      </c>
+      <c r="Q16" s="53">
         <f>SUM(Q2:Q14)</f>
-        <v>3.2237310105600003</v>
-      </c>
-      <c r="S16" s="6">
+        <v>3.8672310105600003</v>
+      </c>
+      <c r="R16" s="45"/>
+      <c r="S16" s="53">
         <f>SUM(S2:S14)</f>
-        <v>0.85667383461333302</v>
-      </c>
-      <c r="T16" s="4">
+        <v>0.93467383461333309</v>
+      </c>
+      <c r="T16" s="55">
         <f>Q16/H16</f>
-        <v>0.79005175537258687</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+        <v>0.8053535284955039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="34" t="s">
+      <c r="K18" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="M18" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="N18" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="O18" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K18" s="34" t="s">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="D19" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" ref="G19" si="14">E19*F19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="16">
+        <f t="shared" ref="H19:H23" si="15">G19/1000</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="32"/>
+      <c r="K19" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="L18" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="M18" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19">
+      <c r="L19" s="8">
         <v>3.7</v>
       </c>
-      <c r="D19">
-        <v>5.5</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" ref="G19" si="10">E19*F19</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" ref="H19:H23" si="11">G19/1000</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19">
-        <v>3.7</v>
-      </c>
-      <c r="M19" s="8">
+      <c r="M19" s="20">
         <f>SUMIF(E2:E14, L19, F2:F14) +SUMIF(E19:E23, L19, F19:F23)</f>
-        <v>1104.6472554522522</v>
-      </c>
-      <c r="N19" s="7">
+        <v>1299.6472554522522</v>
+      </c>
+      <c r="N19" s="17">
         <f>L19*M19</f>
-        <v>4087.1948451733333</v>
-      </c>
-      <c r="O19" s="6">
+        <v>4808.6948451733333</v>
+      </c>
+      <c r="O19" s="16">
         <f>N19/1000</f>
-        <v>4.0871948451733333</v>
+        <v>4.8086948451733331</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="8">
         <f>C7</f>
         <v>2.25</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="8">
         <v>4.5</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="8">
         <f>L19</f>
         <v>3.7</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="8">
         <v>1.2</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" ref="G20" si="12">E20*F20</f>
+      <c r="G20" s="18">
+        <f t="shared" ref="G20" si="16">E20*F20</f>
         <v>4.4400000000000004</v>
       </c>
-      <c r="H20" s="6">
-        <f t="shared" si="11"/>
+      <c r="H20" s="16">
+        <f t="shared" si="15"/>
         <v>4.4400000000000004E-3</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" t="s">
+      <c r="J20" s="32"/>
+      <c r="K20" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="8">
         <f>E22</f>
         <v>3.3</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="8">
         <f>F22</f>
         <v>1</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="18">
         <f>L20*M20</f>
         <v>3.3</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="16">
         <f>N20/1000</f>
         <v>3.3E-3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="8">
         <v>2.8</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <v>4.5</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="8">
         <f>L19</f>
         <v>3.7</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="8">
         <v>1</v>
       </c>
-      <c r="G21" s="6">
-        <f t="shared" ref="G21:G23" si="13">E21*F21</f>
+      <c r="G21" s="18">
+        <f t="shared" ref="G21:G23" si="17">E21*F21</f>
         <v>3.7</v>
       </c>
-      <c r="H21" s="6">
-        <f t="shared" si="11"/>
+      <c r="H21" s="16">
+        <f t="shared" si="15"/>
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" t="s">
+      <c r="J21" s="32"/>
+      <c r="K21" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="8">
         <f>E14</f>
         <v>1.35</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="20">
         <f>F14</f>
         <v>1</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="18">
         <f>L21*M21</f>
         <v>1.35</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="16">
         <f>N21/1000</f>
         <v>1.3500000000000001E-3</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="8">
         <v>1.7</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <v>3.6</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="8">
         <f>N12</f>
         <v>3.3</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="8">
         <v>1</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" si="13"/>
+      <c r="G22" s="18">
+        <f t="shared" si="17"/>
         <v>3.3</v>
       </c>
-      <c r="H22" s="6">
-        <f t="shared" si="11"/>
+      <c r="H22" s="16">
+        <f t="shared" si="15"/>
         <v>3.3E-3</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" t="s">
+      <c r="J22" s="32"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="16"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
+      <c r="B23" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="8">
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="8">
         <v>1.8</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="8">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="8">
         <v>0</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="13"/>
+      <c r="G23" s="18">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H23" s="6">
-        <f t="shared" si="11"/>
+      <c r="H23" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="M23" t="s">
+      <c r="J23" s="33"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="46">
         <f>SUM(N19:N21)</f>
-        <v>4091.8448451733334</v>
-      </c>
-      <c r="O23" s="6">
+        <v>4813.3448451733339</v>
+      </c>
+      <c r="O23" s="47">
         <f>SUM(O19:O21)</f>
-        <v>4.091844845173334</v>
+        <v>4.8133448451733338</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="J24" s="3"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="J24" s="2"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33"/>
+      <c r="B25" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="5">
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="54">
         <f>SUM(G19:G23)</f>
         <v>11.440000000000001</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="47">
         <f>SUM(H19:H23)</f>
         <v>1.1440000000000002E-2</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="6"/>
+      <c r="J25" s="2"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J26" s="3"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
+      <c r="J26" s="2"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="35" t="s">
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="J27" s="2"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="36"/>
-      <c r="J28" s="3"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="35" t="s">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="J28" s="2"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="36">
-        <v>3.7</v>
-      </c>
-      <c r="G29" s="36"/>
-      <c r="J29" s="3"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="J29" s="2"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J30" s="3"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J31" s="3"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
+      <c r="J31" s="2"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J32" s="3"/>
+      <c r="J32" s="2"/>
     </row>
     <row r="33" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J33" s="3"/>
+      <c r="J33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="J18:J23"/>
     <mergeCell ref="A1:A16"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
     <mergeCell ref="A19:A25"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
   </mergeCells>
   <conditionalFormatting sqref="O2:O14">
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="24" operator="lessThan">
       <formula>0.8*$I2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="25" operator="between">
       <formula>$I2*0.8</formula>
       <formula>$I2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="28">
+    <cfRule type="expression" dxfId="59" priority="28">
       <formula>$O2&gt;$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E14">
-    <cfRule type="cellIs" dxfId="22" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="21" stopIfTrue="1" operator="between">
       <formula>$C2</formula>
       <formula>$D2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="23">
+    <cfRule type="expression" dxfId="56" priority="23">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N14">
-    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="19" stopIfTrue="1" operator="between">
       <formula>$L2</formula>
       <formula>$M2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="54" priority="20">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S14">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T14 T16">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="16" operator="greaterThanOrEqual">
       <formula>50%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="17" operator="lessThan">
       <formula>50%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="13" stopIfTrue="1" operator="between">
       <formula>$C19</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="14" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="48" priority="15">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="10" stopIfTrue="1" operator="between">
       <formula>$C20</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="11" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="45" priority="12">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="7" stopIfTrue="1" operator="between">
       <formula>$C21</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="42" priority="9">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="4" stopIfTrue="1" operator="between">
       <formula>$C22</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="39" priority="6">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="between">
       <formula>$C23</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="36" priority="3">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F240B61-F16E-4560-894E-95A59C5A38A5}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="D2" s="8">
+        <v>195</v>
+      </c>
+      <c r="E2" s="20">
+        <f>D2*C2</f>
+        <v>643.5</v>
+      </c>
+      <c r="F2" s="16">
+        <f>E2/1000</f>
+        <v>0.64349999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="45" cm="1">
+        <f t="array" ref="D4">Table5[Current (mA)]</f>
+        <v>195</v>
+      </c>
+      <c r="E4" s="46" cm="1">
+        <f t="array" ref="E4">Table5[Power (mW)]</f>
+        <v>643.5</v>
+      </c>
+      <c r="F4" s="47" cm="1">
+        <f t="array" ref="F4">Table5[Power (W)]</f>
+        <v>0.64349999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE18E8FD-9EAF-459F-839D-AF6883546977}">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2952,1397 +3615,1397 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="8">
         <v>1.2250000000000001</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="8">
         <v>500</v>
       </c>
-      <c r="E2" s="13">
-        <f>C2*D2</f>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E13" si="0">C2*D2</f>
         <v>612.5</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="16">
         <f>E2/1000</f>
         <v>0.61250000000000004</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="8">
         <v>1</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="8">
         <v>1.8</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="8">
         <v>80</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="8">
         <f>K2*L2</f>
         <v>144</v>
       </c>
-      <c r="N2" s="13">
-        <f>M2/1000</f>
+      <c r="N2" s="8">
+        <f t="shared" ref="N2:N10" si="1">M2/1000</f>
         <v>0.14399999999999999</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="8">
         <f>(K2-J2)*L2/1000</f>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="21">
         <f>(N2-O2)/N2</f>
         <v>0.55555555555555547</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="8">
         <v>1000</v>
       </c>
-      <c r="E3" s="13">
-        <f>C3*D3</f>
+      <c r="E3" s="8">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="F3" s="21">
-        <f t="shared" ref="F3:F5" si="0">E3/1000</f>
+      <c r="F3" s="16">
+        <f t="shared" ref="F3:F5" si="2">E3/1000</f>
         <v>1</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="8">
         <v>1</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="8">
         <v>1.8</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="8">
         <v>70</v>
       </c>
-      <c r="M3" s="13">
-        <f t="shared" ref="M3:M10" si="1">K3*L3</f>
+      <c r="M3" s="8">
+        <f t="shared" ref="M3:M10" si="3">K3*L3</f>
         <v>126</v>
       </c>
-      <c r="N3" s="13">
-        <f>M3/1000</f>
+      <c r="N3" s="8">
+        <f t="shared" si="1"/>
         <v>0.126</v>
       </c>
-      <c r="O3" s="13">
-        <f t="shared" ref="O3:O10" si="2">(K3-J3)*L3/1000</f>
+      <c r="O3" s="8">
+        <f t="shared" ref="O3:O10" si="4">(K3-J3)*L3/1000</f>
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="P3" s="26">
-        <f t="shared" ref="P3:P10" si="3">(N3-O3)/N3</f>
+      <c r="P3" s="21">
+        <f t="shared" ref="P3:P10" si="5">(N3-O3)/N3</f>
         <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="8">
         <v>1.8</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="8">
         <v>150</v>
       </c>
-      <c r="E4" s="22">
-        <f>C4*D4</f>
+      <c r="E4" s="17">
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="F4" s="21">
-        <f t="shared" si="0"/>
+      <c r="F4" s="16">
+        <f t="shared" si="2"/>
         <v>0.27</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="32"/>
+      <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="8">
         <v>1</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="8">
         <v>1.8</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="8">
         <v>35</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="8">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="N4" s="8">
         <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="N4" s="13">
-        <f>M4/1000</f>
         <v>6.3E-2</v>
       </c>
-      <c r="O4" s="13">
-        <f t="shared" si="2"/>
+      <c r="O4" s="8">
+        <f t="shared" si="4"/>
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="P4" s="26">
-        <f t="shared" si="3"/>
+      <c r="P4" s="21">
+        <f t="shared" si="5"/>
         <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="8">
         <v>1.8</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="8">
         <f>L12</f>
         <v>300</v>
       </c>
-      <c r="E5" s="22">
-        <f>C5*D5</f>
+      <c r="E5" s="17">
+        <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="16">
+        <f t="shared" si="2"/>
+        <v>0.54</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="L5" s="8">
+        <v>35</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" si="1"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" si="4"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P5" s="21">
+        <f t="shared" si="5"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
         <f t="shared" si="0"/>
-        <v>0.54</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="13">
+        <v>3</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" ref="F6:F13" si="6">E6/1000</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="L6" s="8">
+        <v>20</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="4"/>
+        <v>1.2000000000000002E-2</v>
+      </c>
+      <c r="P6" s="21">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="D7" s="8">
+        <v>5</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="6"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="L7" s="8">
+        <v>25</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="1"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="21">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K5" s="13">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8">
         <v>1.8</v>
       </c>
-      <c r="L5" s="13">
-        <v>35</v>
-      </c>
-      <c r="M5" s="13">
+      <c r="D8" s="8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="6"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="L8" s="8">
+        <v>15</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="N8" s="8">
         <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="N5" s="13">
-        <f>M5/1000</f>
-        <v>6.3E-2</v>
-      </c>
-      <c r="O5" s="13">
-        <f t="shared" si="2"/>
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="P5" s="26">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="6"/>
+        <v>1.8E-3</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="L9" s="8">
+        <v>15</v>
+      </c>
+      <c r="M9" s="8">
         <f t="shared" si="3"/>
-        <v>0.55555555555555558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="1"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C6" s="13">
-        <v>3</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="F10" s="9">
+        <f t="shared" si="6"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="L10" s="8">
+        <v>5</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="21">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E6" s="23">
-        <f>C6*D6</f>
-        <v>3</v>
-      </c>
-      <c r="F6" s="21">
-        <f>E6/1000</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="K6" s="13">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8">
         <v>1.8</v>
       </c>
-      <c r="L6" s="13">
-        <v>20</v>
-      </c>
-      <c r="M6" s="13">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="N6" s="13">
-        <f>M6/1000</f>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="O6" s="13">
-        <f t="shared" si="2"/>
-        <v>1.2000000000000002E-2</v>
-      </c>
-      <c r="P6" s="26">
-        <f t="shared" si="3"/>
-        <v>0.66666666666666652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="D11" s="8">
+        <v>5</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="6"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8">
         <v>1.8</v>
       </c>
-      <c r="D7" s="13">
-        <v>5</v>
-      </c>
-      <c r="E7" s="23">
-        <f>C7*D7</f>
-        <v>9</v>
-      </c>
-      <c r="F7" s="14">
-        <f>E7/1000</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="K7" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="L7" s="13">
-        <v>25</v>
-      </c>
-      <c r="M7" s="13">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="N7" s="13">
-        <f>M7/1000</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="O7" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="26">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="D8" s="13">
-        <v>5</v>
-      </c>
-      <c r="E8" s="23">
-        <f>C8*D8</f>
-        <v>9</v>
-      </c>
-      <c r="F8" s="14">
-        <f>E8/1000</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="K8" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="L8" s="13">
-        <v>15</v>
-      </c>
-      <c r="M8" s="13">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="N8" s="13">
-        <f>M8/1000</f>
-        <v>2.7E-2</v>
-      </c>
-      <c r="O8" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="26">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23">
-        <f>C9*D9</f>
-        <v>1.8</v>
-      </c>
-      <c r="F9" s="21">
-        <f>E9/1000</f>
-        <v>1.8E-3</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="K9" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="L9" s="13">
-        <v>15</v>
-      </c>
-      <c r="M9" s="13">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="N9" s="13">
-        <f>M9/1000</f>
-        <v>2.7E-2</v>
-      </c>
-      <c r="O9" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="26">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="D10" s="13">
-        <v>5</v>
-      </c>
-      <c r="E10" s="23">
-        <f>C10*D10</f>
-        <v>9</v>
-      </c>
-      <c r="F10" s="14">
-        <f>E10/1000</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="K10" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="L10" s="13">
-        <v>5</v>
-      </c>
-      <c r="M10" s="13">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="N10" s="13">
-        <f>M10/1000</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="O10" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="26">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="D11" s="13">
-        <v>5</v>
-      </c>
-      <c r="E11" s="23">
-        <f>C11*D11</f>
-        <v>9</v>
-      </c>
-      <c r="F11" s="14">
-        <f>E11/1000</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="D12" s="8">
         <v>150</v>
       </c>
-      <c r="E12" s="22">
-        <f>C12*D12</f>
+      <c r="E12" s="17">
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="F12" s="21">
-        <f>E12/1000</f>
+      <c r="F12" s="16">
+        <f t="shared" si="6"/>
         <v>0.27</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="29" t="s">
+      <c r="H12" s="33"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="11">
         <f>SUM(L2:L10)</f>
         <v>300</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="11">
         <f>SUM(M2:M10)</f>
         <v>540</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="11">
         <f>SUM(N2:N10)</f>
         <v>0.54</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="11">
         <f>SUM(O2:O10)</f>
         <v>0.188</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="25">
         <f>(N12-O12)/N12</f>
         <v>0.6518518518518519</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="8">
         <f>C14</f>
         <v>1.35</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="8">
         <v>30</v>
       </c>
-      <c r="E13" s="24">
-        <f>C13*D13</f>
+      <c r="E13" s="19">
+        <f t="shared" si="0"/>
         <v>40.5</v>
       </c>
-      <c r="F13" s="21">
-        <f>E13/1000</f>
+      <c r="F13" s="16">
+        <f t="shared" si="6"/>
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="P13" s="4"/>
+      <c r="H13" s="1"/>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="8">
         <v>1.35</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="8">
         <v>100</v>
       </c>
-      <c r="E14" s="22">
-        <f t="shared" ref="E14:E15" si="4">C14*D14</f>
+      <c r="E14" s="17">
+        <f t="shared" ref="E14:E15" si="7">C14*D14</f>
         <v>135</v>
       </c>
-      <c r="F14" s="14">
-        <f t="shared" ref="F14:F15" si="5">E14/1000</f>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14:F15" si="8">E14/1000</f>
         <v>0.13500000000000001</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="P14" s="4"/>
+      <c r="H14" s="1"/>
+      <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="8">
         <f>C14/2</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="13">
-        <f t="shared" si="4"/>
+      <c r="E15" s="8">
+        <f t="shared" si="7"/>
         <v>0.67500000000000004</v>
       </c>
-      <c r="F15" s="21">
-        <f t="shared" si="5"/>
+      <c r="F15" s="16">
+        <f t="shared" si="8"/>
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="P15" s="4"/>
+      <c r="H15" s="1"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="8">
         <v>3.3</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="20">
         <f>N32</f>
         <v>93.820003200000002</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="20">
         <f>D16*C16</f>
         <v>309.60601056000002</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="16">
         <f>E16/1000</f>
         <v>0.30960601056000003</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="P16" s="20" t="s">
+      <c r="P16" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="13" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="8">
         <v>3.3</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="8">
         <v>12</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="22">
         <v>4.9999999999999997E-12</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="8">
         <v>24000000</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="19">
         <f>1000*K17*L17*J17*0.5*M17</f>
         <v>2.3759999999999999</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="18">
         <f>N17*J17</f>
         <v>7.8407999999999989</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="16">
         <f>O17/1000</f>
         <v>7.8407999999999985E-3</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="29" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="12">
         <f>SUM(E2:E16)</f>
         <v>3219.0810105600003</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="13">
         <f>SUM(F2:F16)</f>
         <v>3.2190810105600005</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="13" t="s">
+      <c r="H18" s="32"/>
+      <c r="I18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="8">
         <v>3.3</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="8">
         <v>14</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="22">
         <v>4.9999999999999997E-12</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="8">
         <v>24000000</v>
       </c>
-      <c r="N18" s="24">
-        <f t="shared" ref="N18:N30" si="6">1000*K18*L18*J18*0.5*M18</f>
+      <c r="N18" s="19">
+        <f t="shared" ref="N18:N30" si="9">1000*K18*L18*J18*0.5*M18</f>
         <v>2.7719999999999994</v>
       </c>
-      <c r="O18" s="23">
-        <f t="shared" ref="O18:O30" si="7">N18*J18</f>
+      <c r="O18" s="18">
+        <f t="shared" ref="O18:O30" si="10">N18*J18</f>
         <v>9.1475999999999971</v>
       </c>
-      <c r="P18" s="21">
-        <f t="shared" ref="P18:P30" si="8">O18/1000</f>
+      <c r="P18" s="16">
+        <f t="shared" ref="P18:P30" si="11">O18/1000</f>
         <v>9.1475999999999971E-3</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="11"/>
-      <c r="I19" s="13" t="s">
+      <c r="H19" s="32"/>
+      <c r="I19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="8">
         <v>3.3</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="8">
         <v>9</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="22">
         <v>4.9999999999999997E-12</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="8">
         <v>24000000</v>
       </c>
-      <c r="N19" s="24">
-        <f t="shared" si="6"/>
+      <c r="N19" s="19">
+        <f t="shared" si="9"/>
         <v>1.7819999999999998</v>
       </c>
-      <c r="O19" s="23">
-        <f t="shared" si="7"/>
+      <c r="O19" s="18">
+        <f t="shared" si="10"/>
         <v>5.8805999999999994</v>
       </c>
-      <c r="P19" s="21">
-        <f t="shared" si="8"/>
+      <c r="P19" s="16">
+        <f t="shared" si="11"/>
         <v>5.8805999999999997E-3</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="13" t="s">
+      <c r="H20" s="32"/>
+      <c r="I20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="8">
         <v>3.3</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="8">
         <v>12</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="22">
         <v>4.9999999999999997E-12</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="8">
         <v>24000000</v>
       </c>
-      <c r="N20" s="24">
-        <f t="shared" si="6"/>
+      <c r="N20" s="19">
+        <f t="shared" si="9"/>
         <v>2.3759999999999999</v>
       </c>
-      <c r="O20" s="23">
-        <f t="shared" si="7"/>
+      <c r="O20" s="18">
+        <f t="shared" si="10"/>
         <v>7.8407999999999989</v>
       </c>
-      <c r="P20" s="21">
-        <f t="shared" si="8"/>
+      <c r="P20" s="16">
+        <f t="shared" si="11"/>
         <v>7.8407999999999985E-3</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="8">
         <f>C2</f>
         <v>1.2250000000000001</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="8">
         <f>D2</f>
         <v>500</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="8">
         <f>C21*D21</f>
         <v>612.5</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="9">
         <f>E21/1000</f>
         <v>0.61250000000000004</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="13" t="s">
+      <c r="H21" s="32"/>
+      <c r="I21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="8">
         <v>3.3</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="8">
         <v>9</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="22">
         <v>4.9999999999999997E-12</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="8">
         <v>24000000</v>
       </c>
-      <c r="N21" s="24">
-        <f t="shared" si="6"/>
+      <c r="N21" s="19">
+        <f t="shared" si="9"/>
         <v>1.7819999999999998</v>
       </c>
-      <c r="O21" s="23">
-        <f t="shared" si="7"/>
+      <c r="O21" s="18">
+        <f t="shared" si="10"/>
         <v>5.8805999999999994</v>
       </c>
-      <c r="P21" s="21">
-        <f t="shared" si="8"/>
+      <c r="P21" s="16">
+        <f t="shared" si="11"/>
         <v>5.8805999999999997E-3</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="8">
         <f>C3</f>
         <v>1</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="8">
         <f>D3</f>
         <v>1000</v>
       </c>
-      <c r="E22" s="13">
-        <f t="shared" ref="E22:E24" si="9">C22*D22</f>
+      <c r="E22" s="8">
+        <f t="shared" ref="E22:E24" si="12">C22*D22</f>
         <v>1000</v>
       </c>
-      <c r="F22" s="14">
-        <f t="shared" ref="F22:F29" si="10">E22/1000</f>
+      <c r="F22" s="9">
+        <f t="shared" ref="F22:F29" si="13">E22/1000</f>
         <v>1</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="13" t="s">
+      <c r="H22" s="32"/>
+      <c r="I22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="8">
         <v>3.3</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="8">
         <v>16</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="22">
         <v>4.9999999999999997E-12</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="8">
         <v>500000000</v>
       </c>
-      <c r="N22" s="24">
-        <f t="shared" si="6"/>
+      <c r="N22" s="19">
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
-      <c r="O22" s="13">
-        <f t="shared" si="7"/>
+      <c r="O22" s="8">
+        <f t="shared" si="10"/>
         <v>217.79999999999998</v>
       </c>
-      <c r="P22" s="21">
-        <f t="shared" si="8"/>
+      <c r="P22" s="16">
+        <f t="shared" si="11"/>
         <v>0.21779999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="8">
         <f>C4</f>
         <v>1.8</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="17">
         <f>SUMIF(C2:C16, 1.8, D2:D16)-D26</f>
         <v>616</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="8">
+        <f t="shared" si="12"/>
+        <v>1108.8</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="13"/>
+        <v>1.1088</v>
+      </c>
+      <c r="H23" s="32"/>
+      <c r="I23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="K23" s="8">
+        <v>16</v>
+      </c>
+      <c r="L23" s="22">
+        <v>4.9999999999999997E-12</v>
+      </c>
+      <c r="M23" s="8">
+        <v>24000000</v>
+      </c>
+      <c r="N23" s="19">
         <f t="shared" si="9"/>
-        <v>1108.8</v>
-      </c>
-      <c r="F23" s="14">
+        <v>3.1679999999999997</v>
+      </c>
+      <c r="O23" s="19">
         <f t="shared" si="10"/>
-        <v>1.1088</v>
-      </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="K23" s="13">
-        <v>16</v>
-      </c>
-      <c r="L23" s="27">
-        <v>4.9999999999999997E-12</v>
-      </c>
-      <c r="M23" s="13">
-        <v>24000000</v>
-      </c>
-      <c r="N23" s="24">
-        <f t="shared" si="6"/>
-        <v>3.1679999999999997</v>
-      </c>
-      <c r="O23" s="24">
-        <f t="shared" si="7"/>
         <v>10.454399999999998</v>
       </c>
-      <c r="P23" s="21">
-        <f t="shared" si="8"/>
+      <c r="P23" s="16">
+        <f t="shared" si="11"/>
         <v>1.0454399999999997E-2</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="8">
         <f>C14</f>
         <v>1.35</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="20">
         <f>D14+D13</f>
         <v>130</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="20">
+        <f t="shared" si="12"/>
+        <v>175.5</v>
+      </c>
+      <c r="F24" s="16">
+        <f t="shared" si="13"/>
+        <v>0.17549999999999999</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="K24" s="8">
+        <v>17</v>
+      </c>
+      <c r="L24" s="22">
+        <v>4.9999999999999997E-12</v>
+      </c>
+      <c r="M24" s="8">
+        <v>24000000</v>
+      </c>
+      <c r="N24" s="19">
         <f t="shared" si="9"/>
-        <v>175.5</v>
-      </c>
-      <c r="F24" s="21">
+        <v>3.3659999999999992</v>
+      </c>
+      <c r="O24" s="19">
         <f t="shared" si="10"/>
-        <v>0.17549999999999999</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="K24" s="13">
-        <v>17</v>
-      </c>
-      <c r="L24" s="27">
-        <v>4.9999999999999997E-12</v>
-      </c>
-      <c r="M24" s="13">
-        <v>24000000</v>
-      </c>
-      <c r="N24" s="24">
-        <f t="shared" si="6"/>
-        <v>3.3659999999999992</v>
-      </c>
-      <c r="O24" s="24">
-        <f t="shared" si="7"/>
         <v>11.107799999999997</v>
       </c>
-      <c r="P24" s="21">
-        <f t="shared" si="8"/>
+      <c r="P24" s="16">
+        <f t="shared" si="11"/>
         <v>1.1107799999999998E-2</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="8">
         <f>C15</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="20">
         <f>D15</f>
         <v>1</v>
       </c>
-      <c r="E25" s="25">
-        <f t="shared" ref="E25:E26" si="11">C25*D25</f>
+      <c r="E25" s="20">
+        <f t="shared" ref="E25:E26" si="14">C25*D25</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="16">
+        <f t="shared" si="13"/>
+        <v>6.7500000000000004E-4</v>
+      </c>
+      <c r="H25" s="32"/>
+      <c r="I25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="K25" s="8">
+        <v>11</v>
+      </c>
+      <c r="L25" s="22">
+        <v>4.9999999999999997E-12</v>
+      </c>
+      <c r="M25" s="8">
+        <v>24000000</v>
+      </c>
+      <c r="N25" s="19">
+        <f t="shared" si="9"/>
+        <v>2.1779999999999999</v>
+      </c>
+      <c r="O25" s="18">
         <f t="shared" si="10"/>
-        <v>6.7500000000000004E-4</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="K25" s="13">
+        <v>7.1873999999999993</v>
+      </c>
+      <c r="P25" s="16">
+        <f t="shared" si="11"/>
+        <v>7.1873999999999992E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="27">
-        <v>4.9999999999999997E-12</v>
-      </c>
-      <c r="M25" s="13">
-        <v>24000000</v>
-      </c>
-      <c r="N25" s="24">
-        <f t="shared" si="6"/>
-        <v>2.1779999999999999</v>
-      </c>
-      <c r="O25" s="23">
-        <f t="shared" si="7"/>
-        <v>7.1873999999999993</v>
-      </c>
-      <c r="P25" s="21">
-        <f t="shared" si="8"/>
-        <v>7.1873999999999992E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="13">
+      <c r="C26" s="8">
         <f>C8</f>
         <v>1.8</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="20">
         <f>D8</f>
         <v>5</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="20">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="F26" s="16">
+        <f t="shared" si="13"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="K26" s="8">
+        <v>29</v>
+      </c>
+      <c r="L26" s="22">
+        <v>4.9999999999999997E-12</v>
+      </c>
+      <c r="M26" s="8">
+        <v>24000000</v>
+      </c>
+      <c r="N26" s="19">
+        <f t="shared" si="9"/>
+        <v>5.7419999999999991</v>
+      </c>
+      <c r="O26" s="19">
+        <f t="shared" si="10"/>
+        <v>18.948599999999995</v>
+      </c>
+      <c r="P26" s="16">
         <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="F26" s="21">
-        <f t="shared" si="10"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="13">
+        <v>1.8948599999999996E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="8">
         <v>3.3</v>
       </c>
-      <c r="K26" s="13">
-        <v>29</v>
-      </c>
-      <c r="L26" s="27">
-        <v>4.9999999999999997E-12</v>
-      </c>
-      <c r="M26" s="13">
-        <v>24000000</v>
-      </c>
-      <c r="N26" s="24">
-        <f t="shared" si="6"/>
-        <v>5.7419999999999991</v>
-      </c>
-      <c r="O26" s="24">
-        <f t="shared" si="7"/>
-        <v>18.948599999999995</v>
-      </c>
-      <c r="P26" s="21">
-        <f t="shared" si="8"/>
-        <v>1.8948599999999996E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="D27" s="24">
+      <c r="D27" s="19">
         <f>N17+N18</f>
         <v>5.1479999999999997</v>
       </c>
-      <c r="E27" s="25">
-        <f t="shared" ref="E27:E29" si="12">C27*D27</f>
+      <c r="E27" s="20">
+        <f t="shared" ref="E27:E29" si="15">C27*D27</f>
         <v>16.988399999999999</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="16">
+        <f t="shared" si="13"/>
+        <v>1.6988399999999997E-2</v>
+      </c>
+      <c r="H27" s="32"/>
+      <c r="I27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="K27" s="8">
+        <v>8</v>
+      </c>
+      <c r="L27" s="22">
+        <v>4.9999999999999997E-12</v>
+      </c>
+      <c r="M27" s="8">
+        <v>10000000</v>
+      </c>
+      <c r="N27" s="19">
+        <f t="shared" si="9"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="O27" s="8">
         <f t="shared" si="10"/>
-        <v>1.6988399999999997E-2</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="K27" s="13">
-        <v>8</v>
-      </c>
-      <c r="L27" s="27">
-        <v>4.9999999999999997E-12</v>
-      </c>
-      <c r="M27" s="13">
-        <v>10000000</v>
-      </c>
-      <c r="N27" s="24">
-        <f t="shared" si="6"/>
-        <v>0.65999999999999992</v>
-      </c>
-      <c r="O27" s="13">
-        <f t="shared" si="7"/>
         <v>2.1779999999999995</v>
       </c>
-      <c r="P27" s="21">
-        <f t="shared" si="8"/>
+      <c r="P27" s="16">
+        <f t="shared" si="11"/>
         <v>2.1779999999999994E-3</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="8">
         <f>J21</f>
         <v>3.3</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="19">
         <f>N21+N20+N19</f>
         <v>5.9399999999999995</v>
       </c>
-      <c r="E28" s="25">
-        <f t="shared" si="12"/>
+      <c r="E28" s="20">
+        <f t="shared" si="15"/>
         <v>19.601999999999997</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="16">
+        <f t="shared" si="13"/>
+        <v>1.9601999999999998E-2</v>
+      </c>
+      <c r="H28" s="32"/>
+      <c r="I28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="K28" s="8">
+        <v>8</v>
+      </c>
+      <c r="L28" s="22">
+        <v>4.9999999999999997E-12</v>
+      </c>
+      <c r="M28" s="8">
+        <v>24000000</v>
+      </c>
+      <c r="N28" s="19">
+        <f t="shared" si="9"/>
+        <v>1.5839999999999999</v>
+      </c>
+      <c r="O28" s="18">
         <f t="shared" si="10"/>
-        <v>1.9601999999999998E-2</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="K28" s="13">
-        <v>8</v>
-      </c>
-      <c r="L28" s="27">
-        <v>4.9999999999999997E-12</v>
-      </c>
-      <c r="M28" s="13">
-        <v>24000000</v>
-      </c>
-      <c r="N28" s="24">
-        <f t="shared" si="6"/>
-        <v>1.5839999999999999</v>
-      </c>
-      <c r="O28" s="23">
-        <f t="shared" si="7"/>
         <v>5.227199999999999</v>
       </c>
-      <c r="P28" s="21">
-        <f t="shared" si="8"/>
+      <c r="P28" s="16">
+        <f t="shared" si="11"/>
         <v>5.2271999999999987E-3</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="8">
         <f>C6</f>
         <v>3</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="8">
         <f>D6</f>
         <v>1</v>
       </c>
-      <c r="E29" s="25">
-        <f t="shared" si="12"/>
+      <c r="E29" s="20">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="16">
+        <f t="shared" si="13"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="K29" s="8">
+        <v>8</v>
+      </c>
+      <c r="L29" s="22">
+        <v>4.9999999999999997E-12</v>
+      </c>
+      <c r="M29" s="8">
+        <v>400000</v>
+      </c>
+      <c r="N29" s="19">
+        <f t="shared" si="9"/>
+        <v>2.64E-2</v>
+      </c>
+      <c r="O29" s="18">
         <f t="shared" si="10"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="K29" s="13">
-        <v>8</v>
-      </c>
-      <c r="L29" s="27">
-        <v>4.9999999999999997E-12</v>
-      </c>
-      <c r="M29" s="13">
-        <v>400000</v>
-      </c>
-      <c r="N29" s="24">
-        <f t="shared" si="6"/>
-        <v>2.64E-2</v>
-      </c>
-      <c r="O29" s="23">
-        <f t="shared" si="7"/>
         <v>8.7119999999999989E-2</v>
       </c>
-      <c r="P29" s="21">
-        <f t="shared" si="8"/>
+      <c r="P29" s="16">
+        <f t="shared" si="11"/>
         <v>8.7119999999999993E-5</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="8">
         <f>J17</f>
         <v>3.3</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="20">
         <f>SUMIF($C$2:$C$16, $C30, $D$2:$D$16)-D28-D27</f>
         <v>82.732003200000008</v>
       </c>
-      <c r="E30" s="25">
-        <f t="shared" ref="E30" si="13">C30*D30</f>
+      <c r="E30" s="20">
+        <f t="shared" ref="E30" si="16">C30*D30</f>
         <v>273.01561056000003</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="16">
         <f>E30/1000</f>
         <v>0.27301561056000001</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="13" t="s">
+      <c r="H30" s="32"/>
+      <c r="I30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="8">
         <v>3.3</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="8">
         <v>8</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L30" s="22">
         <v>4.9999999999999997E-12</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="8">
         <v>115200</v>
       </c>
-      <c r="N30" s="24">
-        <f t="shared" si="6"/>
+      <c r="N30" s="19">
+        <f t="shared" si="9"/>
         <v>7.6031999999999992E-3</v>
       </c>
-      <c r="O30" s="23">
-        <f t="shared" si="7"/>
+      <c r="O30" s="18">
+        <f t="shared" si="10"/>
         <v>2.5090559999999994E-2</v>
       </c>
-      <c r="P30" s="28">
-        <f t="shared" si="8"/>
+      <c r="P30" s="23">
+        <f t="shared" si="11"/>
         <v>2.5090559999999994E-5</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="14"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="29" t="s">
+      <c r="A32" s="33"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="12">
         <f>SUM(E21:E30)</f>
         <v>3219.0810105600003</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="13">
         <f>SUM(F21:F30)</f>
         <v>3.2190810105600001</v>
       </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="29" t="s">
+      <c r="H32" s="27"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="12">
         <f>SUM(N17:N31)</f>
         <v>93.820003200000002</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O32" s="12">
         <f>SUM(O17:O31)</f>
         <v>309.60601056000002</v>
       </c>
-      <c r="P32" s="18">
+      <c r="P32" s="13">
         <f>SUM(P17:P31)</f>
         <v>0.30960601055999998</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="8"/>
+      <c r="E33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4361,196 +5024,215 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4AE343-48A6-45E0-8AF4-EA6F767E4B37}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>1.35</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="17">
         <f>E2/C2</f>
         <v>370.37037037037032</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="8">
         <v>500</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="8">
         <f>E2/1000</f>
         <v>0.5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <f>C2/2</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="8">
         <f>D3*C3</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="18">
         <f>E3/1000</f>
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="D5" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="43">
         <f>SUM(E2:E3)</f>
         <v>500.67500000000001</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="44">
         <f>SUM(F2:F3)</f>
         <v>0.50067499999999998</v>
       </c>
-    </row>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C8" cm="1">
-        <f t="array" ref="C8:C9">_xlfn.UNIQUE(C2:C3)</f>
+      <c r="C8" s="8">
+        <f t="shared" ref="C8:C9" si="0">C2</f>
         <v>1.35</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="17">
         <f>2*SUMIF($C$2:$C$3, $C8, $D$2:$D$3)</f>
         <v>740.74074074074065</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
         <f>D8*C8</f>
         <v>999.99999999999989</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <f>E8/1000</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
+        <f>C3</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <f>2*SUMIF($C$2:$C$3, $C9, $D$2:$D$3)</f>
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="8">
         <f>D9*C9</f>
         <v>1.35</v>
       </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F11" si="0">E9/1000</f>
+      <c r="F9" s="9">
+        <f t="shared" ref="F9" si="1">E9/1000</f>
         <v>1.3500000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="D11" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="46">
         <f>SUM(E8:E9)</f>
         <v>1001.3499999999999</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="47">
         <f>SUM(F8:F9)</f>
         <v>1.00135</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4558,5 +5240,9 @@
     <mergeCell ref="A7:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Power tree.xlsx
+++ b/Power tree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heinecke\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fred\Downloads\SBC5-Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CCA29E-2409-405A-A194-00131A3DC3C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED0A87D-05D2-40DD-A8FE-B007201A38E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E72A3546-5772-4171-86E1-18A31D0176B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{E72A3546-5772-4171-86E1-18A31D0176B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Buck converters" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -703,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -734,44 +734,17 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -790,7 +763,37 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,13 +801,13 @@
   </cellStyles>
   <dxfs count="62">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
       <font>
@@ -828,34 +831,42 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -879,50 +890,16 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -943,17 +920,214 @@
       </font>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -977,193 +1151,22 @@
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1179,32 +1182,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{92E29884-83E4-4CB9-941E-86581A7C7D24}" name="Table9" displayName="Table9" ref="B1:L3" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{92E29884-83E4-4CB9-941E-86581A7C7D24}" name="Table9" displayName="Table9" ref="B1:L3" totalsRowShown="0" headerRowDxfId="61">
   <autoFilter ref="B1:L3" xr:uid="{8837DF0B-F947-47F6-BAB2-639251F47D32}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{64AF6BF8-06D8-456B-B292-58F47ECF9BF9}" name="Input voltage_x000a_(V)"/>
-    <tableColumn id="2" xr3:uid="{875EC177-152A-4041-9ECC-8D9CABF22856}" name="Current in_x000a_(mA)" dataDxfId="21">
+    <tableColumn id="2" xr3:uid="{875EC177-152A-4041-9ECC-8D9CABF22856}" name="Current in_x000a_(mA)" dataDxfId="60">
       <calculatedColumnFormula>I2/B2/L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C290F034-A301-4C58-9CBE-BBFFA79FEBF9}" name="Power in_x000a_(mW)" dataDxfId="20">
+    <tableColumn id="3" xr3:uid="{C290F034-A301-4C58-9CBE-BBFFA79FEBF9}" name="Power in_x000a_(mW)" dataDxfId="59">
       <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{215BC251-9678-4D00-A85C-B906B9DF625D}" name="Power in_x000a_(W)" dataDxfId="19">
+    <tableColumn id="4" xr3:uid="{215BC251-9678-4D00-A85C-B906B9DF625D}" name="Power in_x000a_(W)" dataDxfId="58">
       <calculatedColumnFormula>D2/1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{1C531A31-A671-4CEA-98D0-048400BE54C9}" name="Sink"/>
     <tableColumn id="6" xr3:uid="{A7C731B7-F2F9-4285-B64D-072DE649CF9E}" name="Output voltage_x000a_(V)"/>
     <tableColumn id="7" xr3:uid="{FB4AAEE5-7DF8-4806-866E-FF20D7AFDFBC}" name="Current out_x000a_(mA)"/>
-    <tableColumn id="8" xr3:uid="{648F6602-28B0-4537-AE22-5CC1B9E6F90C}" name="Power out_x000a_(mW)" dataDxfId="18">
+    <tableColumn id="8" xr3:uid="{648F6602-28B0-4537-AE22-5CC1B9E6F90C}" name="Power out_x000a_(mW)" dataDxfId="57">
       <calculatedColumnFormula>G2*H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{460B383B-76D0-4DB4-9FCE-9AF75B108791}" name="Power out_x000a_(W)" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{460B383B-76D0-4DB4-9FCE-9AF75B108791}" name="Power out_x000a_(W)" dataDxfId="56">
       <calculatedColumnFormula>I2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1B8CC755-9B2B-49E4-8D96-E8F4ED827615}" name="Heat loss_x000a_(W)" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{1B8CC755-9B2B-49E4-8D96-E8F4ED827615}" name="Heat loss_x000a_(W)" dataDxfId="55">
       <calculatedColumnFormula>E2-J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8DA88ED1-BA42-4B1B-9AC4-C6709E7CC53A}" name="Efficiency" dataDxfId="15" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{8DA88ED1-BA42-4B1B-9AC4-C6709E7CC53A}" name="Efficiency" dataDxfId="54" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1236,7 +1239,7 @@
   <autoFilter ref="B7:F9" xr:uid="{B590B994-F24D-43D5-AAE1-AB5C0F39A5D2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3D41CA9D-FB20-4377-96AD-31856310779A}" name="Sink"/>
-    <tableColumn id="2" xr3:uid="{ECD64578-F73E-4642-8F0B-D740A4556471}" name="Voltage (V)" dataDxfId="26">
+    <tableColumn id="2" xr3:uid="{ECD64578-F73E-4642-8F0B-D740A4556471}" name="Voltage (V)" dataDxfId="0">
       <calculatedColumnFormula>C2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{E99D08CC-593B-447B-BB41-7CEC089F938A}" name="Current (mA)">
@@ -1254,7 +1257,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{728C2D89-6433-4009-ABEA-301F2EE0BDA6}" name="Table10" displayName="Table10" ref="B1:T14" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{728C2D89-6433-4009-ABEA-301F2EE0BDA6}" name="Table10" displayName="Table10" ref="B1:T14" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="B1:T14" xr:uid="{660142C1-230E-4338-B7F9-2B1ABCB59A99}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{C32C9119-92FB-4C2B-B78D-96AA99DBA12F}" name="Source"/>
@@ -1264,32 +1267,32 @@
     <tableColumn id="5" xr3:uid="{317C6DA6-006D-4E68-87A7-44DCA77A817B}" name="Current in (mA)">
       <calculatedColumnFormula>O2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FE486BB4-7D80-47E4-B777-07DDD266AECC}" name="Power in (mW)" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{FE486BB4-7D80-47E4-B777-07DDD266AECC}" name="Power in (mW)" dataDxfId="26">
       <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0133FC51-05E5-4966-8DCD-0A90CF67BB88}" name="Power in (W)" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{0133FC51-05E5-4966-8DCD-0A90CF67BB88}" name="Power in (W)" dataDxfId="25">
       <calculatedColumnFormula>G2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1C09D616-C725-4140-B7DE-6B6580E5CD8C}" name="Max current out (mA)" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{9D26CC57-EE4B-4296-B55A-0316411A369B}" name="Output" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{1C09D616-C725-4140-B7DE-6B6580E5CD8C}" name="Max current out (mA)" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{9D26CC57-EE4B-4296-B55A-0316411A369B}" name="Output" dataDxfId="23"/>
     <tableColumn id="10" xr3:uid="{B957A170-8C95-4B29-B00B-C973C936787E}" name="Sink"/>
     <tableColumn id="11" xr3:uid="{EE32E27A-BD83-4BCA-8589-554F25AC8715}" name="Min voltage out (V)"/>
     <tableColumn id="12" xr3:uid="{3AF01889-8D2D-4EAC-97B9-547901DCCAFE}" name="Max voltage out (V)"/>
     <tableColumn id="13" xr3:uid="{173A4E0F-633C-4FF3-B73F-718616C6BC8F}" name="Voltage out (V)"/>
-    <tableColumn id="14" xr3:uid="{5E1BB9C2-59E5-4565-AEF8-6C592777FF6B}" name="Current out (mA)" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{DC560683-4A87-4E70-8DC8-8096A3C362C3}" name="Power out (mW)" dataDxfId="6">
+    <tableColumn id="14" xr3:uid="{5E1BB9C2-59E5-4565-AEF8-6C592777FF6B}" name="Current out (mA)" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{DC560683-4A87-4E70-8DC8-8096A3C362C3}" name="Power out (mW)" dataDxfId="21">
       <calculatedColumnFormula>N2*O2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{855B29C6-554F-46B9-94DB-149D10271BD4}" name="Power out (W)" dataDxfId="5">
+    <tableColumn id="16" xr3:uid="{855B29C6-554F-46B9-94DB-149D10271BD4}" name="Power out (W)" dataDxfId="20">
       <calculatedColumnFormula>P2/1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{6FBB9F3C-240D-4933-9B15-D15CD70B30DB}" name="Voltage drop (V)">
       <calculatedColumnFormula>E2-N2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{D283933F-6F5F-4BA8-9367-4D75B51F4D5D}" name="Heat loss (W)" dataDxfId="4">
+    <tableColumn id="18" xr3:uid="{D283933F-6F5F-4BA8-9367-4D75B51F4D5D}" name="Heat loss (W)" dataDxfId="19">
       <calculatedColumnFormula>H2-Q2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{02EC7941-E4D9-4CDB-97EC-81FDC39262D7}" name="Efficiency" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="19" xr3:uid="{02EC7941-E4D9-4CDB-97EC-81FDC39262D7}" name="Efficiency" dataDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(H2=0,1,Q2/H2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1298,7 +1301,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7F86B533-7364-4BB7-AAAA-D8DEE6FBB573}" name="Table11" displayName="Table11" ref="B18:H23" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7F86B533-7364-4BB7-AAAA-D8DEE6FBB573}" name="Table11" displayName="Table11" ref="B18:H23" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="B18:H23" xr:uid="{DB6740D6-ABDF-4DE8-998E-29F3E18761F9}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2D34AD4E-9D3F-49AA-ABF6-FEFD15E0CF5F}" name="Source"/>
@@ -1306,10 +1309,10 @@
     <tableColumn id="3" xr3:uid="{7AB22D95-8FD0-4E90-A14A-CC6508DC5FDD}" name="Max voltage in (V)"/>
     <tableColumn id="4" xr3:uid="{1169AF06-C16B-4030-942F-D01A16E4157B}" name="Voltage in (V)"/>
     <tableColumn id="5" xr3:uid="{F5AB428D-CAB8-494D-9165-72BB2FBF89CB}" name="Current in (mA)"/>
-    <tableColumn id="6" xr3:uid="{E63A8BCE-0EE7-4654-B919-65E9385046AB}" name="Power in (mW)" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{E63A8BCE-0EE7-4654-B919-65E9385046AB}" name="Power in (mW)" dataDxfId="16">
       <calculatedColumnFormula>E19*F19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DE9D0662-A10B-4C04-A663-1C90DCA5B981}" name="Power in (W)" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{DE9D0662-A10B-4C04-A663-1C90DCA5B981}" name="Power in (W)" dataDxfId="15">
       <calculatedColumnFormula>G19/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1318,7 +1321,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{559CCFC3-5F07-45CA-9386-336DA9DCEC0D}" name="Table12" displayName="Table12" ref="K18:O21" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{559CCFC3-5F07-45CA-9386-336DA9DCEC0D}" name="Table12" displayName="Table12" ref="K18:O21" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="K18:O21" xr:uid="{C020B84F-A046-4B5B-B5F1-18402570AC4C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9DC3A4C0-E85B-48A0-AEE7-6AAA4C8B63C0}" name="Sinks"/>
@@ -1327,7 +1330,7 @@
     <tableColumn id="4" xr3:uid="{31999E69-D6D9-46B0-BFFB-EFB189C1EAB6}" name="Power in (mW)">
       <calculatedColumnFormula>L19*M19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9C3C5FE4-08C2-4E0C-8305-98BC461454F5}" name="Power in (W)" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{9C3C5FE4-08C2-4E0C-8305-98BC461454F5}" name="Power in (W)" dataDxfId="13">
       <calculatedColumnFormula>N19/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1336,16 +1339,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1114EC46-03A0-4ED4-9517-32D73F2DBAFD}" name="Table5" displayName="Table5" ref="B1:F2" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1114EC46-03A0-4ED4-9517-32D73F2DBAFD}" name="Table5" displayName="Table5" ref="B1:F2" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="B1:F2" xr:uid="{3A6101FE-8D0D-4071-A18D-7C3560B79C30}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{72E3BD3C-CA2B-4657-A05C-D072C6C7961C}" name="Sink" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{72E3BD3C-CA2B-4657-A05C-D072C6C7961C}" name="Sink" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{570C98D0-73CD-4B61-B4B6-B3C077CEA15C}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{B4FD65A7-DDF3-44D8-81EC-C1A94FEA0D8E}" name="Current (mA)"/>
-    <tableColumn id="4" xr3:uid="{F8A0947B-24CF-4BB9-AA30-CC6EDBB5E178}" name="Power (mW)" dataDxfId="24">
+    <tableColumn id="4" xr3:uid="{F8A0947B-24CF-4BB9-AA30-CC6EDBB5E178}" name="Power (mW)" dataDxfId="8">
       <calculatedColumnFormula>D2*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BD83BC3A-DAAD-4274-832F-3FD01B430CA6}" name="Power (W)" dataDxfId="23">
+    <tableColumn id="5" xr3:uid="{BD83BC3A-DAAD-4274-832F-3FD01B430CA6}" name="Power (W)" dataDxfId="7">
       <calculatedColumnFormula>E2/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1361,7 +1364,7 @@
     <tableColumn id="2" xr3:uid="{F50F894B-AB63-4B3A-A49A-F65D5ABB32D9}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{73310900-DEBA-4348-8E3A-39A10BBA45AA}" name="Current (mA)"/>
     <tableColumn id="4" xr3:uid="{008C10E9-8D15-4037-8C66-5232AD8F1671}" name="Power (mW)"/>
-    <tableColumn id="5" xr3:uid="{DD05115D-C945-4C00-AABD-0E5D5C38B729}" name="Power (W)" dataDxfId="35">
+    <tableColumn id="5" xr3:uid="{DD05115D-C945-4C00-AABD-0E5D5C38B729}" name="Power (W)" dataDxfId="6">
       <calculatedColumnFormula>E2/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1376,10 +1379,10 @@
     <tableColumn id="1" xr3:uid="{C2B77D68-610C-45C2-A1E7-DADE40229038}" name="Sink"/>
     <tableColumn id="2" xr3:uid="{B2A67EEF-BED3-40E4-A057-6360AC85B1D4}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{E54580B1-0317-42DA-AAAC-8A874DFF8997}" name="Current (mA)"/>
-    <tableColumn id="4" xr3:uid="{51960A38-2E5D-4C0C-815F-860C62579BFD}" name="Power (mW)" dataDxfId="34">
+    <tableColumn id="4" xr3:uid="{51960A38-2E5D-4C0C-815F-860C62579BFD}" name="Power (mW)" dataDxfId="5">
       <calculatedColumnFormula>C21*D21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{26AC31C2-EB8A-40E3-9D81-D5CCCFB3A51E}" name="Power (W)" dataDxfId="33">
+    <tableColumn id="5" xr3:uid="{26AC31C2-EB8A-40E3-9D81-D5CCCFB3A51E}" name="Power (W)" dataDxfId="4">
       <calculatedColumnFormula>E21/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1404,7 +1407,7 @@
     <tableColumn id="7" xr3:uid="{6CBD30A4-777A-4B77-BCC3-AA2D89C0E42C}" name="LDO power lost (W)">
       <calculatedColumnFormula>(K2-J2)*L2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{623667BF-2457-4802-B8CD-2579388158E0}" name="Efficiency" dataDxfId="32" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{623667BF-2457-4802-B8CD-2579388158E0}" name="Efficiency" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>(N2-O2)/N2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1419,9 +1422,9 @@
     <tableColumn id="1" xr3:uid="{0655E15C-2445-44F5-8DFB-8932359691AD}" name="Sink"/>
     <tableColumn id="2" xr3:uid="{75AC5B89-4231-41FE-873D-325BA0B5DB7F}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{C32987F5-324A-4AAB-BC93-AC8BE297E733}" name="Number of pins"/>
-    <tableColumn id="4" xr3:uid="{34192BDA-FC9C-44A3-9D3B-16ABFD0528C4}" name="Capacitance (F)" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{34192BDA-FC9C-44A3-9D3B-16ABFD0528C4}" name="Capacitance (F)" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{3A4A1471-8852-4C33-AB93-9F503D480C58}" name="Frequency (Hz)"/>
-    <tableColumn id="6" xr3:uid="{1E36DBC9-59AA-45A2-9136-FE0DB7C1010C}" name="Current (mA)" dataDxfId="30">
+    <tableColumn id="6" xr3:uid="{1E36DBC9-59AA-45A2-9136-FE0DB7C1010C}" name="Current (mA)" dataDxfId="1">
       <calculatedColumnFormula>1000*K17*L17*J17*0.5*M17</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{B52E8B41-12A9-4440-A949-A9CDEC8E10B8}" name="Power (mW)">
@@ -1734,7 +1737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2968E912-AAF4-43C0-A76F-CA791995FA7C}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1753,45 +1756,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="42" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="8">
         <v>12</v>
       </c>
@@ -1835,7 +1838,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="8">
         <v>12</v>
       </c>
@@ -1877,7 +1880,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1891,38 +1894,38 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="37">
         <f>SUM(C2:C3)</f>
         <v>1035.399252920696</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="37">
         <f>SUM(D2:D3)</f>
         <v>12424.791035048353</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="44">
         <f>SUM(E2:E3)</f>
         <v>12.424791035048353</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46">
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37">
         <f>SUM(I2:I3)</f>
         <v>9808.6948451733333</v>
       </c>
-      <c r="J5" s="53">
+      <c r="J5" s="44">
         <f>SUM(J2:J3)</f>
         <v>9.8086948451733331</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="45">
         <f>SUM(K2:K3)</f>
         <v>2.6160961898750195</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="46">
         <f>J5/E5</f>
         <v>0.78944545767446472</v>
       </c>
@@ -1970,70 +1973,70 @@
     <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="42" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="8" t="s">
         <v>62</v>
       </c>
@@ -2103,7 +2106,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="8" t="s">
         <v>73</v>
       </c>
@@ -2174,7 +2177,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="8" t="s">
         <v>63</v>
       </c>
@@ -2245,7 +2248,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="8" t="s">
         <v>64</v>
       </c>
@@ -2316,7 +2319,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="8" t="s">
         <v>93</v>
       </c>
@@ -2383,7 +2386,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="8" t="s">
         <v>54</v>
       </c>
@@ -2454,7 +2457,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="8" t="s">
         <v>89</v>
       </c>
@@ -2527,7 +2530,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="8" t="s">
         <v>88</v>
       </c>
@@ -2596,7 +2599,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="8" t="s">
         <v>94</v>
       </c>
@@ -2667,7 +2670,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="8" t="s">
         <v>94</v>
       </c>
@@ -2738,7 +2741,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="8" t="s">
         <v>91</v>
       </c>
@@ -2810,7 +2813,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="8" t="s">
         <v>91</v>
       </c>
@@ -2880,7 +2883,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="8" t="s">
         <v>101</v>
       </c>
@@ -2953,7 +2956,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2975,92 +2978,92 @@
       <c r="T15" s="9"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="52" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37">
         <f>SUM(G2:G14)</f>
         <v>4801.9048451733333</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="44">
         <f>SUM(H2:H14)</f>
         <v>4.8019048451733335</v>
       </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="46">
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="37">
         <f>SUM(P2:P14)</f>
         <v>3867.23101056</v>
       </c>
-      <c r="Q16" s="53">
+      <c r="Q16" s="44">
         <f>SUM(Q2:Q14)</f>
         <v>3.8672310105600003</v>
       </c>
-      <c r="R16" s="45"/>
-      <c r="S16" s="53">
+      <c r="R16" s="36"/>
+      <c r="S16" s="44">
         <f>SUM(S2:S14)</f>
         <v>0.93467383461333309</v>
       </c>
-      <c r="T16" s="55">
+      <c r="T16" s="46">
         <f>Q16/H16</f>
         <v>0.8053535284955039</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="51" t="s">
+      <c r="H18" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="50" t="s">
+      <c r="K18" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="L18" s="50" t="s">
+      <c r="L18" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="M18" s="50" t="s">
+      <c r="M18" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="N18" s="50" t="s">
+      <c r="N18" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="O18" s="51" t="s">
+      <c r="O18" s="42" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="50" t="s">
         <v>106</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3086,7 +3089,7 @@
         <f t="shared" ref="H19:H23" si="15">G19/1000</f>
         <v>0</v>
       </c>
-      <c r="J19" s="32"/>
+      <c r="J19" s="51"/>
       <c r="K19" s="8" t="s">
         <v>110</v>
       </c>
@@ -3107,7 +3110,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="8" t="s">
         <v>54</v>
       </c>
@@ -3133,7 +3136,7 @@
         <f t="shared" si="15"/>
         <v>4.4400000000000004E-3</v>
       </c>
-      <c r="J20" s="32"/>
+      <c r="J20" s="51"/>
       <c r="K20" s="8" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3158,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="8" t="s">
         <v>94</v>
       </c>
@@ -3180,7 +3183,7 @@
         <f t="shared" si="15"/>
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="J21" s="32"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="8" t="s">
         <v>101</v>
       </c>
@@ -3202,7 +3205,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="8" t="s">
         <v>86</v>
       </c>
@@ -3227,7 +3230,7 @@
         <f t="shared" si="15"/>
         <v>3.3E-3</v>
       </c>
-      <c r="J22" s="32"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="19"/>
@@ -3235,7 +3238,7 @@
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="8" t="s">
         <v>96</v>
       </c>
@@ -3259,23 +3262,23 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J23" s="33"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="45" t="s">
+      <c r="M23" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="46">
+      <c r="N23" s="37">
         <f>SUM(N19:N21)</f>
         <v>4813.3448451733339</v>
       </c>
-      <c r="O23" s="47">
+      <c r="O23" s="38">
         <f>SUM(O19:O21)</f>
         <v>4.8133448451733338</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -3288,19 +3291,19 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="52"/>
+      <c r="B25" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="54">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="45">
         <f>SUM(G19:G23)</f>
         <v>11.440000000000001</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25" s="38">
         <f>SUM(H19:H23)</f>
         <v>1.1440000000000002E-2</v>
       </c>
@@ -3314,40 +3317,40 @@
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
       <c r="J27" s="2"/>
       <c r="M27" s="4"/>
       <c r="N27" s="6"/>
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
       <c r="J28" s="2"/>
       <c r="M28" s="7"/>
       <c r="N28" s="4"/>
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
       <c r="J29" s="2"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -3368,116 +3371,116 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B29:E29"/>
     <mergeCell ref="J18:J23"/>
     <mergeCell ref="A1:A16"/>
     <mergeCell ref="A19:A25"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
   </mergeCells>
   <conditionalFormatting sqref="O2:O14">
-    <cfRule type="cellIs" dxfId="61" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="24" operator="lessThan">
       <formula>0.8*$I2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="25" operator="between">
       <formula>$I2*0.8</formula>
       <formula>$I2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="28">
+    <cfRule type="expression" dxfId="51" priority="28">
       <formula>$O2&gt;$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E14">
-    <cfRule type="cellIs" dxfId="58" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="21" stopIfTrue="1" operator="between">
       <formula>$C2</formula>
       <formula>$D2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="23">
+    <cfRule type="expression" dxfId="48" priority="23">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N14">
-    <cfRule type="cellIs" dxfId="55" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="19" stopIfTrue="1" operator="between">
       <formula>$L2</formula>
       <formula>$M2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="20">
+    <cfRule type="expression" dxfId="46" priority="20">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S14">
-    <cfRule type="cellIs" dxfId="53" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T14 T16">
-    <cfRule type="cellIs" dxfId="52" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="16" operator="greaterThanOrEqual">
       <formula>50%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="17" operator="lessThan">
       <formula>50%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="50" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="13" stopIfTrue="1" operator="between">
       <formula>$C19</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="14" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="15">
+    <cfRule type="expression" dxfId="40" priority="15">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="47" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="10" stopIfTrue="1" operator="between">
       <formula>$C20</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="11" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="12">
+    <cfRule type="expression" dxfId="37" priority="12">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="44" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="7" stopIfTrue="1" operator="between">
       <formula>$C21</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="9">
+    <cfRule type="expression" dxfId="34" priority="9">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="41" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="4" stopIfTrue="1" operator="between">
       <formula>$C22</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="6">
+    <cfRule type="expression" dxfId="31" priority="6">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="between">
       <formula>$C23</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3509,28 +3512,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="28" t="s">
         <v>113</v>
       </c>
       <c r="C2" s="8">
@@ -3549,7 +3552,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -3557,20 +3560,20 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="45" cm="1">
+      <c r="D4" s="36" cm="1">
         <f t="array" ref="D4">Table5[Current (mA)]</f>
         <v>195</v>
       </c>
-      <c r="E4" s="46" cm="1">
+      <c r="E4" s="37" cm="1">
         <f t="array" ref="E4">Table5[Power (mW)]</f>
         <v>643.5</v>
       </c>
-      <c r="F4" s="47" cm="1">
+      <c r="F4" s="38" cm="1">
         <f t="array" ref="F4">Table5[Power (W)]</f>
         <v>0.64349999999999996</v>
       </c>
@@ -3591,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE18E8FD-9EAF-459F-839D-AF6883546977}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3615,7 +3618,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="50" t="s">
         <v>68</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -3633,7 +3636,7 @@
       <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="50" t="s">
         <v>23</v>
       </c>
       <c r="I1" s="14" t="s">
@@ -3662,7 +3665,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
@@ -3680,7 +3683,7 @@
         <f>E2/1000</f>
         <v>0.61250000000000004</v>
       </c>
-      <c r="H2" s="32"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
@@ -3711,7 +3714,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3729,7 +3732,7 @@
         <f t="shared" ref="F3:F5" si="2">E3/1000</f>
         <v>1</v>
       </c>
-      <c r="H3" s="32"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
@@ -3760,7 +3763,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
@@ -3778,7 +3781,7 @@
         <f t="shared" si="2"/>
         <v>0.27</v>
       </c>
-      <c r="H4" s="32"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
@@ -3809,7 +3812,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
@@ -3828,7 +3831,7 @@
         <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
-      <c r="H5" s="32"/>
+      <c r="H5" s="51"/>
       <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
@@ -3859,7 +3862,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -3877,7 +3880,7 @@
         <f t="shared" ref="F6:F13" si="6">E6/1000</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H6" s="32"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="8" t="s">
         <v>24</v>
       </c>
@@ -3908,7 +3911,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
@@ -3926,7 +3929,7 @@
         <f t="shared" si="6"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H7" s="32"/>
+      <c r="H7" s="51"/>
       <c r="I7" s="8" t="s">
         <v>20</v>
       </c>
@@ -3957,7 +3960,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
@@ -3975,7 +3978,7 @@
         <f t="shared" si="6"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H8" s="32"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
@@ -4006,7 +4009,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
@@ -4024,7 +4027,7 @@
         <f t="shared" si="6"/>
         <v>1.8E-3</v>
       </c>
-      <c r="H9" s="32"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="8" t="s">
         <v>22</v>
       </c>
@@ -4055,7 +4058,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
@@ -4073,7 +4076,7 @@
         <f t="shared" si="6"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H10" s="32"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="8" t="s">
         <v>25</v>
       </c>
@@ -4104,7 +4107,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
@@ -4122,7 +4125,7 @@
         <f t="shared" si="6"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H11" s="32"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -4133,7 +4136,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -4151,7 +4154,7 @@
         <f t="shared" si="6"/>
         <v>0.27</v>
       </c>
-      <c r="H12" s="33"/>
+      <c r="H12" s="52"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="24" t="s">
@@ -4179,7 +4182,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="8" t="s">
         <v>60</v>
       </c>
@@ -4202,7 +4205,7 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="8" t="s">
         <v>52</v>
       </c>
@@ -4224,7 +4227,7 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="8" t="s">
         <v>51</v>
       </c>
@@ -4246,8 +4249,8 @@
       <c r="H15" s="1"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
       <c r="B16" s="8" t="s">
         <v>48</v>
       </c>
@@ -4266,7 +4269,7 @@
         <f>E16/1000</f>
         <v>0.30960601056000003</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="55" t="s">
         <v>48</v>
       </c>
       <c r="I16" s="14" t="s">
@@ -4295,13 +4298,13 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
-      <c r="H17" s="32"/>
+      <c r="H17" s="56"/>
       <c r="I17" s="8" t="s">
         <v>28</v>
       </c>
@@ -4331,7 +4334,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="24" t="s">
@@ -4345,7 +4348,7 @@
         <f>SUM(F2:F16)</f>
         <v>3.2190810105600005</v>
       </c>
-      <c r="H18" s="32"/>
+      <c r="H18" s="56"/>
       <c r="I18" s="8" t="s">
         <v>29</v>
       </c>
@@ -4375,7 +4378,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="32"/>
+      <c r="H19" s="56"/>
       <c r="I19" s="8" t="s">
         <v>30</v>
       </c>
@@ -4405,7 +4408,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="50" t="s">
         <v>69</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -4423,7 +4426,7 @@
       <c r="F20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="32"/>
+      <c r="H20" s="56"/>
       <c r="I20" s="8" t="s">
         <v>31</v>
       </c>
@@ -4453,7 +4456,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="8" t="s">
         <v>2</v>
       </c>
@@ -4473,7 +4476,7 @@
         <f>E21/1000</f>
         <v>0.61250000000000004</v>
       </c>
-      <c r="H21" s="32"/>
+      <c r="H21" s="56"/>
       <c r="I21" s="8" t="s">
         <v>32</v>
       </c>
@@ -4503,7 +4506,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="8" t="s">
         <v>7</v>
       </c>
@@ -4523,7 +4526,7 @@
         <f t="shared" ref="F22:F29" si="13">E22/1000</f>
         <v>1</v>
       </c>
-      <c r="H22" s="32"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="8" t="s">
         <v>33</v>
       </c>
@@ -4553,7 +4556,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="8" t="s">
         <v>67</v>
       </c>
@@ -4573,7 +4576,7 @@
         <f t="shared" si="13"/>
         <v>1.1088</v>
       </c>
-      <c r="H23" s="32"/>
+      <c r="H23" s="56"/>
       <c r="I23" s="8" t="s">
         <v>34</v>
       </c>
@@ -4603,7 +4606,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="8" t="s">
         <v>52</v>
       </c>
@@ -4623,7 +4626,7 @@
         <f t="shared" si="13"/>
         <v>0.17549999999999999</v>
       </c>
-      <c r="H24" s="32"/>
+      <c r="H24" s="56"/>
       <c r="I24" s="8" t="s">
         <v>35</v>
       </c>
@@ -4653,7 +4656,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="8" t="s">
         <v>51</v>
       </c>
@@ -4673,7 +4676,7 @@
         <f t="shared" si="13"/>
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="56"/>
       <c r="I25" s="8" t="s">
         <v>36</v>
       </c>
@@ -4703,7 +4706,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="8" t="s">
         <v>11</v>
       </c>
@@ -4723,7 +4726,7 @@
         <f t="shared" si="13"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H26" s="32"/>
+      <c r="H26" s="56"/>
       <c r="I26" s="8" t="s">
         <v>37</v>
       </c>
@@ -4753,7 +4756,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="8" t="s">
         <v>66</v>
       </c>
@@ -4772,7 +4775,7 @@
         <f t="shared" si="13"/>
         <v>1.6988399999999997E-2</v>
       </c>
-      <c r="H27" s="32"/>
+      <c r="H27" s="56"/>
       <c r="I27" s="8" t="s">
         <v>38</v>
       </c>
@@ -4802,7 +4805,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="8" t="s">
         <v>65</v>
       </c>
@@ -4822,7 +4825,7 @@
         <f t="shared" si="13"/>
         <v>1.9601999999999998E-2</v>
       </c>
-      <c r="H28" s="32"/>
+      <c r="H28" s="56"/>
       <c r="I28" s="8" t="s">
         <v>39</v>
       </c>
@@ -4852,7 +4855,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
@@ -4872,7 +4875,7 @@
         <f t="shared" si="13"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H29" s="32"/>
+      <c r="H29" s="56"/>
       <c r="I29" s="8" t="s">
         <v>40</v>
       </c>
@@ -4902,7 +4905,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="8" t="s">
         <v>61</v>
       </c>
@@ -4922,7 +4925,7 @@
         <f>E30/1000</f>
         <v>0.27301561056000001</v>
       </c>
-      <c r="H30" s="32"/>
+      <c r="H30" s="56"/>
       <c r="I30" s="8" t="s">
         <v>41</v>
       </c>
@@ -4952,13 +4955,13 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
-      <c r="H31" s="26"/>
+      <c r="H31" s="56"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -4969,7 +4972,7 @@
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="24" t="s">
@@ -4983,7 +4986,7 @@
         <f>SUM(F21:F30)</f>
         <v>3.2190810105600001</v>
       </c>
-      <c r="H32" s="27"/>
+      <c r="H32" s="57"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
@@ -5010,16 +5013,17 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A20:A32"/>
-    <mergeCell ref="H16:H30"/>
     <mergeCell ref="H1:H12"/>
     <mergeCell ref="A1:A18"/>
+    <mergeCell ref="H16:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5029,7 +5033,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5044,10 +5048,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -5067,8 +5071,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="32" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="8">
@@ -5090,8 +5094,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="32" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="8">
@@ -5114,8 +5118,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -5123,28 +5127,28 @@
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="34">
         <f>SUM(E2:E3)</f>
         <v>500.67500000000001</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="35">
         <f>SUM(F2:F3)</f>
         <v>0.50067499999999998</v>
       </c>
-      <c r="G5" s="37"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -5161,12 +5165,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="32" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="8">
-        <f t="shared" ref="C8:C9" si="0">C2</f>
+        <f t="shared" ref="C8" si="0">C2</f>
         <v>1.35</v>
       </c>
       <c r="D8" s="17">
@@ -5183,8 +5187,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="32" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="8">
@@ -5205,25 +5209,25 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="37">
         <f>SUM(E8:E9)</f>
         <v>1001.3499999999999</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="38">
         <f>SUM(F8:F9)</f>
         <v>1.00135</v>
       </c>

--- a/Power tree.xlsx
+++ b/Power tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fred\Downloads\SBC5-Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED0A87D-05D2-40DD-A8FE-B007201A38E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863296D3-B2DD-4FB7-A929-F22F22589CE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{E72A3546-5772-4171-86E1-18A31D0176B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{E72A3546-5772-4171-86E1-18A31D0176B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Buck converters" sheetId="4" r:id="rId1"/>
@@ -373,9 +373,6 @@
     <t>VREFDDR</t>
   </si>
   <si>
-    <t>NVCC_DRAM, VINREFDDR</t>
-  </si>
-  <si>
     <t>3V3 LP, VDDIO</t>
   </si>
   <si>
@@ -443,6 +440,9 @@
   <si>
     <t>Heat loss
 (W)</t>
+  </si>
+  <si>
+    <t>NVCC_DRAM, VINREFDDR, DDR3L</t>
   </si>
 </sst>
 </file>
@@ -801,6 +801,189 @@
   </cellStyles>
   <dxfs count="62">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -945,189 +1128,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1239,7 +1239,7 @@
   <autoFilter ref="B7:F9" xr:uid="{B590B994-F24D-43D5-AAE1-AB5C0F39A5D2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3D41CA9D-FB20-4377-96AD-31856310779A}" name="Sink"/>
-    <tableColumn id="2" xr3:uid="{ECD64578-F73E-4642-8F0B-D740A4556471}" name="Voltage (V)" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{ECD64578-F73E-4642-8F0B-D740A4556471}" name="Voltage (V)" dataDxfId="26">
       <calculatedColumnFormula>C2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{E99D08CC-593B-447B-BB41-7CEC089F938A}" name="Current (mA)">
@@ -1257,7 +1257,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{728C2D89-6433-4009-ABEA-301F2EE0BDA6}" name="Table10" displayName="Table10" ref="B1:T14" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{728C2D89-6433-4009-ABEA-301F2EE0BDA6}" name="Table10" displayName="Table10" ref="B1:T14" totalsRowShown="0" headerRowDxfId="53">
   <autoFilter ref="B1:T14" xr:uid="{660142C1-230E-4338-B7F9-2B1ABCB59A99}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{C32C9119-92FB-4C2B-B78D-96AA99DBA12F}" name="Source"/>
@@ -1267,32 +1267,32 @@
     <tableColumn id="5" xr3:uid="{317C6DA6-006D-4E68-87A7-44DCA77A817B}" name="Current in (mA)">
       <calculatedColumnFormula>O2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FE486BB4-7D80-47E4-B777-07DDD266AECC}" name="Power in (mW)" dataDxfId="26">
+    <tableColumn id="6" xr3:uid="{FE486BB4-7D80-47E4-B777-07DDD266AECC}" name="Power in (mW)" dataDxfId="52">
       <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0133FC51-05E5-4966-8DCD-0A90CF67BB88}" name="Power in (W)" dataDxfId="25">
+    <tableColumn id="7" xr3:uid="{0133FC51-05E5-4966-8DCD-0A90CF67BB88}" name="Power in (W)" dataDxfId="51">
       <calculatedColumnFormula>G2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1C09D616-C725-4140-B7DE-6B6580E5CD8C}" name="Max current out (mA)" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{9D26CC57-EE4B-4296-B55A-0316411A369B}" name="Output" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{1C09D616-C725-4140-B7DE-6B6580E5CD8C}" name="Max current out (mA)" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{9D26CC57-EE4B-4296-B55A-0316411A369B}" name="Output" dataDxfId="49"/>
     <tableColumn id="10" xr3:uid="{B957A170-8C95-4B29-B00B-C973C936787E}" name="Sink"/>
     <tableColumn id="11" xr3:uid="{EE32E27A-BD83-4BCA-8589-554F25AC8715}" name="Min voltage out (V)"/>
     <tableColumn id="12" xr3:uid="{3AF01889-8D2D-4EAC-97B9-547901DCCAFE}" name="Max voltage out (V)"/>
     <tableColumn id="13" xr3:uid="{173A4E0F-633C-4FF3-B73F-718616C6BC8F}" name="Voltage out (V)"/>
-    <tableColumn id="14" xr3:uid="{5E1BB9C2-59E5-4565-AEF8-6C592777FF6B}" name="Current out (mA)" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{DC560683-4A87-4E70-8DC8-8096A3C362C3}" name="Power out (mW)" dataDxfId="21">
+    <tableColumn id="14" xr3:uid="{5E1BB9C2-59E5-4565-AEF8-6C592777FF6B}" name="Current out (mA)" dataDxfId="48"/>
+    <tableColumn id="15" xr3:uid="{DC560683-4A87-4E70-8DC8-8096A3C362C3}" name="Power out (mW)" dataDxfId="47">
       <calculatedColumnFormula>N2*O2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{855B29C6-554F-46B9-94DB-149D10271BD4}" name="Power out (W)" dataDxfId="20">
+    <tableColumn id="16" xr3:uid="{855B29C6-554F-46B9-94DB-149D10271BD4}" name="Power out (W)" dataDxfId="46">
       <calculatedColumnFormula>P2/1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{6FBB9F3C-240D-4933-9B15-D15CD70B30DB}" name="Voltage drop (V)">
       <calculatedColumnFormula>E2-N2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{D283933F-6F5F-4BA8-9367-4D75B51F4D5D}" name="Heat loss (W)" dataDxfId="19">
+    <tableColumn id="18" xr3:uid="{D283933F-6F5F-4BA8-9367-4D75B51F4D5D}" name="Heat loss (W)" dataDxfId="45">
       <calculatedColumnFormula>H2-Q2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{02EC7941-E4D9-4CDB-97EC-81FDC39262D7}" name="Efficiency" dataDxfId="18" dataCellStyle="Percent">
+    <tableColumn id="19" xr3:uid="{02EC7941-E4D9-4CDB-97EC-81FDC39262D7}" name="Efficiency" dataDxfId="44" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(H2=0,1,Q2/H2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1301,7 +1301,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7F86B533-7364-4BB7-AAAA-D8DEE6FBB573}" name="Table11" displayName="Table11" ref="B18:H23" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7F86B533-7364-4BB7-AAAA-D8DEE6FBB573}" name="Table11" displayName="Table11" ref="B18:H23" totalsRowShown="0" headerRowDxfId="43">
   <autoFilter ref="B18:H23" xr:uid="{DB6740D6-ABDF-4DE8-998E-29F3E18761F9}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2D34AD4E-9D3F-49AA-ABF6-FEFD15E0CF5F}" name="Source"/>
@@ -1309,10 +1309,10 @@
     <tableColumn id="3" xr3:uid="{7AB22D95-8FD0-4E90-A14A-CC6508DC5FDD}" name="Max voltage in (V)"/>
     <tableColumn id="4" xr3:uid="{1169AF06-C16B-4030-942F-D01A16E4157B}" name="Voltage in (V)"/>
     <tableColumn id="5" xr3:uid="{F5AB428D-CAB8-494D-9165-72BB2FBF89CB}" name="Current in (mA)"/>
-    <tableColumn id="6" xr3:uid="{E63A8BCE-0EE7-4654-B919-65E9385046AB}" name="Power in (mW)" dataDxfId="16">
+    <tableColumn id="6" xr3:uid="{E63A8BCE-0EE7-4654-B919-65E9385046AB}" name="Power in (mW)" dataDxfId="42">
       <calculatedColumnFormula>E19*F19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DE9D0662-A10B-4C04-A663-1C90DCA5B981}" name="Power in (W)" dataDxfId="15">
+    <tableColumn id="7" xr3:uid="{DE9D0662-A10B-4C04-A663-1C90DCA5B981}" name="Power in (W)" dataDxfId="41">
       <calculatedColumnFormula>G19/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1321,7 +1321,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{559CCFC3-5F07-45CA-9386-336DA9DCEC0D}" name="Table12" displayName="Table12" ref="K18:O21" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{559CCFC3-5F07-45CA-9386-336DA9DCEC0D}" name="Table12" displayName="Table12" ref="K18:O21" totalsRowShown="0" headerRowDxfId="40">
   <autoFilter ref="K18:O21" xr:uid="{C020B84F-A046-4B5B-B5F1-18402570AC4C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9DC3A4C0-E85B-48A0-AEE7-6AAA4C8B63C0}" name="Sinks"/>
@@ -1330,7 +1330,7 @@
     <tableColumn id="4" xr3:uid="{31999E69-D6D9-46B0-BFFB-EFB189C1EAB6}" name="Power in (mW)">
       <calculatedColumnFormula>L19*M19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9C3C5FE4-08C2-4E0C-8305-98BC461454F5}" name="Power in (W)" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{9C3C5FE4-08C2-4E0C-8305-98BC461454F5}" name="Power in (W)" dataDxfId="39">
       <calculatedColumnFormula>N19/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1339,16 +1339,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1114EC46-03A0-4ED4-9517-32D73F2DBAFD}" name="Table5" displayName="Table5" ref="B1:F2" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1114EC46-03A0-4ED4-9517-32D73F2DBAFD}" name="Table5" displayName="Table5" ref="B1:F2" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36">
   <autoFilter ref="B1:F2" xr:uid="{3A6101FE-8D0D-4071-A18D-7C3560B79C30}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{72E3BD3C-CA2B-4657-A05C-D072C6C7961C}" name="Sink" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{72E3BD3C-CA2B-4657-A05C-D072C6C7961C}" name="Sink" dataDxfId="35"/>
     <tableColumn id="2" xr3:uid="{570C98D0-73CD-4B61-B4B6-B3C077CEA15C}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{B4FD65A7-DDF3-44D8-81EC-C1A94FEA0D8E}" name="Current (mA)"/>
-    <tableColumn id="4" xr3:uid="{F8A0947B-24CF-4BB9-AA30-CC6EDBB5E178}" name="Power (mW)" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{F8A0947B-24CF-4BB9-AA30-CC6EDBB5E178}" name="Power (mW)" dataDxfId="34">
       <calculatedColumnFormula>D2*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BD83BC3A-DAAD-4274-832F-3FD01B430CA6}" name="Power (W)" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{BD83BC3A-DAAD-4274-832F-3FD01B430CA6}" name="Power (W)" dataDxfId="33">
       <calculatedColumnFormula>E2/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1364,7 +1364,7 @@
     <tableColumn id="2" xr3:uid="{F50F894B-AB63-4B3A-A49A-F65D5ABB32D9}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{73310900-DEBA-4348-8E3A-39A10BBA45AA}" name="Current (mA)"/>
     <tableColumn id="4" xr3:uid="{008C10E9-8D15-4037-8C66-5232AD8F1671}" name="Power (mW)"/>
-    <tableColumn id="5" xr3:uid="{DD05115D-C945-4C00-AABD-0E5D5C38B729}" name="Power (W)" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{DD05115D-C945-4C00-AABD-0E5D5C38B729}" name="Power (W)" dataDxfId="32">
       <calculatedColumnFormula>E2/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1379,10 +1379,10 @@
     <tableColumn id="1" xr3:uid="{C2B77D68-610C-45C2-A1E7-DADE40229038}" name="Sink"/>
     <tableColumn id="2" xr3:uid="{B2A67EEF-BED3-40E4-A057-6360AC85B1D4}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{E54580B1-0317-42DA-AAAC-8A874DFF8997}" name="Current (mA)"/>
-    <tableColumn id="4" xr3:uid="{51960A38-2E5D-4C0C-815F-860C62579BFD}" name="Power (mW)" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{51960A38-2E5D-4C0C-815F-860C62579BFD}" name="Power (mW)" dataDxfId="31">
       <calculatedColumnFormula>C21*D21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{26AC31C2-EB8A-40E3-9D81-D5CCCFB3A51E}" name="Power (W)" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{26AC31C2-EB8A-40E3-9D81-D5CCCFB3A51E}" name="Power (W)" dataDxfId="30">
       <calculatedColumnFormula>E21/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1407,7 +1407,7 @@
     <tableColumn id="7" xr3:uid="{6CBD30A4-777A-4B77-BCC3-AA2D89C0E42C}" name="LDO power lost (W)">
       <calculatedColumnFormula>(K2-J2)*L2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{623667BF-2457-4802-B8CD-2579388158E0}" name="Efficiency" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{623667BF-2457-4802-B8CD-2579388158E0}" name="Efficiency" dataDxfId="29" dataCellStyle="Percent">
       <calculatedColumnFormula>(N2-O2)/N2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1422,9 +1422,9 @@
     <tableColumn id="1" xr3:uid="{0655E15C-2445-44F5-8DFB-8932359691AD}" name="Sink"/>
     <tableColumn id="2" xr3:uid="{75AC5B89-4231-41FE-873D-325BA0B5DB7F}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{C32987F5-324A-4AAB-BC93-AC8BE297E733}" name="Number of pins"/>
-    <tableColumn id="4" xr3:uid="{34192BDA-FC9C-44A3-9D3B-16ABFD0528C4}" name="Capacitance (F)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{34192BDA-FC9C-44A3-9D3B-16ABFD0528C4}" name="Capacitance (F)" dataDxfId="28"/>
     <tableColumn id="5" xr3:uid="{3A4A1471-8852-4C33-AB93-9F503D480C58}" name="Frequency (Hz)"/>
-    <tableColumn id="6" xr3:uid="{1E36DBC9-59AA-45A2-9136-FE0DB7C1010C}" name="Current (mA)" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{1E36DBC9-59AA-45A2-9136-FE0DB7C1010C}" name="Current (mA)" dataDxfId="27">
       <calculatedColumnFormula>1000*K17*L17*J17*0.5*M17</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{B52E8B41-12A9-4440-A949-A9CDEC8E10B8}" name="Power (mW)">
@@ -1757,37 +1757,37 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>118</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>119</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>123</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>124</v>
       </c>
       <c r="L1" s="42" t="s">
         <v>27</v>
@@ -1800,18 +1800,18 @@
       </c>
       <c r="C2" s="20">
         <f>I2/B2/L2</f>
-        <v>527.26917161988297</v>
+        <v>664.70064091812867</v>
       </c>
       <c r="D2" s="20">
         <f>B2*C2</f>
-        <v>6327.2300594385961</v>
+        <v>7976.4076910175445</v>
       </c>
       <c r="E2" s="18">
         <f>D2/1000</f>
-        <v>6.3272300594385964</v>
+        <v>7.9764076910175445</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="8">
         <f>PMIC!L19</f>
@@ -1819,19 +1819,19 @@
       </c>
       <c r="H2" s="20">
         <f>PMIC!M19</f>
-        <v>1299.6472554522522</v>
+        <v>1638.3972554522522</v>
       </c>
       <c r="I2" s="20">
         <f>G2*H2</f>
-        <v>4808.6948451733333</v>
+        <v>6062.0698451733333</v>
       </c>
       <c r="J2" s="18">
         <f>I2/1000</f>
-        <v>4.8086948451733331</v>
+        <v>6.0620698451733332</v>
       </c>
       <c r="K2" s="18">
         <f>E2-J2</f>
-        <v>1.5185352142652633</v>
+        <v>1.9143378458442113</v>
       </c>
       <c r="L2" s="21">
         <v>0.76</v>
@@ -1855,7 +1855,7 @@
         <v>6.0975609756097562</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" s="8">
         <v>5</v>
@@ -1900,34 +1900,34 @@
       </c>
       <c r="C5" s="37">
         <f>SUM(C2:C3)</f>
-        <v>1035.399252920696</v>
+        <v>1172.8307222189417</v>
       </c>
       <c r="D5" s="37">
         <f>SUM(D2:D3)</f>
-        <v>12424.791035048353</v>
+        <v>14073.968666627301</v>
       </c>
       <c r="E5" s="44">
         <f>SUM(E2:E3)</f>
-        <v>12.424791035048353</v>
+        <v>14.073968666627302</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="37">
         <f>SUM(I2:I3)</f>
-        <v>9808.6948451733333</v>
+        <v>11062.069845173333</v>
       </c>
       <c r="J5" s="44">
         <f>SUM(J2:J3)</f>
-        <v>9.8086948451733331</v>
+        <v>11.062069845173333</v>
       </c>
       <c r="K5" s="45">
         <f>SUM(K2:K3)</f>
-        <v>2.6160961898750195</v>
+        <v>3.0118988214539675</v>
       </c>
       <c r="L5" s="46">
         <f>J5/E5</f>
-        <v>0.78944545767446472</v>
+        <v>0.78599505990119967</v>
       </c>
     </row>
   </sheetData>
@@ -1945,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F95DEB-B0EF-42F6-83FA-977A66B7512F}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,7 +1961,7 @@
     <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D1" s="41" t="s">
         <v>97</v>
@@ -2264,15 +2264,15 @@
       </c>
       <c r="F5" s="19">
         <f t="shared" si="4"/>
-        <v>59.746621621621621</v>
+        <v>398.49662162162161</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" si="0"/>
-        <v>221.0625</v>
+        <v>1474.4375</v>
       </c>
       <c r="H5" s="19">
         <f t="shared" si="1"/>
-        <v>0.2210625</v>
+        <v>1.4744375000000001</v>
       </c>
       <c r="I5" s="20">
         <v>1500</v>
@@ -2282,7 +2282,7 @@
         <v>SW3</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="L5" s="8">
         <v>0.9</v>
@@ -2295,16 +2295,16 @@
         <v>1.35</v>
       </c>
       <c r="O5" s="17">
-        <f>CPU!D24+SUMIF(E2:E14, N5, F2:F14)</f>
-        <v>131</v>
+        <f>CPU!D24+SUMIF(E2:E14, N5, F2:F14)+DDR3L!D8</f>
+        <v>873.74074074074065</v>
       </c>
       <c r="P5" s="18">
         <f t="shared" si="5"/>
-        <v>176.85000000000002</v>
+        <v>1179.55</v>
       </c>
       <c r="Q5" s="8">
         <f t="shared" si="6"/>
-        <v>0.17685000000000003</v>
+        <v>1.1795499999999999</v>
       </c>
       <c r="R5" s="8">
         <f t="shared" si="2"/>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="S5" s="18">
         <f t="shared" si="3"/>
-        <v>4.421249999999996E-2</v>
+        <v>0.29488750000000019</v>
       </c>
       <c r="T5" s="21">
         <v>0.8</v>
@@ -2703,7 +2703,7 @@
         <v>77</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L11" s="8">
         <v>2.85</v>
@@ -2775,7 +2775,7 @@
         <v>75</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L12" s="8">
         <v>1.8</v>
@@ -2899,15 +2899,15 @@
       </c>
       <c r="F14" s="8">
         <f>O14</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="19">
         <f t="shared" si="0"/>
-        <v>1.35</v>
+        <v>4.0500000000000007</v>
       </c>
       <c r="H14" s="19">
         <f t="shared" si="1"/>
-        <v>1.3500000000000001E-3</v>
+        <v>4.0500000000000006E-3</v>
       </c>
       <c r="I14" s="20">
         <v>10</v>
@@ -2931,16 +2931,16 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="O14" s="17">
-        <f>CPU!D25</f>
-        <v>1</v>
+        <f>CPU!D25+DDR3L!D9</f>
+        <v>3</v>
       </c>
       <c r="P14" s="20">
         <f t="shared" si="5"/>
-        <v>0.67500000000000004</v>
+        <v>2.0250000000000004</v>
       </c>
       <c r="Q14" s="18">
         <f t="shared" si="6"/>
-        <v>6.7500000000000004E-4</v>
+        <v>2.0250000000000003E-3</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="2"/>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="S14" s="18">
         <f t="shared" si="3"/>
-        <v>6.7500000000000004E-4</v>
+        <v>2.0250000000000003E-3</v>
       </c>
       <c r="T14" s="21">
         <f t="shared" si="10"/>
@@ -2988,11 +2988,11 @@
       <c r="F16" s="36"/>
       <c r="G16" s="37">
         <f>SUM(G2:G14)</f>
-        <v>4801.9048451733333</v>
+        <v>6057.9798451733332</v>
       </c>
       <c r="H16" s="44">
         <f>SUM(H2:H14)</f>
-        <v>4.8019048451733335</v>
+        <v>6.0579798451733344</v>
       </c>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
@@ -3003,20 +3003,20 @@
       <c r="O16" s="36"/>
       <c r="P16" s="37">
         <f>SUM(P2:P14)</f>
-        <v>3867.23101056</v>
+        <v>4871.2810105600001</v>
       </c>
       <c r="Q16" s="44">
         <f>SUM(Q2:Q14)</f>
-        <v>3.8672310105600003</v>
+        <v>4.8712810105599997</v>
       </c>
       <c r="R16" s="36"/>
       <c r="S16" s="44">
         <f>SUM(S2:S14)</f>
-        <v>0.93467383461333309</v>
+        <v>1.1866988346133331</v>
       </c>
       <c r="T16" s="46">
         <f>Q16/H16</f>
-        <v>0.8053535284955039</v>
+        <v>0.80410980806434484</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="41" t="s">
         <v>97</v>
@@ -3044,10 +3044,10 @@
         <v>81</v>
       </c>
       <c r="J18" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="41" t="s">
         <v>108</v>
-      </c>
-      <c r="K18" s="41" t="s">
-        <v>109</v>
       </c>
       <c r="L18" s="41" t="s">
         <v>78</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>92</v>
@@ -3091,22 +3091,22 @@
       </c>
       <c r="J19" s="51"/>
       <c r="K19" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L19" s="8">
         <v>3.7</v>
       </c>
       <c r="M19" s="20">
         <f>SUMIF(E2:E14, L19, F2:F14) +SUMIF(E19:E23, L19, F19:F23)</f>
-        <v>1299.6472554522522</v>
+        <v>1638.3972554522522</v>
       </c>
       <c r="N19" s="17">
         <f>L19*M19</f>
-        <v>4808.6948451733333</v>
+        <v>6062.0698451733333</v>
       </c>
       <c r="O19" s="16">
         <f>N19/1000</f>
-        <v>4.8086948451733331</v>
+        <v>6.0620698451733332</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -3193,15 +3193,15 @@
       </c>
       <c r="M21" s="20">
         <f>F14</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N21" s="18">
         <f>L21*M21</f>
-        <v>1.35</v>
+        <v>4.0500000000000007</v>
       </c>
       <c r="O21" s="16">
         <f>N21/1000</f>
-        <v>1.3500000000000001E-3</v>
+        <v>4.0500000000000006E-3</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -3270,11 +3270,11 @@
       </c>
       <c r="N23" s="37">
         <f>SUM(N19:N21)</f>
-        <v>4813.3448451733339</v>
+        <v>6069.4198451733337</v>
       </c>
       <c r="O23" s="38">
         <f>SUM(O19:O21)</f>
-        <v>4.8133448451733338</v>
+        <v>6.0694198451733339</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -3379,108 +3379,108 @@
     <mergeCell ref="B28:E28"/>
   </mergeCells>
   <conditionalFormatting sqref="O2:O14">
-    <cfRule type="cellIs" dxfId="53" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="lessThan">
       <formula>0.8*$I2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="between">
       <formula>$I2*0.8</formula>
       <formula>$I2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="28">
+    <cfRule type="expression" dxfId="23" priority="28">
       <formula>$O2&gt;$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E14">
-    <cfRule type="cellIs" dxfId="50" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="21" stopIfTrue="1" operator="between">
       <formula>$C2</formula>
       <formula>$D2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="23">
+    <cfRule type="expression" dxfId="20" priority="23">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N14">
-    <cfRule type="cellIs" dxfId="47" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="between">
       <formula>$L2</formula>
       <formula>$M2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S14">
-    <cfRule type="cellIs" dxfId="45" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T14 T16">
-    <cfRule type="cellIs" dxfId="44" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThanOrEqual">
       <formula>50%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
       <formula>50%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="42" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="between">
       <formula>$C19</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="39" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="between">
       <formula>$C20</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="36" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="between">
       <formula>$C21</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="33" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="between">
       <formula>$C22</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="between">
       <formula>$C23</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3498,7 +3498,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3534,7 +3534,7 @@
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="48"/>
       <c r="B2" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="8">
         <v>3.3</v>
@@ -3594,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE18E8FD-9EAF-459F-839D-AF6883546977}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Power tree.xlsx
+++ b/Power tree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fred\Downloads\SBC5-Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863296D3-B2DD-4FB7-A929-F22F22589CE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E042407A-241A-47C2-8A0F-61AC746C15B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{E72A3546-5772-4171-86E1-18A31D0176B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E72A3546-5772-4171-86E1-18A31D0176B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Buck converters" sheetId="4" r:id="rId1"/>
@@ -703,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -734,6 +734,12 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -785,204 +791,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="62">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1128,6 +942,189 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1239,7 +1236,7 @@
   <autoFilter ref="B7:F9" xr:uid="{B590B994-F24D-43D5-AAE1-AB5C0F39A5D2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3D41CA9D-FB20-4377-96AD-31856310779A}" name="Sink"/>
-    <tableColumn id="2" xr3:uid="{ECD64578-F73E-4642-8F0B-D740A4556471}" name="Voltage (V)" dataDxfId="26">
+    <tableColumn id="2" xr3:uid="{ECD64578-F73E-4642-8F0B-D740A4556471}" name="Voltage (V)" dataDxfId="0">
       <calculatedColumnFormula>C2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{E99D08CC-593B-447B-BB41-7CEC089F938A}" name="Current (mA)">
@@ -1257,7 +1254,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{728C2D89-6433-4009-ABEA-301F2EE0BDA6}" name="Table10" displayName="Table10" ref="B1:T14" totalsRowShown="0" headerRowDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{728C2D89-6433-4009-ABEA-301F2EE0BDA6}" name="Table10" displayName="Table10" ref="B1:T14" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="B1:T14" xr:uid="{660142C1-230E-4338-B7F9-2B1ABCB59A99}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{C32C9119-92FB-4C2B-B78D-96AA99DBA12F}" name="Source"/>
@@ -1267,32 +1264,32 @@
     <tableColumn id="5" xr3:uid="{317C6DA6-006D-4E68-87A7-44DCA77A817B}" name="Current in (mA)">
       <calculatedColumnFormula>O2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FE486BB4-7D80-47E4-B777-07DDD266AECC}" name="Power in (mW)" dataDxfId="52">
+    <tableColumn id="6" xr3:uid="{FE486BB4-7D80-47E4-B777-07DDD266AECC}" name="Power in (mW)" dataDxfId="26">
       <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0133FC51-05E5-4966-8DCD-0A90CF67BB88}" name="Power in (W)" dataDxfId="51">
+    <tableColumn id="7" xr3:uid="{0133FC51-05E5-4966-8DCD-0A90CF67BB88}" name="Power in (W)" dataDxfId="25">
       <calculatedColumnFormula>G2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1C09D616-C725-4140-B7DE-6B6580E5CD8C}" name="Max current out (mA)" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{9D26CC57-EE4B-4296-B55A-0316411A369B}" name="Output" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{1C09D616-C725-4140-B7DE-6B6580E5CD8C}" name="Max current out (mA)" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{9D26CC57-EE4B-4296-B55A-0316411A369B}" name="Output" dataDxfId="23"/>
     <tableColumn id="10" xr3:uid="{B957A170-8C95-4B29-B00B-C973C936787E}" name="Sink"/>
     <tableColumn id="11" xr3:uid="{EE32E27A-BD83-4BCA-8589-554F25AC8715}" name="Min voltage out (V)"/>
     <tableColumn id="12" xr3:uid="{3AF01889-8D2D-4EAC-97B9-547901DCCAFE}" name="Max voltage out (V)"/>
     <tableColumn id="13" xr3:uid="{173A4E0F-633C-4FF3-B73F-718616C6BC8F}" name="Voltage out (V)"/>
-    <tableColumn id="14" xr3:uid="{5E1BB9C2-59E5-4565-AEF8-6C592777FF6B}" name="Current out (mA)" dataDxfId="48"/>
-    <tableColumn id="15" xr3:uid="{DC560683-4A87-4E70-8DC8-8096A3C362C3}" name="Power out (mW)" dataDxfId="47">
+    <tableColumn id="14" xr3:uid="{5E1BB9C2-59E5-4565-AEF8-6C592777FF6B}" name="Current out (mA)" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{DC560683-4A87-4E70-8DC8-8096A3C362C3}" name="Power out (mW)" dataDxfId="21">
       <calculatedColumnFormula>N2*O2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{855B29C6-554F-46B9-94DB-149D10271BD4}" name="Power out (W)" dataDxfId="46">
+    <tableColumn id="16" xr3:uid="{855B29C6-554F-46B9-94DB-149D10271BD4}" name="Power out (W)" dataDxfId="20">
       <calculatedColumnFormula>P2/1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{6FBB9F3C-240D-4933-9B15-D15CD70B30DB}" name="Voltage drop (V)">
       <calculatedColumnFormula>E2-N2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{D283933F-6F5F-4BA8-9367-4D75B51F4D5D}" name="Heat loss (W)" dataDxfId="45">
+    <tableColumn id="18" xr3:uid="{D283933F-6F5F-4BA8-9367-4D75B51F4D5D}" name="Heat loss (W)" dataDxfId="19">
       <calculatedColumnFormula>H2-Q2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{02EC7941-E4D9-4CDB-97EC-81FDC39262D7}" name="Efficiency" dataDxfId="44" dataCellStyle="Percent">
+    <tableColumn id="19" xr3:uid="{02EC7941-E4D9-4CDB-97EC-81FDC39262D7}" name="Efficiency" dataDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(H2=0,1,Q2/H2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1301,7 +1298,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7F86B533-7364-4BB7-AAAA-D8DEE6FBB573}" name="Table11" displayName="Table11" ref="B18:H23" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7F86B533-7364-4BB7-AAAA-D8DEE6FBB573}" name="Table11" displayName="Table11" ref="B18:H23" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="B18:H23" xr:uid="{DB6740D6-ABDF-4DE8-998E-29F3E18761F9}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2D34AD4E-9D3F-49AA-ABF6-FEFD15E0CF5F}" name="Source"/>
@@ -1309,10 +1306,10 @@
     <tableColumn id="3" xr3:uid="{7AB22D95-8FD0-4E90-A14A-CC6508DC5FDD}" name="Max voltage in (V)"/>
     <tableColumn id="4" xr3:uid="{1169AF06-C16B-4030-942F-D01A16E4157B}" name="Voltage in (V)"/>
     <tableColumn id="5" xr3:uid="{F5AB428D-CAB8-494D-9165-72BB2FBF89CB}" name="Current in (mA)"/>
-    <tableColumn id="6" xr3:uid="{E63A8BCE-0EE7-4654-B919-65E9385046AB}" name="Power in (mW)" dataDxfId="42">
+    <tableColumn id="6" xr3:uid="{E63A8BCE-0EE7-4654-B919-65E9385046AB}" name="Power in (mW)" dataDxfId="16">
       <calculatedColumnFormula>E19*F19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DE9D0662-A10B-4C04-A663-1C90DCA5B981}" name="Power in (W)" dataDxfId="41">
+    <tableColumn id="7" xr3:uid="{DE9D0662-A10B-4C04-A663-1C90DCA5B981}" name="Power in (W)" dataDxfId="15">
       <calculatedColumnFormula>G19/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1321,7 +1318,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{559CCFC3-5F07-45CA-9386-336DA9DCEC0D}" name="Table12" displayName="Table12" ref="K18:O21" totalsRowShown="0" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{559CCFC3-5F07-45CA-9386-336DA9DCEC0D}" name="Table12" displayName="Table12" ref="K18:O21" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="K18:O21" xr:uid="{C020B84F-A046-4B5B-B5F1-18402570AC4C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9DC3A4C0-E85B-48A0-AEE7-6AAA4C8B63C0}" name="Sinks"/>
@@ -1330,7 +1327,7 @@
     <tableColumn id="4" xr3:uid="{31999E69-D6D9-46B0-BFFB-EFB189C1EAB6}" name="Power in (mW)">
       <calculatedColumnFormula>L19*M19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9C3C5FE4-08C2-4E0C-8305-98BC461454F5}" name="Power in (W)" dataDxfId="39">
+    <tableColumn id="5" xr3:uid="{9C3C5FE4-08C2-4E0C-8305-98BC461454F5}" name="Power in (W)" dataDxfId="13">
       <calculatedColumnFormula>N19/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1339,16 +1336,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1114EC46-03A0-4ED4-9517-32D73F2DBAFD}" name="Table5" displayName="Table5" ref="B1:F2" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1114EC46-03A0-4ED4-9517-32D73F2DBAFD}" name="Table5" displayName="Table5" ref="B1:F2" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="B1:F2" xr:uid="{3A6101FE-8D0D-4071-A18D-7C3560B79C30}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{72E3BD3C-CA2B-4657-A05C-D072C6C7961C}" name="Sink" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{72E3BD3C-CA2B-4657-A05C-D072C6C7961C}" name="Sink" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{570C98D0-73CD-4B61-B4B6-B3C077CEA15C}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{B4FD65A7-DDF3-44D8-81EC-C1A94FEA0D8E}" name="Current (mA)"/>
-    <tableColumn id="4" xr3:uid="{F8A0947B-24CF-4BB9-AA30-CC6EDBB5E178}" name="Power (mW)" dataDxfId="34">
+    <tableColumn id="4" xr3:uid="{F8A0947B-24CF-4BB9-AA30-CC6EDBB5E178}" name="Power (mW)" dataDxfId="8">
       <calculatedColumnFormula>D2*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BD83BC3A-DAAD-4274-832F-3FD01B430CA6}" name="Power (W)" dataDxfId="33">
+    <tableColumn id="5" xr3:uid="{BD83BC3A-DAAD-4274-832F-3FD01B430CA6}" name="Power (W)" dataDxfId="7">
       <calculatedColumnFormula>E2/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1364,7 +1361,7 @@
     <tableColumn id="2" xr3:uid="{F50F894B-AB63-4B3A-A49A-F65D5ABB32D9}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{73310900-DEBA-4348-8E3A-39A10BBA45AA}" name="Current (mA)"/>
     <tableColumn id="4" xr3:uid="{008C10E9-8D15-4037-8C66-5232AD8F1671}" name="Power (mW)"/>
-    <tableColumn id="5" xr3:uid="{DD05115D-C945-4C00-AABD-0E5D5C38B729}" name="Power (W)" dataDxfId="32">
+    <tableColumn id="5" xr3:uid="{DD05115D-C945-4C00-AABD-0E5D5C38B729}" name="Power (W)" dataDxfId="6">
       <calculatedColumnFormula>E2/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1379,10 +1376,10 @@
     <tableColumn id="1" xr3:uid="{C2B77D68-610C-45C2-A1E7-DADE40229038}" name="Sink"/>
     <tableColumn id="2" xr3:uid="{B2A67EEF-BED3-40E4-A057-6360AC85B1D4}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{E54580B1-0317-42DA-AAAC-8A874DFF8997}" name="Current (mA)"/>
-    <tableColumn id="4" xr3:uid="{51960A38-2E5D-4C0C-815F-860C62579BFD}" name="Power (mW)" dataDxfId="31">
+    <tableColumn id="4" xr3:uid="{51960A38-2E5D-4C0C-815F-860C62579BFD}" name="Power (mW)" dataDxfId="5">
       <calculatedColumnFormula>C21*D21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{26AC31C2-EB8A-40E3-9D81-D5CCCFB3A51E}" name="Power (W)" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{26AC31C2-EB8A-40E3-9D81-D5CCCFB3A51E}" name="Power (W)" dataDxfId="4">
       <calculatedColumnFormula>E21/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1407,7 +1404,7 @@
     <tableColumn id="7" xr3:uid="{6CBD30A4-777A-4B77-BCC3-AA2D89C0E42C}" name="LDO power lost (W)">
       <calculatedColumnFormula>(K2-J2)*L2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{623667BF-2457-4802-B8CD-2579388158E0}" name="Efficiency" dataDxfId="29" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{623667BF-2457-4802-B8CD-2579388158E0}" name="Efficiency" dataDxfId="3" dataCellStyle="Percent">
       <calculatedColumnFormula>(N2-O2)/N2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1422,9 +1419,9 @@
     <tableColumn id="1" xr3:uid="{0655E15C-2445-44F5-8DFB-8932359691AD}" name="Sink"/>
     <tableColumn id="2" xr3:uid="{75AC5B89-4231-41FE-873D-325BA0B5DB7F}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{C32987F5-324A-4AAB-BC93-AC8BE297E733}" name="Number of pins"/>
-    <tableColumn id="4" xr3:uid="{34192BDA-FC9C-44A3-9D3B-16ABFD0528C4}" name="Capacitance (F)" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{34192BDA-FC9C-44A3-9D3B-16ABFD0528C4}" name="Capacitance (F)" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{3A4A1471-8852-4C33-AB93-9F503D480C58}" name="Frequency (Hz)"/>
-    <tableColumn id="6" xr3:uid="{1E36DBC9-59AA-45A2-9136-FE0DB7C1010C}" name="Current (mA)" dataDxfId="27">
+    <tableColumn id="6" xr3:uid="{1E36DBC9-59AA-45A2-9136-FE0DB7C1010C}" name="Current (mA)" dataDxfId="1">
       <calculatedColumnFormula>1000*K17*L17*J17*0.5*M17</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{B52E8B41-12A9-4440-A949-A9CDEC8E10B8}" name="Power (mW)">
@@ -1737,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2968E912-AAF4-43C0-A76F-CA791995FA7C}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,45 +1753,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="44" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="8">
         <v>12</v>
       </c>
@@ -1838,7 +1835,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="8">
         <v>12</v>
       </c>
@@ -1880,7 +1877,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1894,38 +1891,38 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="39">
         <f>SUM(C2:C3)</f>
         <v>1172.8307222189417</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="39">
         <f>SUM(D2:D3)</f>
         <v>14073.968666627301</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="46">
         <f>SUM(E2:E3)</f>
         <v>14.073968666627302</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37">
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39">
         <f>SUM(I2:I3)</f>
         <v>11062.069845173333</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="46">
         <f>SUM(J2:J3)</f>
         <v>11.062069845173333</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="47">
         <f>SUM(K2:K3)</f>
         <v>3.0118988214539675</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="48">
         <f>J5/E5</f>
         <v>0.78599505990119967</v>
       </c>
@@ -1945,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F95DEB-B0EF-42F6-83FA-977A66B7512F}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,70 +1970,70 @@
     <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="44" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="8" t="s">
         <v>62</v>
       </c>
@@ -2106,7 +2103,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="8" t="s">
         <v>73</v>
       </c>
@@ -2177,7 +2174,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="8" t="s">
         <v>63</v>
       </c>
@@ -2248,7 +2245,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="8" t="s">
         <v>64</v>
       </c>
@@ -2319,7 +2316,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="8" t="s">
         <v>93</v>
       </c>
@@ -2386,7 +2383,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="8" t="s">
         <v>54</v>
       </c>
@@ -2457,7 +2454,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="8" t="s">
         <v>89</v>
       </c>
@@ -2530,7 +2527,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="8" t="s">
         <v>88</v>
       </c>
@@ -2599,7 +2596,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="8" t="s">
         <v>94</v>
       </c>
@@ -2670,7 +2667,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="8" t="s">
         <v>94</v>
       </c>
@@ -2741,7 +2738,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="8" t="s">
         <v>91</v>
       </c>
@@ -2813,7 +2810,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="8" t="s">
         <v>91</v>
       </c>
@@ -2883,7 +2880,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="8" t="s">
         <v>101</v>
       </c>
@@ -2956,7 +2953,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2978,92 +2975,92 @@
       <c r="T15" s="9"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="43" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39">
         <f>SUM(G2:G14)</f>
         <v>6057.9798451733332</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="46">
         <f>SUM(H2:H14)</f>
         <v>6.0579798451733344</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="37">
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="39">
         <f>SUM(P2:P14)</f>
         <v>4871.2810105600001</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="Q16" s="46">
         <f>SUM(Q2:Q14)</f>
         <v>4.8712810105599997</v>
       </c>
-      <c r="R16" s="36"/>
-      <c r="S16" s="44">
+      <c r="R16" s="38"/>
+      <c r="S16" s="46">
         <f>SUM(S2:S14)</f>
         <v>1.1866988346133331</v>
       </c>
-      <c r="T16" s="46">
+      <c r="T16" s="48">
         <f>Q16/H16</f>
         <v>0.80410980806434484</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="41" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="K18" s="41" t="s">
+      <c r="K18" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="L18" s="41" t="s">
+      <c r="L18" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="M18" s="41" t="s">
+      <c r="M18" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="N18" s="41" t="s">
+      <c r="N18" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="O18" s="42" t="s">
+      <c r="O18" s="44" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="52" t="s">
         <v>105</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3089,7 +3086,7 @@
         <f t="shared" ref="H19:H23" si="15">G19/1000</f>
         <v>0</v>
       </c>
-      <c r="J19" s="51"/>
+      <c r="J19" s="53"/>
       <c r="K19" s="8" t="s">
         <v>109</v>
       </c>
@@ -3110,7 +3107,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="8" t="s">
         <v>54</v>
       </c>
@@ -3136,7 +3133,7 @@
         <f t="shared" si="15"/>
         <v>4.4400000000000004E-3</v>
       </c>
-      <c r="J20" s="51"/>
+      <c r="J20" s="53"/>
       <c r="K20" s="8" t="s">
         <v>86</v>
       </c>
@@ -3158,7 +3155,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="8" t="s">
         <v>94</v>
       </c>
@@ -3183,7 +3180,7 @@
         <f t="shared" si="15"/>
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="J21" s="51"/>
+      <c r="J21" s="53"/>
       <c r="K21" s="8" t="s">
         <v>101</v>
       </c>
@@ -3205,7 +3202,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="8" t="s">
         <v>86</v>
       </c>
@@ -3230,7 +3227,7 @@
         <f t="shared" si="15"/>
         <v>3.3E-3</v>
       </c>
-      <c r="J22" s="51"/>
+      <c r="J22" s="53"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="19"/>
@@ -3238,7 +3235,7 @@
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="8" t="s">
         <v>96</v>
       </c>
@@ -3262,23 +3259,23 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J23" s="52"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="36" t="s">
+      <c r="M23" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="37">
+      <c r="N23" s="39">
         <f>SUM(N19:N21)</f>
         <v>6069.4198451733337</v>
       </c>
-      <c r="O23" s="38">
+      <c r="O23" s="40">
         <f>SUM(O19:O21)</f>
         <v>6.0694198451733339</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -3291,19 +3288,19 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
-      <c r="B25" s="43" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="45">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="47">
         <f>SUM(G19:G23)</f>
         <v>11.440000000000001</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="40">
         <f>SUM(H19:H23)</f>
         <v>1.1440000000000002E-2</v>
       </c>
@@ -3317,40 +3314,40 @@
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
       <c r="J27" s="2"/>
       <c r="M27" s="4"/>
       <c r="N27" s="6"/>
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
       <c r="J28" s="2"/>
       <c r="M28" s="7"/>
       <c r="N28" s="4"/>
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
       <c r="J29" s="2"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -3379,108 +3376,108 @@
     <mergeCell ref="B28:E28"/>
   </mergeCells>
   <conditionalFormatting sqref="O2:O14">
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="24" operator="lessThan">
       <formula>0.8*$I2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="25" operator="between">
       <formula>$I2*0.8</formula>
       <formula>$I2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="28">
+    <cfRule type="expression" dxfId="51" priority="28">
       <formula>$O2&gt;$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E14">
-    <cfRule type="cellIs" dxfId="22" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="21" stopIfTrue="1" operator="between">
       <formula>$C2</formula>
       <formula>$D2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="23">
+    <cfRule type="expression" dxfId="48" priority="23">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N14">
-    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="19" stopIfTrue="1" operator="between">
       <formula>$L2</formula>
       <formula>$M2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="46" priority="20">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S14">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T14 T16">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="16" operator="greaterThanOrEqual">
       <formula>50%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="17" operator="lessThan">
       <formula>50%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="13" stopIfTrue="1" operator="between">
       <formula>$C19</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="14" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="40" priority="15">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="10" stopIfTrue="1" operator="between">
       <formula>$C20</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="11" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="37" priority="12">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="7" stopIfTrue="1" operator="between">
       <formula>$C21</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="34" priority="9">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="4" stopIfTrue="1" operator="between">
       <formula>$C22</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="31" priority="6">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="between">
       <formula>$C23</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3498,7 +3495,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3512,28 +3509,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="30" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="8">
@@ -3552,7 +3549,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -3560,20 +3557,20 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="36" cm="1">
+      <c r="D4" s="38" cm="1">
         <f t="array" ref="D4">Table5[Current (mA)]</f>
         <v>195</v>
       </c>
-      <c r="E4" s="37" cm="1">
+      <c r="E4" s="39" cm="1">
         <f t="array" ref="E4">Table5[Power (mW)]</f>
         <v>643.5</v>
       </c>
-      <c r="F4" s="38" cm="1">
+      <c r="F4" s="40" cm="1">
         <f t="array" ref="F4">Table5[Power (W)]</f>
         <v>0.64349999999999996</v>
       </c>
@@ -3595,7 +3592,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B30"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3618,7 +3615,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>68</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -3636,7 +3633,7 @@
       <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="52" t="s">
         <v>23</v>
       </c>
       <c r="I1" s="14" t="s">
@@ -3665,7 +3662,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
@@ -3683,7 +3680,7 @@
         <f>E2/1000</f>
         <v>0.61250000000000004</v>
       </c>
-      <c r="H2" s="51"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
@@ -3714,7 +3711,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3732,7 +3729,7 @@
         <f t="shared" ref="F3:F5" si="2">E3/1000</f>
         <v>1</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="53"/>
       <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
@@ -3763,7 +3760,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
@@ -3781,7 +3778,7 @@
         <f t="shared" si="2"/>
         <v>0.27</v>
       </c>
-      <c r="H4" s="51"/>
+      <c r="H4" s="53"/>
       <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
@@ -3812,7 +3809,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
@@ -3831,7 +3828,7 @@
         <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
-      <c r="H5" s="51"/>
+      <c r="H5" s="53"/>
       <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
@@ -3862,7 +3859,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -3880,7 +3877,7 @@
         <f t="shared" ref="F6:F13" si="6">E6/1000</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H6" s="51"/>
+      <c r="H6" s="53"/>
       <c r="I6" s="8" t="s">
         <v>24</v>
       </c>
@@ -3911,7 +3908,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
@@ -3929,7 +3926,7 @@
         <f t="shared" si="6"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H7" s="51"/>
+      <c r="H7" s="53"/>
       <c r="I7" s="8" t="s">
         <v>20</v>
       </c>
@@ -3960,7 +3957,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
@@ -3978,7 +3975,7 @@
         <f t="shared" si="6"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H8" s="51"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
@@ -4009,7 +4006,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
@@ -4027,7 +4024,7 @@
         <f t="shared" si="6"/>
         <v>1.8E-3</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="8" t="s">
         <v>22</v>
       </c>
@@ -4058,7 +4055,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
@@ -4076,7 +4073,7 @@
         <f t="shared" si="6"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H10" s="51"/>
+      <c r="H10" s="53"/>
       <c r="I10" s="8" t="s">
         <v>25</v>
       </c>
@@ -4107,7 +4104,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
@@ -4125,7 +4122,7 @@
         <f t="shared" si="6"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H11" s="51"/>
+      <c r="H11" s="53"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -4136,7 +4133,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -4154,7 +4151,7 @@
         <f t="shared" si="6"/>
         <v>0.27</v>
       </c>
-      <c r="H12" s="52"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="24" t="s">
@@ -4182,7 +4179,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="8" t="s">
         <v>60</v>
       </c>
@@ -4205,7 +4202,7 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="8" t="s">
         <v>52</v>
       </c>
@@ -4227,7 +4224,7 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="8" t="s">
         <v>51</v>
       </c>
@@ -4249,8 +4246,8 @@
       <c r="H15" s="1"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="53"/>
       <c r="B16" s="8" t="s">
         <v>48</v>
       </c>
@@ -4269,7 +4266,7 @@
         <f>E16/1000</f>
         <v>0.30960601056000003</v>
       </c>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="52" t="s">
         <v>48</v>
       </c>
       <c r="I16" s="14" t="s">
@@ -4298,13 +4295,13 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
-      <c r="H17" s="56"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="8" t="s">
         <v>28</v>
       </c>
@@ -4334,7 +4331,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="24" t="s">
@@ -4348,7 +4345,7 @@
         <f>SUM(F2:F16)</f>
         <v>3.2190810105600005</v>
       </c>
-      <c r="H18" s="56"/>
+      <c r="H18" s="53"/>
       <c r="I18" s="8" t="s">
         <v>29</v>
       </c>
@@ -4378,7 +4375,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="56"/>
+      <c r="H19" s="53"/>
       <c r="I19" s="8" t="s">
         <v>30</v>
       </c>
@@ -4408,7 +4405,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="52" t="s">
         <v>69</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -4426,7 +4423,7 @@
       <c r="F20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="56"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="8" t="s">
         <v>31</v>
       </c>
@@ -4456,7 +4453,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="8" t="s">
         <v>2</v>
       </c>
@@ -4476,7 +4473,7 @@
         <f>E21/1000</f>
         <v>0.61250000000000004</v>
       </c>
-      <c r="H21" s="56"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="8" t="s">
         <v>32</v>
       </c>
@@ -4506,7 +4503,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="8" t="s">
         <v>7</v>
       </c>
@@ -4526,7 +4523,7 @@
         <f t="shared" ref="F22:F29" si="13">E22/1000</f>
         <v>1</v>
       </c>
-      <c r="H22" s="56"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="8" t="s">
         <v>33</v>
       </c>
@@ -4556,7 +4553,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="8" t="s">
         <v>67</v>
       </c>
@@ -4576,7 +4573,7 @@
         <f t="shared" si="13"/>
         <v>1.1088</v>
       </c>
-      <c r="H23" s="56"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="8" t="s">
         <v>34</v>
       </c>
@@ -4606,7 +4603,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="8" t="s">
         <v>52</v>
       </c>
@@ -4626,7 +4623,7 @@
         <f t="shared" si="13"/>
         <v>0.17549999999999999</v>
       </c>
-      <c r="H24" s="56"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="8" t="s">
         <v>35</v>
       </c>
@@ -4656,7 +4653,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="8" t="s">
         <v>51</v>
       </c>
@@ -4676,7 +4673,7 @@
         <f t="shared" si="13"/>
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="H25" s="56"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="8" t="s">
         <v>36</v>
       </c>
@@ -4706,7 +4703,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="8" t="s">
         <v>11</v>
       </c>
@@ -4726,7 +4723,7 @@
         <f t="shared" si="13"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H26" s="56"/>
+      <c r="H26" s="53"/>
       <c r="I26" s="8" t="s">
         <v>37</v>
       </c>
@@ -4756,7 +4753,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="8" t="s">
         <v>66</v>
       </c>
@@ -4775,7 +4772,7 @@
         <f t="shared" si="13"/>
         <v>1.6988399999999997E-2</v>
       </c>
-      <c r="H27" s="56"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="8" t="s">
         <v>38</v>
       </c>
@@ -4805,7 +4802,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="8" t="s">
         <v>65</v>
       </c>
@@ -4825,7 +4822,7 @@
         <f t="shared" si="13"/>
         <v>1.9601999999999998E-2</v>
       </c>
-      <c r="H28" s="56"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="8" t="s">
         <v>39</v>
       </c>
@@ -4855,7 +4852,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
@@ -4875,7 +4872,7 @@
         <f t="shared" si="13"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H29" s="56"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="8" t="s">
         <v>40</v>
       </c>
@@ -4905,7 +4902,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="8" t="s">
         <v>61</v>
       </c>
@@ -4925,7 +4922,7 @@
         <f>E30/1000</f>
         <v>0.27301561056000001</v>
       </c>
-      <c r="H30" s="56"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="8" t="s">
         <v>41</v>
       </c>
@@ -4955,13 +4952,13 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
-      <c r="H31" s="56"/>
+      <c r="H31" s="26"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -4972,7 +4969,7 @@
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="24" t="s">
@@ -4986,7 +4983,7 @@
         <f>SUM(F21:F30)</f>
         <v>3.2190810105600001</v>
       </c>
-      <c r="H32" s="57"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
@@ -5013,17 +5010,16 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A20:A32"/>
+    <mergeCell ref="H16:H30"/>
     <mergeCell ref="H1:H12"/>
     <mergeCell ref="A1:A18"/>
-    <mergeCell ref="H16:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5033,7 +5029,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5048,10 +5044,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -5071,8 +5067,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="8">
@@ -5094,8 +5090,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="8">
@@ -5118,8 +5114,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -5127,28 +5123,28 @@
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="36">
         <f>SUM(E2:E3)</f>
         <v>500.67500000000001</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="37">
         <f>SUM(F2:F3)</f>
         <v>0.50067499999999998</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -5165,8 +5161,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="8">
@@ -5187,8 +5183,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="8">
@@ -5209,25 +5205,25 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="39">
         <f>SUM(E8:E9)</f>
         <v>1001.3499999999999</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="40">
         <f>SUM(F8:F9)</f>
         <v>1.00135</v>
       </c>

--- a/Power tree.xlsx
+++ b/Power tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fred\Downloads\SBC5-Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E042407A-241A-47C2-8A0F-61AC746C15B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DECBFF-98E4-4823-A661-0FB51C39D0EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E72A3546-5772-4171-86E1-18A31D0176B6}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E72A3546-5772-4171-86E1-18A31D0176B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Buck converters" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Ethernet PHY" sheetId="5" r:id="rId3"/>
     <sheet name="CPU" sheetId="1" r:id="rId4"/>
     <sheet name="DDR3L" sheetId="3" r:id="rId5"/>
+    <sheet name="MIPI" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="129">
   <si>
     <t>Source</t>
   </si>
@@ -443,6 +444,18 @@
   </si>
   <si>
     <t>NVCC_DRAM, VINREFDDR, DDR3L</t>
+  </si>
+  <si>
+    <t>CSI</t>
+  </si>
+  <si>
+    <t>DSI</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>MIPI</t>
   </si>
 </sst>
 </file>
@@ -703,7 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -769,6 +782,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -777,6 +791,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -788,15 +805,201 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -944,189 +1147,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1179,32 +1199,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{92E29884-83E4-4CB9-941E-86581A7C7D24}" name="Table9" displayName="Table9" ref="B1:L3" totalsRowShown="0" headerRowDxfId="61">
-  <autoFilter ref="B1:L3" xr:uid="{8837DF0B-F947-47F6-BAB2-639251F47D32}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{92E29884-83E4-4CB9-941E-86581A7C7D24}" name="Table9" displayName="Table9" ref="B1:L4" totalsRowShown="0" headerRowDxfId="62">
+  <autoFilter ref="B1:L4" xr:uid="{8837DF0B-F947-47F6-BAB2-639251F47D32}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{64AF6BF8-06D8-456B-B292-58F47ECF9BF9}" name="Input voltage_x000a_(V)"/>
-    <tableColumn id="2" xr3:uid="{875EC177-152A-4041-9ECC-8D9CABF22856}" name="Current in_x000a_(mA)" dataDxfId="60">
+    <tableColumn id="2" xr3:uid="{875EC177-152A-4041-9ECC-8D9CABF22856}" name="Current in_x000a_(mA)" dataDxfId="61">
       <calculatedColumnFormula>I2/B2/L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C290F034-A301-4C58-9CBE-BBFFA79FEBF9}" name="Power in_x000a_(mW)" dataDxfId="59">
+    <tableColumn id="3" xr3:uid="{C290F034-A301-4C58-9CBE-BBFFA79FEBF9}" name="Power in_x000a_(mW)" dataDxfId="60">
       <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{215BC251-9678-4D00-A85C-B906B9DF625D}" name="Power in_x000a_(W)" dataDxfId="58">
+    <tableColumn id="4" xr3:uid="{215BC251-9678-4D00-A85C-B906B9DF625D}" name="Power in_x000a_(W)" dataDxfId="59">
       <calculatedColumnFormula>D2/1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{1C531A31-A671-4CEA-98D0-048400BE54C9}" name="Sink"/>
     <tableColumn id="6" xr3:uid="{A7C731B7-F2F9-4285-B64D-072DE649CF9E}" name="Output voltage_x000a_(V)"/>
     <tableColumn id="7" xr3:uid="{FB4AAEE5-7DF8-4806-866E-FF20D7AFDFBC}" name="Current out_x000a_(mA)"/>
-    <tableColumn id="8" xr3:uid="{648F6602-28B0-4537-AE22-5CC1B9E6F90C}" name="Power out_x000a_(mW)" dataDxfId="57">
+    <tableColumn id="8" xr3:uid="{648F6602-28B0-4537-AE22-5CC1B9E6F90C}" name="Power out_x000a_(mW)" dataDxfId="58">
       <calculatedColumnFormula>G2*H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{460B383B-76D0-4DB4-9FCE-9AF75B108791}" name="Power out_x000a_(W)" dataDxfId="56">
+    <tableColumn id="9" xr3:uid="{460B383B-76D0-4DB4-9FCE-9AF75B108791}" name="Power out_x000a_(W)" dataDxfId="57">
       <calculatedColumnFormula>I2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1B8CC755-9B2B-49E4-8D96-E8F4ED827615}" name="Heat loss_x000a_(W)" dataDxfId="55">
+    <tableColumn id="10" xr3:uid="{1B8CC755-9B2B-49E4-8D96-E8F4ED827615}" name="Heat loss_x000a_(W)" dataDxfId="56">
       <calculatedColumnFormula>E2-J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8DA88ED1-BA42-4B1B-9AC4-C6709E7CC53A}" name="Efficiency" dataDxfId="54" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{8DA88ED1-BA42-4B1B-9AC4-C6709E7CC53A}" name="Efficiency" dataDxfId="55" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1236,7 +1256,7 @@
   <autoFilter ref="B7:F9" xr:uid="{B590B994-F24D-43D5-AAE1-AB5C0F39A5D2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3D41CA9D-FB20-4377-96AD-31856310779A}" name="Sink"/>
-    <tableColumn id="2" xr3:uid="{ECD64578-F73E-4642-8F0B-D740A4556471}" name="Voltage (V)" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{ECD64578-F73E-4642-8F0B-D740A4556471}" name="Voltage (V)" dataDxfId="27">
       <calculatedColumnFormula>C2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{E99D08CC-593B-447B-BB41-7CEC089F938A}" name="Current (mA)">
@@ -1253,8 +1273,49 @@
 </table>
 </file>
 
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7AFF3E4E-5D4D-4ED7-908A-714C1B20C600}" name="Table77" displayName="Table77" ref="B1:G3" totalsRowShown="0">
+  <autoFilter ref="B1:G3" xr:uid="{BF3C7FDE-F377-4FBE-8F8A-CF133325352B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{54AA7E35-806F-41DE-A830-E4AB6E471D82}" name="Sink"/>
+    <tableColumn id="2" xr3:uid="{E6AF541C-006F-4E6F-B417-05942D62348B}" name="Voltage (V)">
+      <calculatedColumnFormula>C1/2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{D3BD0D5C-B030-4022-9506-3C8A256C8B3F}" name="Current (mA)"/>
+    <tableColumn id="4" xr3:uid="{6D70F6C0-88F6-4DE7-BC6B-C5C564AD3468}" name="Power (mW)">
+      <calculatedColumnFormula>D2*C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{E7569DBF-A22B-48A7-B5B0-BBD2E3BD9DAC}" name="Power (W)">
+      <calculatedColumnFormula>E2/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{17EA0BC4-87A6-45FB-AA64-D9DD17BE4739}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{6BC62C8E-B877-4B8B-A3E9-EE15CC2B2D27}" name="Table814" displayName="Table814" ref="B7:F8" totalsRowShown="0">
+  <autoFilter ref="B7:F8" xr:uid="{6F9C7015-03CA-4070-BC30-EC18C93C5385}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1E921FC4-E489-4108-A012-3CE4DA9C1809}" name="Sink"/>
+    <tableColumn id="2" xr3:uid="{188E42A0-EBE4-4030-B862-498C14AB7DD1}" name="Voltage (V)" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{1E53EB1B-2053-4396-BCD1-24CF9059EB06}" name="Current (mA)">
+      <calculatedColumnFormula>SUMIF($C$2:$C$3, $C8, $D$2:$D$3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{FA303577-9170-4E67-BA85-038C23B78CC6}" name="Power (mW)">
+      <calculatedColumnFormula>D8*C8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{CE860785-92A8-45CB-A0EF-15F4839374B4}" name="Power (W)">
+      <calculatedColumnFormula>E8/1000</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{728C2D89-6433-4009-ABEA-301F2EE0BDA6}" name="Table10" displayName="Table10" ref="B1:T14" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{728C2D89-6433-4009-ABEA-301F2EE0BDA6}" name="Table10" displayName="Table10" ref="B1:T14" totalsRowShown="0" headerRowDxfId="54">
   <autoFilter ref="B1:T14" xr:uid="{660142C1-230E-4338-B7F9-2B1ABCB59A99}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{C32C9119-92FB-4C2B-B78D-96AA99DBA12F}" name="Source"/>
@@ -1264,32 +1325,32 @@
     <tableColumn id="5" xr3:uid="{317C6DA6-006D-4E68-87A7-44DCA77A817B}" name="Current in (mA)">
       <calculatedColumnFormula>O2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FE486BB4-7D80-47E4-B777-07DDD266AECC}" name="Power in (mW)" dataDxfId="26">
+    <tableColumn id="6" xr3:uid="{FE486BB4-7D80-47E4-B777-07DDD266AECC}" name="Power in (mW)" dataDxfId="53">
       <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0133FC51-05E5-4966-8DCD-0A90CF67BB88}" name="Power in (W)" dataDxfId="25">
+    <tableColumn id="7" xr3:uid="{0133FC51-05E5-4966-8DCD-0A90CF67BB88}" name="Power in (W)" dataDxfId="52">
       <calculatedColumnFormula>G2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1C09D616-C725-4140-B7DE-6B6580E5CD8C}" name="Max current out (mA)" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{9D26CC57-EE4B-4296-B55A-0316411A369B}" name="Output" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{1C09D616-C725-4140-B7DE-6B6580E5CD8C}" name="Max current out (mA)" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{9D26CC57-EE4B-4296-B55A-0316411A369B}" name="Output" dataDxfId="50"/>
     <tableColumn id="10" xr3:uid="{B957A170-8C95-4B29-B00B-C973C936787E}" name="Sink"/>
     <tableColumn id="11" xr3:uid="{EE32E27A-BD83-4BCA-8589-554F25AC8715}" name="Min voltage out (V)"/>
     <tableColumn id="12" xr3:uid="{3AF01889-8D2D-4EAC-97B9-547901DCCAFE}" name="Max voltage out (V)"/>
     <tableColumn id="13" xr3:uid="{173A4E0F-633C-4FF3-B73F-718616C6BC8F}" name="Voltage out (V)"/>
-    <tableColumn id="14" xr3:uid="{5E1BB9C2-59E5-4565-AEF8-6C592777FF6B}" name="Current out (mA)" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{DC560683-4A87-4E70-8DC8-8096A3C362C3}" name="Power out (mW)" dataDxfId="21">
+    <tableColumn id="14" xr3:uid="{5E1BB9C2-59E5-4565-AEF8-6C592777FF6B}" name="Current out (mA)" dataDxfId="49"/>
+    <tableColumn id="15" xr3:uid="{DC560683-4A87-4E70-8DC8-8096A3C362C3}" name="Power out (mW)" dataDxfId="48">
       <calculatedColumnFormula>N2*O2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{855B29C6-554F-46B9-94DB-149D10271BD4}" name="Power out (W)" dataDxfId="20">
+    <tableColumn id="16" xr3:uid="{855B29C6-554F-46B9-94DB-149D10271BD4}" name="Power out (W)" dataDxfId="47">
       <calculatedColumnFormula>P2/1000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{6FBB9F3C-240D-4933-9B15-D15CD70B30DB}" name="Voltage drop (V)">
       <calculatedColumnFormula>E2-N2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{D283933F-6F5F-4BA8-9367-4D75B51F4D5D}" name="Heat loss (W)" dataDxfId="19">
+    <tableColumn id="18" xr3:uid="{D283933F-6F5F-4BA8-9367-4D75B51F4D5D}" name="Heat loss (W)" dataDxfId="46">
       <calculatedColumnFormula>H2-Q2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{02EC7941-E4D9-4CDB-97EC-81FDC39262D7}" name="Efficiency" dataDxfId="18" dataCellStyle="Percent">
+    <tableColumn id="19" xr3:uid="{02EC7941-E4D9-4CDB-97EC-81FDC39262D7}" name="Efficiency" dataDxfId="45" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(H2=0,1,Q2/H2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1298,7 +1359,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7F86B533-7364-4BB7-AAAA-D8DEE6FBB573}" name="Table11" displayName="Table11" ref="B18:H23" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7F86B533-7364-4BB7-AAAA-D8DEE6FBB573}" name="Table11" displayName="Table11" ref="B18:H23" totalsRowShown="0" headerRowDxfId="44">
   <autoFilter ref="B18:H23" xr:uid="{DB6740D6-ABDF-4DE8-998E-29F3E18761F9}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2D34AD4E-9D3F-49AA-ABF6-FEFD15E0CF5F}" name="Source"/>
@@ -1306,10 +1367,10 @@
     <tableColumn id="3" xr3:uid="{7AB22D95-8FD0-4E90-A14A-CC6508DC5FDD}" name="Max voltage in (V)"/>
     <tableColumn id="4" xr3:uid="{1169AF06-C16B-4030-942F-D01A16E4157B}" name="Voltage in (V)"/>
     <tableColumn id="5" xr3:uid="{F5AB428D-CAB8-494D-9165-72BB2FBF89CB}" name="Current in (mA)"/>
-    <tableColumn id="6" xr3:uid="{E63A8BCE-0EE7-4654-B919-65E9385046AB}" name="Power in (mW)" dataDxfId="16">
+    <tableColumn id="6" xr3:uid="{E63A8BCE-0EE7-4654-B919-65E9385046AB}" name="Power in (mW)" dataDxfId="43">
       <calculatedColumnFormula>E19*F19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DE9D0662-A10B-4C04-A663-1C90DCA5B981}" name="Power in (W)" dataDxfId="15">
+    <tableColumn id="7" xr3:uid="{DE9D0662-A10B-4C04-A663-1C90DCA5B981}" name="Power in (W)" dataDxfId="42">
       <calculatedColumnFormula>G19/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1318,7 +1379,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{559CCFC3-5F07-45CA-9386-336DA9DCEC0D}" name="Table12" displayName="Table12" ref="K18:O21" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{559CCFC3-5F07-45CA-9386-336DA9DCEC0D}" name="Table12" displayName="Table12" ref="K18:O21" totalsRowShown="0" headerRowDxfId="41">
   <autoFilter ref="K18:O21" xr:uid="{C020B84F-A046-4B5B-B5F1-18402570AC4C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9DC3A4C0-E85B-48A0-AEE7-6AAA4C8B63C0}" name="Sinks"/>
@@ -1327,7 +1388,7 @@
     <tableColumn id="4" xr3:uid="{31999E69-D6D9-46B0-BFFB-EFB189C1EAB6}" name="Power in (mW)">
       <calculatedColumnFormula>L19*M19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9C3C5FE4-08C2-4E0C-8305-98BC461454F5}" name="Power in (W)" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{9C3C5FE4-08C2-4E0C-8305-98BC461454F5}" name="Power in (W)" dataDxfId="40">
       <calculatedColumnFormula>N19/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1336,16 +1397,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1114EC46-03A0-4ED4-9517-32D73F2DBAFD}" name="Table5" displayName="Table5" ref="B1:F2" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1114EC46-03A0-4ED4-9517-32D73F2DBAFD}" name="Table5" displayName="Table5" ref="B1:F2" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="B1:F2" xr:uid="{3A6101FE-8D0D-4071-A18D-7C3560B79C30}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{72E3BD3C-CA2B-4657-A05C-D072C6C7961C}" name="Sink" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{72E3BD3C-CA2B-4657-A05C-D072C6C7961C}" name="Sink" dataDxfId="36"/>
     <tableColumn id="2" xr3:uid="{570C98D0-73CD-4B61-B4B6-B3C077CEA15C}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{B4FD65A7-DDF3-44D8-81EC-C1A94FEA0D8E}" name="Current (mA)"/>
-    <tableColumn id="4" xr3:uid="{F8A0947B-24CF-4BB9-AA30-CC6EDBB5E178}" name="Power (mW)" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{F8A0947B-24CF-4BB9-AA30-CC6EDBB5E178}" name="Power (mW)" dataDxfId="35">
       <calculatedColumnFormula>D2*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BD83BC3A-DAAD-4274-832F-3FD01B430CA6}" name="Power (W)" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{BD83BC3A-DAAD-4274-832F-3FD01B430CA6}" name="Power (W)" dataDxfId="34">
       <calculatedColumnFormula>E2/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1361,7 +1422,7 @@
     <tableColumn id="2" xr3:uid="{F50F894B-AB63-4B3A-A49A-F65D5ABB32D9}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{73310900-DEBA-4348-8E3A-39A10BBA45AA}" name="Current (mA)"/>
     <tableColumn id="4" xr3:uid="{008C10E9-8D15-4037-8C66-5232AD8F1671}" name="Power (mW)"/>
-    <tableColumn id="5" xr3:uid="{DD05115D-C945-4C00-AABD-0E5D5C38B729}" name="Power (W)" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{DD05115D-C945-4C00-AABD-0E5D5C38B729}" name="Power (W)" dataDxfId="33">
       <calculatedColumnFormula>E2/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1376,10 +1437,10 @@
     <tableColumn id="1" xr3:uid="{C2B77D68-610C-45C2-A1E7-DADE40229038}" name="Sink"/>
     <tableColumn id="2" xr3:uid="{B2A67EEF-BED3-40E4-A057-6360AC85B1D4}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{E54580B1-0317-42DA-AAAC-8A874DFF8997}" name="Current (mA)"/>
-    <tableColumn id="4" xr3:uid="{51960A38-2E5D-4C0C-815F-860C62579BFD}" name="Power (mW)" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{51960A38-2E5D-4C0C-815F-860C62579BFD}" name="Power (mW)" dataDxfId="32">
       <calculatedColumnFormula>C21*D21</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{26AC31C2-EB8A-40E3-9D81-D5CCCFB3A51E}" name="Power (W)" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{26AC31C2-EB8A-40E3-9D81-D5CCCFB3A51E}" name="Power (W)" dataDxfId="31">
       <calculatedColumnFormula>E21/1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1404,7 +1465,7 @@
     <tableColumn id="7" xr3:uid="{6CBD30A4-777A-4B77-BCC3-AA2D89C0E42C}" name="LDO power lost (W)">
       <calculatedColumnFormula>(K2-J2)*L2/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{623667BF-2457-4802-B8CD-2579388158E0}" name="Efficiency" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{623667BF-2457-4802-B8CD-2579388158E0}" name="Efficiency" dataDxfId="30" dataCellStyle="Percent">
       <calculatedColumnFormula>(N2-O2)/N2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1419,9 +1480,9 @@
     <tableColumn id="1" xr3:uid="{0655E15C-2445-44F5-8DFB-8932359691AD}" name="Sink"/>
     <tableColumn id="2" xr3:uid="{75AC5B89-4231-41FE-873D-325BA0B5DB7F}" name="Voltage (V)"/>
     <tableColumn id="3" xr3:uid="{C32987F5-324A-4AAB-BC93-AC8BE297E733}" name="Number of pins"/>
-    <tableColumn id="4" xr3:uid="{34192BDA-FC9C-44A3-9D3B-16ABFD0528C4}" name="Capacitance (F)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{34192BDA-FC9C-44A3-9D3B-16ABFD0528C4}" name="Capacitance (F)" dataDxfId="29"/>
     <tableColumn id="5" xr3:uid="{3A4A1471-8852-4C33-AB93-9F503D480C58}" name="Frequency (Hz)"/>
-    <tableColumn id="6" xr3:uid="{1E36DBC9-59AA-45A2-9136-FE0DB7C1010C}" name="Current (mA)" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{1E36DBC9-59AA-45A2-9136-FE0DB7C1010C}" name="Current (mA)" dataDxfId="28">
       <calculatedColumnFormula>1000*K17*L17*J17*0.5*M17</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{B52E8B41-12A9-4440-A949-A9CDEC8E10B8}" name="Power (mW)">
@@ -1732,10 +1793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2968E912-AAF4-43C0-A76F-CA791995FA7C}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,7 +1814,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -1791,7 +1852,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="8">
         <v>12</v>
       </c>
@@ -1835,7 +1896,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="8">
         <v>12</v>
       </c>
@@ -1876,60 +1937,103 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="8">
+        <v>12</v>
+      </c>
+      <c r="C4" s="20">
+        <f>I4/B4/L4</f>
+        <v>361.84210526315792</v>
+      </c>
+      <c r="D4" s="20">
+        <f>B4*C4</f>
+        <v>4342.105263157895</v>
+      </c>
+      <c r="E4" s="18">
+        <f>D4/1000</f>
+        <v>4.3421052631578947</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="H4" s="20" cm="1">
+        <f t="array" ref="H4">Table814[Current (mA)]</f>
+        <v>1000</v>
+      </c>
+      <c r="I4" s="20">
+        <f>G4*H4</f>
+        <v>3300</v>
+      </c>
+      <c r="J4" s="18">
+        <f>I4/1000</f>
+        <v>3.3</v>
+      </c>
+      <c r="K4" s="18">
+        <f>E4-J4</f>
+        <v>1.0421052631578949</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="52"/>
+      <c r="B6" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="39">
-        <f>SUM(C2:C3)</f>
-        <v>1172.8307222189417</v>
-      </c>
-      <c r="D5" s="39">
-        <f>SUM(D2:D3)</f>
-        <v>14073.968666627301</v>
-      </c>
-      <c r="E5" s="46">
-        <f>SUM(E2:E3)</f>
-        <v>14.073968666627302</v>
-      </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39">
-        <f>SUM(I2:I3)</f>
-        <v>11062.069845173333</v>
-      </c>
-      <c r="J5" s="46">
-        <f>SUM(J2:J3)</f>
-        <v>11.062069845173333</v>
-      </c>
-      <c r="K5" s="47">
-        <f>SUM(K2:K3)</f>
-        <v>3.0118988214539675</v>
-      </c>
-      <c r="L5" s="48">
-        <f>J5/E5</f>
-        <v>0.78599505990119967</v>
+      <c r="C6" s="39">
+        <f>SUM(C2:C4)</f>
+        <v>1534.6728274820996</v>
+      </c>
+      <c r="D6" s="39">
+        <f>SUM(D2:D4)</f>
+        <v>18416.073929785198</v>
+      </c>
+      <c r="E6" s="46">
+        <f>SUM(E2:E4)</f>
+        <v>18.416073929785195</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39">
+        <f>SUM(I2:I4)</f>
+        <v>14362.069845173333</v>
+      </c>
+      <c r="J6" s="46">
+        <f>SUM(J2:J4)</f>
+        <v>14.362069845173334</v>
+      </c>
+      <c r="K6" s="47">
+        <f>SUM(K2:K4)</f>
+        <v>4.0540040846118623</v>
+      </c>
+      <c r="L6" s="48">
+        <f>J6/E6</f>
+        <v>0.779865996407892</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="A1:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1971,7 +2075,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -2033,7 +2137,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="8" t="s">
         <v>62</v>
       </c>
@@ -2103,7 +2207,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="8" t="s">
         <v>73</v>
       </c>
@@ -2174,7 +2278,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="8" t="s">
         <v>63</v>
       </c>
@@ -2245,7 +2349,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="8" t="s">
         <v>64</v>
       </c>
@@ -2316,7 +2420,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="8" t="s">
         <v>93</v>
       </c>
@@ -2383,7 +2487,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="8" t="s">
         <v>54</v>
       </c>
@@ -2454,7 +2558,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="8" t="s">
         <v>89</v>
       </c>
@@ -2527,7 +2631,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="8" t="s">
         <v>88</v>
       </c>
@@ -2596,7 +2700,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="8" t="s">
         <v>94</v>
       </c>
@@ -2667,7 +2771,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="8" t="s">
         <v>94</v>
       </c>
@@ -2738,7 +2842,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="8" t="s">
         <v>91</v>
       </c>
@@ -2810,7 +2914,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="8" t="s">
         <v>91</v>
       </c>
@@ -2880,7 +2984,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="8" t="s">
         <v>101</v>
       </c>
@@ -2953,7 +3057,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2975,7 +3079,7 @@
       <c r="T15" s="9"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="45" t="s">
         <v>26</v>
       </c>
@@ -3040,7 +3144,7 @@
       <c r="H18" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="52" t="s">
+      <c r="J18" s="54" t="s">
         <v>107</v>
       </c>
       <c r="K18" s="43" t="s">
@@ -3060,7 +3164,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="54" t="s">
         <v>105</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3086,7 +3190,7 @@
         <f t="shared" ref="H19:H23" si="15">G19/1000</f>
         <v>0</v>
       </c>
-      <c r="J19" s="53"/>
+      <c r="J19" s="55"/>
       <c r="K19" s="8" t="s">
         <v>109</v>
       </c>
@@ -3107,7 +3211,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="8" t="s">
         <v>54</v>
       </c>
@@ -3133,7 +3237,7 @@
         <f t="shared" si="15"/>
         <v>4.4400000000000004E-3</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="55"/>
       <c r="K20" s="8" t="s">
         <v>86</v>
       </c>
@@ -3155,7 +3259,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="8" t="s">
         <v>94</v>
       </c>
@@ -3180,7 +3284,7 @@
         <f t="shared" si="15"/>
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="J21" s="53"/>
+      <c r="J21" s="55"/>
       <c r="K21" s="8" t="s">
         <v>101</v>
       </c>
@@ -3202,7 +3306,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="8" t="s">
         <v>86</v>
       </c>
@@ -3227,7 +3331,7 @@
         <f t="shared" si="15"/>
         <v>3.3E-3</v>
       </c>
-      <c r="J22" s="53"/>
+      <c r="J22" s="55"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="19"/>
@@ -3235,7 +3339,7 @@
       <c r="O22" s="16"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="8" t="s">
         <v>96</v>
       </c>
@@ -3259,7 +3363,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J23" s="54"/>
+      <c r="J23" s="56"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="38" t="s">
@@ -3275,7 +3379,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -3288,7 +3392,7 @@
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="45" t="s">
         <v>26</v>
       </c>
@@ -3314,24 +3418,24 @@
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
       <c r="J27" s="2"/>
       <c r="M27" s="4"/>
       <c r="N27" s="6"/>
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
       <c r="J28" s="2"/>
@@ -3340,12 +3444,12 @@
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="J29" s="2"/>
@@ -3376,108 +3480,108 @@
     <mergeCell ref="B28:E28"/>
   </mergeCells>
   <conditionalFormatting sqref="O2:O14">
-    <cfRule type="cellIs" dxfId="53" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="lessThan">
       <formula>0.8*$I2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="between">
       <formula>$I2*0.8</formula>
       <formula>$I2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="28">
+    <cfRule type="expression" dxfId="23" priority="28">
       <formula>$O2&gt;$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E14">
-    <cfRule type="cellIs" dxfId="50" priority="21" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="21" stopIfTrue="1" operator="between">
       <formula>$C2</formula>
       <formula>$D2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="23">
+    <cfRule type="expression" dxfId="20" priority="23">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N14">
-    <cfRule type="cellIs" dxfId="47" priority="19" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="between">
       <formula>$L2</formula>
       <formula>$M2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S14">
-    <cfRule type="cellIs" dxfId="45" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T14 T16">
-    <cfRule type="cellIs" dxfId="44" priority="16" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThanOrEqual">
       <formula>50%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
       <formula>50%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="42" priority="13" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="between">
       <formula>$C19</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="39" priority="10" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="between">
       <formula>$C20</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="36" priority="7" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="between">
       <formula>$C21</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="33" priority="4" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="between">
       <formula>$C22</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="between">
       <formula>$C23</formula>
       <formula>"$D2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3509,7 +3613,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="41" t="s">
@@ -3529,7 +3633,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="30" t="s">
         <v>112</v>
       </c>
@@ -3549,7 +3653,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -3557,7 +3661,7 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="10"/>
       <c r="C4" s="38" t="s">
         <v>26</v>
@@ -3615,7 +3719,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>68</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -3633,7 +3737,7 @@
       <c r="F1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="54" t="s">
         <v>23</v>
       </c>
       <c r="I1" s="14" t="s">
@@ -3662,7 +3766,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
@@ -3680,7 +3784,7 @@
         <f>E2/1000</f>
         <v>0.61250000000000004</v>
       </c>
-      <c r="H2" s="53"/>
+      <c r="H2" s="55"/>
       <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
@@ -3711,7 +3815,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3729,7 +3833,7 @@
         <f t="shared" ref="F3:F5" si="2">E3/1000</f>
         <v>1</v>
       </c>
-      <c r="H3" s="53"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
@@ -3760,7 +3864,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
@@ -3778,7 +3882,7 @@
         <f t="shared" si="2"/>
         <v>0.27</v>
       </c>
-      <c r="H4" s="53"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="8" t="s">
         <v>18</v>
       </c>
@@ -3809,7 +3913,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
@@ -3828,7 +3932,7 @@
         <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
-      <c r="H5" s="53"/>
+      <c r="H5" s="55"/>
       <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
@@ -3859,7 +3963,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -3877,7 +3981,7 @@
         <f t="shared" ref="F6:F13" si="6">E6/1000</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H6" s="53"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="8" t="s">
         <v>24</v>
       </c>
@@ -3908,7 +4012,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
@@ -3926,7 +4030,7 @@
         <f t="shared" si="6"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H7" s="53"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="8" t="s">
         <v>20</v>
       </c>
@@ -3957,7 +4061,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
@@ -3975,7 +4079,7 @@
         <f t="shared" si="6"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H8" s="53"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="8" t="s">
         <v>21</v>
       </c>
@@ -4006,7 +4110,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
@@ -4024,7 +4128,7 @@
         <f t="shared" si="6"/>
         <v>1.8E-3</v>
       </c>
-      <c r="H9" s="53"/>
+      <c r="H9" s="55"/>
       <c r="I9" s="8" t="s">
         <v>22</v>
       </c>
@@ -4055,7 +4159,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
@@ -4073,7 +4177,7 @@
         <f t="shared" si="6"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H10" s="53"/>
+      <c r="H10" s="55"/>
       <c r="I10" s="8" t="s">
         <v>25</v>
       </c>
@@ -4104,7 +4208,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
@@ -4122,7 +4226,7 @@
         <f t="shared" si="6"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H11" s="53"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -4133,7 +4237,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -4151,7 +4255,7 @@
         <f t="shared" si="6"/>
         <v>0.27</v>
       </c>
-      <c r="H12" s="54"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="24" t="s">
@@ -4179,7 +4283,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="8" t="s">
         <v>60</v>
       </c>
@@ -4202,7 +4306,7 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="8" t="s">
         <v>52</v>
       </c>
@@ -4224,7 +4328,7 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="8" t="s">
         <v>51</v>
       </c>
@@ -4247,7 +4351,7 @@
       <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="8" t="s">
         <v>48</v>
       </c>
@@ -4266,7 +4370,7 @@
         <f>E16/1000</f>
         <v>0.30960601056000003</v>
       </c>
-      <c r="H16" s="52" t="s">
+      <c r="H16" s="54" t="s">
         <v>48</v>
       </c>
       <c r="I16" s="14" t="s">
@@ -4295,13 +4399,13 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
-      <c r="H17" s="53"/>
+      <c r="H17" s="55"/>
       <c r="I17" s="8" t="s">
         <v>28</v>
       </c>
@@ -4331,7 +4435,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="24" t="s">
@@ -4345,7 +4449,7 @@
         <f>SUM(F2:F16)</f>
         <v>3.2190810105600005</v>
       </c>
-      <c r="H18" s="53"/>
+      <c r="H18" s="55"/>
       <c r="I18" s="8" t="s">
         <v>29</v>
       </c>
@@ -4375,7 +4479,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="53"/>
+      <c r="H19" s="55"/>
       <c r="I19" s="8" t="s">
         <v>30</v>
       </c>
@@ -4405,7 +4509,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="54" t="s">
         <v>69</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -4423,7 +4527,7 @@
       <c r="F20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="53"/>
+      <c r="H20" s="55"/>
       <c r="I20" s="8" t="s">
         <v>31</v>
       </c>
@@ -4453,7 +4557,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="8" t="s">
         <v>2</v>
       </c>
@@ -4473,7 +4577,7 @@
         <f>E21/1000</f>
         <v>0.61250000000000004</v>
       </c>
-      <c r="H21" s="53"/>
+      <c r="H21" s="55"/>
       <c r="I21" s="8" t="s">
         <v>32</v>
       </c>
@@ -4503,7 +4607,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="8" t="s">
         <v>7</v>
       </c>
@@ -4523,7 +4627,7 @@
         <f t="shared" ref="F22:F29" si="13">E22/1000</f>
         <v>1</v>
       </c>
-      <c r="H22" s="53"/>
+      <c r="H22" s="55"/>
       <c r="I22" s="8" t="s">
         <v>33</v>
       </c>
@@ -4553,7 +4657,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="8" t="s">
         <v>67</v>
       </c>
@@ -4573,7 +4677,7 @@
         <f t="shared" si="13"/>
         <v>1.1088</v>
       </c>
-      <c r="H23" s="53"/>
+      <c r="H23" s="55"/>
       <c r="I23" s="8" t="s">
         <v>34</v>
       </c>
@@ -4603,7 +4707,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="8" t="s">
         <v>52</v>
       </c>
@@ -4623,7 +4727,7 @@
         <f t="shared" si="13"/>
         <v>0.17549999999999999</v>
       </c>
-      <c r="H24" s="53"/>
+      <c r="H24" s="55"/>
       <c r="I24" s="8" t="s">
         <v>35</v>
       </c>
@@ -4653,7 +4757,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="8" t="s">
         <v>51</v>
       </c>
@@ -4673,7 +4777,7 @@
         <f t="shared" si="13"/>
         <v>6.7500000000000004E-4</v>
       </c>
-      <c r="H25" s="53"/>
+      <c r="H25" s="55"/>
       <c r="I25" s="8" t="s">
         <v>36</v>
       </c>
@@ -4703,7 +4807,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="8" t="s">
         <v>11</v>
       </c>
@@ -4723,7 +4827,7 @@
         <f t="shared" si="13"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H26" s="53"/>
+      <c r="H26" s="55"/>
       <c r="I26" s="8" t="s">
         <v>37</v>
       </c>
@@ -4753,7 +4857,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="8" t="s">
         <v>66</v>
       </c>
@@ -4772,7 +4876,7 @@
         <f t="shared" si="13"/>
         <v>1.6988399999999997E-2</v>
       </c>
-      <c r="H27" s="53"/>
+      <c r="H27" s="55"/>
       <c r="I27" s="8" t="s">
         <v>38</v>
       </c>
@@ -4802,7 +4906,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="8" t="s">
         <v>65</v>
       </c>
@@ -4822,7 +4926,7 @@
         <f t="shared" si="13"/>
         <v>1.9601999999999998E-2</v>
       </c>
-      <c r="H28" s="53"/>
+      <c r="H28" s="55"/>
       <c r="I28" s="8" t="s">
         <v>39</v>
       </c>
@@ -4852,7 +4956,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
@@ -4872,7 +4976,7 @@
         <f t="shared" si="13"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H29" s="53"/>
+      <c r="H29" s="55"/>
       <c r="I29" s="8" t="s">
         <v>40</v>
       </c>
@@ -4902,7 +5006,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="8" t="s">
         <v>61</v>
       </c>
@@ -4922,7 +5026,7 @@
         <f>E30/1000</f>
         <v>0.27301561056000001</v>
       </c>
-      <c r="H30" s="53"/>
+      <c r="H30" s="55"/>
       <c r="I30" s="8" t="s">
         <v>41</v>
       </c>
@@ -4952,7 +5056,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -4969,7 +5073,7 @@
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="24" t="s">
@@ -5029,7 +5133,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5044,7 +5148,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -5067,7 +5171,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="34" t="s">
         <v>53</v>
       </c>
@@ -5090,7 +5194,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="34" t="s">
         <v>55</v>
       </c>
@@ -5114,7 +5218,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="34"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -5123,7 +5227,7 @@
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="32"/>
       <c r="C5" s="10"/>
       <c r="D5" s="35" t="s">
@@ -5141,7 +5245,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="31" t="s">
@@ -5161,7 +5265,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="34" t="s">
         <v>53</v>
       </c>
@@ -5183,7 +5287,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="34" t="s">
         <v>55</v>
       </c>
@@ -5205,7 +5309,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="34"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -5213,7 +5317,7 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="32"/>
       <c r="C11" s="10"/>
       <c r="D11" s="38" t="s">
@@ -5245,4 +5349,204 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D7CBDE-E9EA-4746-89DC-13FE0409413C}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="7" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="5.42578125" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="D2" s="20">
+        <v>500</v>
+      </c>
+      <c r="E2" s="8">
+        <f>D2*C2</f>
+        <v>1650</v>
+      </c>
+      <c r="F2" s="8">
+        <f>E2/1000</f>
+        <v>1.65</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>500</v>
+      </c>
+      <c r="E3" s="8">
+        <f>D3*C3</f>
+        <v>1650</v>
+      </c>
+      <c r="F3" s="19">
+        <f>E3/1000</f>
+        <v>1.65</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="59">
+        <f>SUM(E2:E3)</f>
+        <v>3300</v>
+      </c>
+      <c r="F5" s="58">
+        <f>SUM(F2:F3)</f>
+        <v>3.3</v>
+      </c>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
+      <c r="B8" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="D8" s="17">
+        <f>SUMIF($C$2:$C$3, $C8, $D$2:$D$3)</f>
+        <v>1000</v>
+      </c>
+      <c r="E8" s="8">
+        <f>D8*C8</f>
+        <v>3300</v>
+      </c>
+      <c r="F8" s="9">
+        <f>E8/1000</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="39">
+        <f>SUM(E8:E8)</f>
+        <v>3300</v>
+      </c>
+      <c r="F10" s="60">
+        <f>SUM(F8:F8)</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="A7:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Power tree.xlsx
+++ b/Power tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fred\Downloads\SBC5-Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DECBFF-98E4-4823-A661-0FB51C39D0EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ECC9E8-269C-4345-9D45-92C35C65FA35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E72A3546-5772-4171-86E1-18A31D0176B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E72A3546-5772-4171-86E1-18A31D0176B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Buck converters" sheetId="4" r:id="rId1"/>
@@ -1796,7 +1796,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1902,15 +1902,15 @@
       </c>
       <c r="C3" s="20">
         <f>I3/B3/L3</f>
-        <v>508.13008130081306</v>
+        <v>496.03174603174608</v>
       </c>
       <c r="D3" s="20">
         <f>B3*C3</f>
-        <v>6097.5609756097565</v>
+        <v>5952.3809523809532</v>
       </c>
       <c r="E3" s="18">
         <f>D3/1000</f>
-        <v>6.0975609756097562</v>
+        <v>5.9523809523809534</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>111</v>
@@ -1931,10 +1931,10 @@
       </c>
       <c r="K3" s="18">
         <f>E3-J3</f>
-        <v>1.0975609756097562</v>
+        <v>0.95238095238095344</v>
       </c>
       <c r="L3" s="21">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.25">
@@ -1944,15 +1944,15 @@
       </c>
       <c r="C4" s="20">
         <f>I4/B4/L4</f>
-        <v>361.84210526315792</v>
+        <v>352.56410256410254</v>
       </c>
       <c r="D4" s="20">
         <f>B4*C4</f>
-        <v>4342.105263157895</v>
+        <v>4230.7692307692305</v>
       </c>
       <c r="E4" s="18">
         <f>D4/1000</f>
-        <v>4.3421052631578947</v>
+        <v>4.2307692307692308</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>128</v>
@@ -1974,10 +1974,10 @@
       </c>
       <c r="K4" s="18">
         <f>E4-J4</f>
-        <v>1.0421052631578949</v>
+        <v>0.93076923076923102</v>
       </c>
       <c r="L4" s="21">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2001,15 +2001,15 @@
       </c>
       <c r="C6" s="39">
         <f>SUM(C2:C4)</f>
-        <v>1534.6728274820996</v>
+        <v>1513.2964895139773</v>
       </c>
       <c r="D6" s="39">
         <f>SUM(D2:D4)</f>
-        <v>18416.073929785198</v>
+        <v>18159.557874167727</v>
       </c>
       <c r="E6" s="46">
         <f>SUM(E2:E4)</f>
-        <v>18.416073929785195</v>
+        <v>18.159557874167728</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -2024,11 +2024,11 @@
       </c>
       <c r="K6" s="47">
         <f>SUM(K2:K4)</f>
-        <v>4.0540040846118623</v>
+        <v>3.7974880289943957</v>
       </c>
       <c r="L6" s="48">
         <f>J6/E6</f>
-        <v>0.779865996407892</v>
+        <v>0.79088213186090928</v>
       </c>
     </row>
   </sheetData>
